--- a/CoilDesign/AnalysisResults_Block/FerriteBlock.xlsx
+++ b/CoilDesign/AnalysisResults_Block/FerriteBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\CoilDesign\AnalysisResults_Block\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99518689-3A8E-4078-ABDF-3E83F393DA33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A17FB1-0F5C-4ED8-9CA1-4F9FDB572B8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,55 +1259,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>x = 45</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ydisp!$Q$40:$Q$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.15860317786199621</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13915955131762639</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12268536349453933</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10327277472354718</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.1284874020947981E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3F92-429A-A97D-3BFB35811447}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -1373,6 +1324,67 @@
         <c:smooth val="0"/>
         <c:axId val="2092765167"/>
         <c:axId val="126122527"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>x = 45</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ydisp!$Q$44:$Q$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.15860317786199621</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.13915955131762639</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.12268536349453933</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.10327277472354718</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.1284874020947981E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3F92-429A-A97D-3BFB35811447}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="2092765167"/>
@@ -3410,7 +3422,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3779,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5C03A5-8D53-4612-89BE-2250A06B9300}">
-  <dimension ref="B1:AA290"/>
+  <dimension ref="B1:AA294"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,7 +3822,7 @@
         <v>26</v>
       </c>
       <c r="G1" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>32</v>
@@ -3836,7 +3848,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
@@ -3933,61 +3945,61 @@
         <v>129.35658264979801</v>
       </c>
       <c r="H5" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D5*(10^-9)</f>
-        <v>8598.8356144987556</v>
+        <f t="shared" ref="H5:H48" si="0">2*PI()*150000*Ipt*Ipt*D5*(10^-9)</f>
+        <v>1698.5354300244464</v>
       </c>
       <c r="I5" s="1">
-        <f>2*PI()*150000*Ist*Ist*E5*(10^-9)</f>
-        <v>7561.3971947084383</v>
+        <f t="shared" ref="I5:I48" si="1">2*PI()*150000*Ist*Ist*E5*(10^-9)</f>
+        <v>1493.6093224115439</v>
       </c>
       <c r="J5" s="2">
-        <f>F5*SQRT(H5*I5)</f>
-        <v>472.14918246902994</v>
+        <f t="shared" ref="J5:J48" si="2">F5*SQRT(H5*I5)</f>
+        <v>93.264036043265207</v>
       </c>
       <c r="K5">
-        <f>2*PI()*150000*G5*Ipt*(10^-9)</f>
-        <v>5.6009424052167782</v>
+        <f t="shared" ref="K5:K48" si="3">2*PI()*150000*G5*Ipt*(10^-9)</f>
+        <v>2.4893077356519018</v>
       </c>
       <c r="N5">
-        <f>D5*$D$1^2*10^-3</f>
+        <f t="shared" ref="N5:N48" si="4">D5*$D$1^2*10^-3</f>
         <v>38.905243464121106</v>
       </c>
       <c r="O5">
-        <f>E5*$D$2^2*10^-3</f>
+        <f t="shared" ref="O5:O48" si="5">E5*$D$2^2*10^-3</f>
         <v>3.8012640054173503</v>
       </c>
       <c r="P5">
-        <f>G5*$D$1*$D$2*10^-3</f>
+        <f t="shared" ref="P5:P48" si="6">G5*$D$1*$D$2*10^-3</f>
         <v>1.9403487397469701</v>
       </c>
       <c r="Q5">
-        <f>P5/SQRT(N5*O5)</f>
+        <f t="shared" ref="Q5:Q48" si="7">P5/SQRT(N5*O5)</f>
         <v>0.15955547365434397</v>
       </c>
       <c r="S5" s="4">
-        <f>w*P5*10^-6*$G$1</f>
-        <v>13.715517028930412</v>
+        <f t="shared" ref="S5:S48" si="8">w*P5*10^-6*$G$1</f>
+        <v>9.1436780192869413</v>
       </c>
       <c r="T5" s="4">
-        <f>P5*$G$1/O5</f>
-        <v>3.8283622309217926</v>
+        <f t="shared" ref="T5:T48" si="9">P5*$G$1/O5</f>
+        <v>2.5522414872811949</v>
       </c>
       <c r="U5" s="4">
-        <f>S5*T5</f>
-        <v>52.507967371121872</v>
+        <f t="shared" ref="U5:U48" si="10">S5*T5</f>
+        <v>23.336874387165274</v>
       </c>
       <c r="V5" s="5">
-        <f>U5*$N$1</f>
-        <v>262.53983685560934</v>
+        <f t="shared" ref="V5:V48" si="11">U5*$N$1</f>
+        <v>116.68437193582636</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4">
-        <f>w*N5*10^-6*$G$1</f>
-        <v>275.00496086926159</v>
+        <f t="shared" ref="X5:X48" si="12">w*N5*10^-6*$G$1</f>
+        <v>183.33664057950773</v>
       </c>
       <c r="Y5" s="4">
-        <f>X5*$G$1</f>
-        <v>2062.537206519462</v>
+        <f t="shared" ref="Y5:Y48" si="13">X5*$G$1</f>
+        <v>916.68320289753865</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -4015,61 +4027,61 @@
         <v>127.631920443439</v>
       </c>
       <c r="H6" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D6*(10^-9)</f>
-        <v>8507.8437740426143</v>
+        <f t="shared" si="0"/>
+        <v>1680.5617331442206</v>
       </c>
       <c r="I6" s="1">
-        <f>2*PI()*150000*Ist*Ist*E6*(10^-9)</f>
-        <v>7575.7008041796262</v>
+        <f t="shared" si="1"/>
+        <v>1496.4347267515316</v>
       </c>
       <c r="J6" s="2">
-        <f>F6*SQRT(H6*I6)</f>
-        <v>431.04176609928533</v>
+        <f t="shared" si="2"/>
+        <v>85.144052562821813</v>
       </c>
       <c r="K6">
-        <f>2*PI()*150000*G6*Ipt*(10^-9)</f>
-        <v>5.5262671665207908</v>
+        <f t="shared" si="3"/>
+        <v>2.4561187406759073</v>
       </c>
       <c r="N6">
-        <f>D6*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.493552874266634</v>
       </c>
       <c r="O6">
-        <f>E6*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8084547129585999</v>
       </c>
       <c r="P6">
-        <f>G6*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9144788066515848</v>
       </c>
       <c r="Q6">
-        <f>P6/SQRT(N6*O6)</f>
+        <f t="shared" si="7"/>
         <v>0.15811831095959347</v>
       </c>
       <c r="S6" s="4">
-        <f>w*P6*10^-6*$G$1</f>
-        <v>13.532653247467438</v>
+        <f t="shared" si="8"/>
+        <v>9.0217688316449589</v>
       </c>
       <c r="T6" s="4">
-        <f>P6*$G$1/O6</f>
-        <v>3.77018820810197</v>
+        <f t="shared" si="9"/>
+        <v>2.5134588054013132</v>
       </c>
       <c r="U6" s="4">
-        <f>S6*T6</f>
-        <v>51.020649697934566</v>
+        <f t="shared" si="10"/>
+        <v>22.675844310193138</v>
       </c>
       <c r="V6" s="5">
-        <f>U6*$N$1</f>
-        <v>255.10324848967284</v>
+        <f t="shared" si="11"/>
+        <v>113.3792215509657</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4">
-        <f>w*N6*10^-6*$G$1</f>
-        <v>272.09489157082425</v>
+        <f t="shared" si="12"/>
+        <v>181.39659438054949</v>
       </c>
       <c r="Y6" s="4">
-        <f>X6*$G$1</f>
-        <v>2040.7116867811819</v>
+        <f t="shared" si="13"/>
+        <v>906.98297190274741</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -4097,61 +4109,61 @@
         <v>121.49748761608799</v>
       </c>
       <c r="H7" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D7*(10^-9)</f>
-        <v>8424.2606329412229</v>
+        <f t="shared" si="0"/>
+        <v>1664.0514830501186</v>
       </c>
       <c r="I7" s="1">
-        <f>2*PI()*150000*Ist*Ist*E7*(10^-9)</f>
-        <v>7590.9047507010546</v>
+        <f t="shared" si="1"/>
+        <v>1499.4379754471222</v>
       </c>
       <c r="J7" s="2">
-        <f>F7*SQRT(H7*I7)</f>
-        <v>398.36087294156431</v>
+        <f t="shared" si="2"/>
+        <v>78.688567494630021</v>
       </c>
       <c r="K7">
-        <f>2*PI()*150000*G7*Ipt*(10^-9)</f>
-        <v>5.2606555969288369</v>
+        <f t="shared" si="3"/>
+        <v>2.3380691541905949</v>
       </c>
       <c r="N7">
-        <f>D7*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.115382782427382</v>
       </c>
       <c r="O7">
-        <f>E7*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8160980377521496</v>
       </c>
       <c r="P7">
-        <f>G7*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8224623142413201</v>
       </c>
       <c r="Q7">
-        <f>P7/SQRT(N7*O7)</f>
+        <f t="shared" si="7"/>
         <v>0.15111189505694944</v>
       </c>
       <c r="S7" s="4">
-        <f>w*P7*10^-6*$G$1</f>
-        <v>12.882226990195763</v>
+        <f t="shared" si="8"/>
+        <v>8.5881513267971759</v>
       </c>
       <c r="T7" s="4">
-        <f>P7*$G$1/O7</f>
-        <v>3.5817914586023663</v>
+        <f t="shared" si="9"/>
+        <v>2.3878609724015778</v>
       </c>
       <c r="U7" s="4">
-        <f>S7*T7</f>
-        <v>46.141450601260054</v>
+        <f t="shared" si="10"/>
+        <v>20.507311378337803</v>
       </c>
       <c r="V7" s="5">
-        <f>U7*$N$1</f>
-        <v>230.70725300630028</v>
+        <f t="shared" si="11"/>
+        <v>102.53655689168902</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4">
-        <f>w*N7*10^-6*$G$1</f>
-        <v>269.42176471058264</v>
+        <f t="shared" si="12"/>
+        <v>179.6145098070551</v>
       </c>
       <c r="Y7" s="4">
-        <f>X7*$G$1</f>
-        <v>2020.6632353293699</v>
+        <f t="shared" si="13"/>
+        <v>898.07254903527553</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
@@ -4179,61 +4191,61 @@
         <v>111.177432412616</v>
       </c>
       <c r="H8" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D8*(10^-9)</f>
-        <v>8370.8610948572223</v>
+        <f t="shared" si="0"/>
+        <v>1653.5034261446372</v>
       </c>
       <c r="I8" s="1">
-        <f>2*PI()*150000*Ist*Ist*E8*(10^-9)</f>
-        <v>7575.3838010191075</v>
+        <f t="shared" si="1"/>
+        <v>1496.372108843281</v>
       </c>
       <c r="J8" s="2">
-        <f>F8*SQRT(H8*I8)</f>
-        <v>862.08406909507005</v>
+        <f t="shared" si="2"/>
+        <v>170.28821117927316</v>
       </c>
       <c r="K8">
-        <f>2*PI()*150000*G8*Ipt*(10^-9)</f>
-        <v>4.8138129730030839</v>
+        <f t="shared" si="3"/>
+        <v>2.1394724324458152</v>
       </c>
       <c r="N8">
-        <f>D8*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.873777741562705</v>
       </c>
       <c r="O8">
-        <f>E8*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8082953491964999</v>
       </c>
       <c r="P8">
-        <f>G8*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.6676614861892403</v>
       </c>
       <c r="Q8">
-        <f>P8/SQRT(N8*O8)</f>
+        <f t="shared" si="7"/>
         <v>0.13885875745617815</v>
       </c>
       <c r="S8" s="4">
-        <f>w*P8*10^-6*$G$1</f>
-        <v>11.788004415795193</v>
+        <f t="shared" si="8"/>
+        <v>7.8586696105301286</v>
       </c>
       <c r="T8" s="4">
-        <f>P8*$G$1/O8</f>
-        <v>3.2842676314635662</v>
+        <f t="shared" si="9"/>
+        <v>2.1895117543090441</v>
       </c>
       <c r="U8" s="4">
-        <f>S8*T8</f>
-        <v>38.714961342345738</v>
+        <f t="shared" si="10"/>
+        <v>17.206649485486995</v>
       </c>
       <c r="V8" s="5">
-        <f>U8*$N$1</f>
-        <v>193.57480671172868</v>
+        <f t="shared" si="11"/>
+        <v>86.033247427434972</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4">
-        <f>w*N8*10^-6*$G$1</f>
-        <v>267.71395931231848</v>
+        <f t="shared" si="12"/>
+        <v>178.47597287487901</v>
       </c>
       <c r="Y8" s="4">
-        <f>X8*$G$1</f>
-        <v>2007.8546948423887</v>
+        <f t="shared" si="13"/>
+        <v>892.37986437439508</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -4261,61 +4273,61 @@
         <v>97.936741444554798</v>
       </c>
       <c r="H9" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D9*(10^-9)</f>
-        <v>8306.899683835687</v>
+        <f t="shared" si="0"/>
+        <v>1640.8690733502597</v>
       </c>
       <c r="I9" s="1">
-        <f>2*PI()*150000*Ist*Ist*E9*(10^-9)</f>
-        <v>7584.1029922483094</v>
+        <f t="shared" si="1"/>
+        <v>1498.0944182218884</v>
       </c>
       <c r="J9" s="2">
-        <f>F9*SQRT(H9*I9)</f>
-        <v>857.05868279004073</v>
+        <f t="shared" si="2"/>
+        <v>169.29554227951425</v>
       </c>
       <c r="K9">
-        <f>2*PI()*150000*G9*Ipt*(10^-9)</f>
-        <v>4.2405112824493356</v>
+        <f t="shared" si="3"/>
+        <v>1.8846716810885937</v>
       </c>
       <c r="N9">
-        <f>D9*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.584385737847022</v>
       </c>
       <c r="O9">
-        <f>E9*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8126786591751247</v>
       </c>
       <c r="P9">
-        <f>G9*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.469051121668322</v>
       </c>
       <c r="Q9">
-        <f>P9/SQRT(N9*O9)</f>
+        <f t="shared" si="7"/>
         <v>0.12272077209907126</v>
       </c>
       <c r="S9" s="4">
-        <f>w*P9*10^-6*$G$1</f>
-        <v>10.384110476057351</v>
+        <f t="shared" si="8"/>
+        <v>6.9227403173715674</v>
       </c>
       <c r="T9" s="4">
-        <f>P9*$G$1/O9</f>
-        <v>2.8898012125931798</v>
+        <f t="shared" si="9"/>
+        <v>1.9265341417287867</v>
       </c>
       <c r="U9" s="4">
-        <f>S9*T9</f>
-        <v>30.008015045412076</v>
+        <f t="shared" si="10"/>
+        <v>13.336895575738701</v>
       </c>
       <c r="V9" s="5">
-        <f>U9*$N$1</f>
-        <v>150.04007522706038</v>
+        <f t="shared" si="11"/>
+        <v>66.684477878693514</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4">
-        <f>w*N9*10^-6*$G$1</f>
-        <v>265.66836777833669</v>
+        <f t="shared" si="12"/>
+        <v>177.11224518555778</v>
       </c>
       <c r="Y9" s="4">
-        <f>X9*$G$1</f>
-        <v>1992.5127583375252</v>
+        <f t="shared" si="13"/>
+        <v>885.56122592778888</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -4343,61 +4355,61 @@
         <v>81.897070409233393</v>
       </c>
       <c r="H10" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D10*(10^-9)</f>
-        <v>8204.1224299659443</v>
+        <f t="shared" si="0"/>
+        <v>1620.5673935735203</v>
       </c>
       <c r="I10" s="1">
-        <f>2*PI()*150000*Ist*Ist*E10*(10^-9)</f>
-        <v>7593.7696563527634</v>
+        <f t="shared" si="1"/>
+        <v>1500.0038827363487</v>
       </c>
       <c r="J10" s="2">
-        <f>F10*SQRT(H10*I10)</f>
-        <v>845.07995848077462</v>
+        <f t="shared" si="2"/>
+        <v>166.92937451472096</v>
       </c>
       <c r="K10">
-        <f>2*PI()*150000*G10*Ipt*(10^-9)</f>
-        <v>3.5460180311033884</v>
+        <f t="shared" si="3"/>
+        <v>1.5760080138237285</v>
       </c>
       <c r="N10">
-        <f>D10*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.119372303047307</v>
       </c>
       <c r="O10">
-        <f>E10*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.817538282518075</v>
       </c>
       <c r="P10">
-        <f>G10*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.228456056138501</v>
       </c>
       <c r="Q10">
-        <f>P10/SQRT(N10*O10)</f>
+        <f t="shared" si="7"/>
         <v>0.10319712859331616</v>
       </c>
       <c r="S10" s="4">
-        <f>w*P10*10^-6*$G$1</f>
-        <v>8.6834441727508604</v>
+        <f t="shared" si="8"/>
+        <v>5.7889627818339076</v>
       </c>
       <c r="T10" s="4">
-        <f>P10*$G$1/O10</f>
-        <v>2.4134454559972403</v>
+        <f t="shared" si="9"/>
+        <v>1.6089636373314937</v>
       </c>
       <c r="U10" s="4">
-        <f>S10*T10</f>
-        <v>20.95701888113128</v>
+        <f t="shared" si="10"/>
+        <v>9.314230613836127</v>
       </c>
       <c r="V10" s="5">
-        <f>U10*$N$1</f>
-        <v>104.78509440565639</v>
+        <f t="shared" si="11"/>
+        <v>46.571153069180639</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4">
-        <f>w*N10*10^-6*$G$1</f>
-        <v>262.38138149951516</v>
+        <f t="shared" si="12"/>
+        <v>174.92092099967678</v>
       </c>
       <c r="Y10" s="4">
-        <f>X10*$G$1</f>
-        <v>1967.8603612463637</v>
+        <f t="shared" si="13"/>
+        <v>874.60460499838393</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -4425,61 +4437,61 @@
         <v>72.083854113798097</v>
       </c>
       <c r="H11" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D11*(10^-9)</f>
-        <v>8138.581676555179</v>
+        <f t="shared" si="0"/>
+        <v>1607.6210719121345</v>
       </c>
       <c r="I11" s="1">
-        <f>2*PI()*150000*Ist*Ist*E11*(10^-9)</f>
-        <v>7585.2003283556969</v>
+        <f t="shared" si="1"/>
+        <v>1498.3111759714961</v>
       </c>
       <c r="J11" s="2">
-        <f>F11*SQRT(H11*I11)</f>
-        <v>831.21722709063613</v>
+        <f t="shared" si="2"/>
+        <v>164.19105720308866</v>
       </c>
       <c r="K11">
-        <f>2*PI()*150000*G11*Ipt*(10^-9)</f>
-        <v>3.1211207575763997</v>
+        <f t="shared" si="3"/>
+        <v>1.3871647811450667</v>
       </c>
       <c r="N11">
-        <f>D11*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.822834599271665</v>
       </c>
       <c r="O11">
-        <f>E11*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8132303117519499</v>
       </c>
       <c r="P11">
-        <f>G11*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0812578117069713</v>
       </c>
       <c r="Q11">
-        <f>P11/SQRT(N11*O11)</f>
+        <f t="shared" si="7"/>
         <v>9.124816324674935E-2</v>
       </c>
       <c r="S11" s="4">
-        <f>w*P11*10^-6*$G$1</f>
-        <v>7.6429610952641927</v>
+        <f t="shared" si="8"/>
+        <v>5.0953073968427951</v>
       </c>
       <c r="T11" s="4">
-        <f>P11*$G$1/O11</f>
-        <v>2.1266571711679507</v>
+        <f t="shared" si="9"/>
+        <v>1.4177714474453005</v>
       </c>
       <c r="U11" s="4">
-        <f>S11*T11</f>
-        <v>16.25395802220125</v>
+        <f t="shared" si="10"/>
+        <v>7.2239813432005553</v>
       </c>
       <c r="V11" s="5">
-        <f>U11*$N$1</f>
-        <v>81.269790111006245</v>
+        <f t="shared" si="11"/>
+        <v>36.119906716002774</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4">
-        <f>w*N11*10^-6*$G$1</f>
-        <v>260.2852799882038</v>
+        <f t="shared" si="12"/>
+        <v>173.52351999213585</v>
       </c>
       <c r="Y11" s="4">
-        <f>X11*$G$1</f>
-        <v>1952.1395999115284</v>
+        <f t="shared" si="13"/>
+        <v>867.61759996067917</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -4507,61 +4519,61 @@
         <v>129.62842841766701</v>
       </c>
       <c r="H12" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D12*(10^-9)</f>
-        <v>8597.0976466111697</v>
+        <f t="shared" si="0"/>
+        <v>1698.1921277256636</v>
       </c>
       <c r="I12" s="1">
-        <f>2*PI()*150000*Ist*Ist*E12*(10^-9)</f>
-        <v>7581.8533414613112</v>
+        <f t="shared" si="1"/>
+        <v>1497.6500427577903</v>
       </c>
       <c r="J12" s="2">
-        <f>F12*SQRT(H12*I12)</f>
-        <v>753.46926041323593</v>
+        <f t="shared" si="2"/>
+        <v>148.83343415570096</v>
       </c>
       <c r="K12">
-        <f>2*PI()*150000*G12*Ipt*(10^-9)</f>
-        <v>5.612712911655235</v>
+        <f t="shared" si="3"/>
+        <v>2.4945390718467713</v>
       </c>
       <c r="N12">
-        <f>D12*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.897380066466972</v>
       </c>
       <c r="O12">
-        <f>E12*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8115477152052248</v>
       </c>
       <c r="P12">
-        <f>G12*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9444264262650053</v>
       </c>
       <c r="Q12">
-        <f>P12/SQRT(N12*O12)</f>
+        <f t="shared" si="7"/>
         <v>0.15969108041667934</v>
       </c>
       <c r="S12" s="4">
-        <f>w*P12*10^-6*$G$1</f>
-        <v>13.744340496449992</v>
+        <f t="shared" si="8"/>
+        <v>9.162893664299995</v>
       </c>
       <c r="T12" s="4">
-        <f>P12*$G$1/O12</f>
-        <v>3.8260568374394177</v>
+        <f t="shared" si="9"/>
+        <v>2.5507045582929448</v>
       </c>
       <c r="U12" s="4">
-        <f>S12*T12</f>
-        <v>52.586627932537972</v>
+        <f t="shared" si="10"/>
+        <v>23.371834636683541</v>
       </c>
       <c r="V12" s="5">
-        <f>U12*$N$1</f>
-        <v>262.93313966268988</v>
+        <f t="shared" si="11"/>
+        <v>116.85917318341771</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4">
-        <f>w*N12*10^-6*$G$1</f>
-        <v>274.94937778658107</v>
+        <f t="shared" si="12"/>
+        <v>183.29958519105404</v>
       </c>
       <c r="Y12" s="4">
-        <f>X12*$G$1</f>
-        <v>2062.1203333993581</v>
+        <f t="shared" si="13"/>
+        <v>916.49792595527015</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -4589,61 +4601,61 @@
         <v>127.179902033109</v>
       </c>
       <c r="H13" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D13*(10^-9)</f>
-        <v>8483.7746812269379</v>
+        <f t="shared" si="0"/>
+        <v>1675.8073444398892</v>
       </c>
       <c r="I13" s="1">
-        <f>2*PI()*150000*Ist*Ist*E13*(10^-9)</f>
-        <v>7551.8534725922964</v>
+        <f t="shared" si="1"/>
+        <v>1491.724142734281</v>
       </c>
       <c r="J13" s="2">
-        <f>F13*SQRT(H13*I13)</f>
-        <v>712.49535397667466</v>
+        <f t="shared" si="2"/>
+        <v>140.73982300773824</v>
       </c>
       <c r="K13">
-        <f>2*PI()*150000*G13*Ipt*(10^-9)</f>
-        <v>5.5066954599211346</v>
+        <f t="shared" si="3"/>
+        <v>2.4474202044093936</v>
       </c>
       <c r="N13">
-        <f>D13*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.384652790820972</v>
       </c>
       <c r="O13">
-        <f>E13*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7964661874448753</v>
       </c>
       <c r="P13">
-        <f>G13*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9076985304966352</v>
       </c>
       <c r="Q13">
-        <f>P13/SQRT(N13*O13)</f>
+        <f t="shared" si="7"/>
         <v>0.15803059263342417</v>
       </c>
       <c r="S13" s="4">
-        <f>w*P13*10^-6*$G$1</f>
-        <v>13.484726299512614</v>
+        <f t="shared" si="8"/>
+        <v>8.9898175330084094</v>
       </c>
       <c r="T13" s="4">
-        <f>P13*$G$1/O13</f>
-        <v>3.7686991724149292</v>
+        <f t="shared" si="9"/>
+        <v>2.5124661149432863</v>
       </c>
       <c r="U13" s="4">
-        <f>S13*T13</f>
-        <v>50.81987684521502</v>
+        <f t="shared" si="10"/>
+        <v>22.586611931206676</v>
       </c>
       <c r="V13" s="5">
-        <f>U13*$N$1</f>
-        <v>254.0993842260751</v>
+        <f t="shared" si="11"/>
+        <v>112.93305965603338</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4">
-        <f>w*N13*10^-6*$G$1</f>
-        <v>271.32512224103573</v>
+        <f t="shared" si="12"/>
+        <v>180.88341482735714</v>
       </c>
       <c r="Y13" s="4">
-        <f>X13*$G$1</f>
-        <v>2034.9384168077679</v>
+        <f t="shared" si="13"/>
+        <v>904.41707413678569</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -4671,61 +4683,61 @@
         <v>120.95528834715699</v>
       </c>
       <c r="H14" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D14*(10^-9)</f>
-        <v>8398.2924331082977</v>
+        <f t="shared" si="0"/>
+        <v>1658.9219620954666</v>
       </c>
       <c r="I14" s="1">
-        <f>2*PI()*150000*Ist*Ist*E14*(10^-9)</f>
-        <v>7556.1134082017261</v>
+        <f t="shared" si="1"/>
+        <v>1492.5656114966378</v>
       </c>
       <c r="J14" s="2">
-        <f>F14*SQRT(H14*I14)</f>
-        <v>672.27659355562912</v>
+        <f t="shared" si="2"/>
+        <v>132.79537650481566</v>
       </c>
       <c r="K14">
-        <f>2*PI()*150000*G14*Ipt*(10^-9)</f>
-        <v>5.2371791969248678</v>
+        <f t="shared" si="3"/>
+        <v>2.3276351986332751</v>
       </c>
       <c r="N14">
-        <f>D14*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.997890230863611</v>
       </c>
       <c r="O14">
-        <f>E14*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7986077413773751</v>
       </c>
       <c r="P14">
-        <f>G14*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8143293252073549</v>
       </c>
       <c r="Q14">
-        <f>P14/SQRT(N14*O14)</f>
+        <f t="shared" si="7"/>
         <v>0.15101641413248773</v>
       </c>
       <c r="S14" s="4">
-        <f>w*P14*10^-6*$G$1</f>
-        <v>12.824738278343892</v>
+        <f t="shared" si="8"/>
+        <v>8.5498255188959291</v>
       </c>
       <c r="T14" s="4">
-        <f>P14*$G$1/O14</f>
-        <v>3.5822256114607649</v>
+        <f t="shared" si="9"/>
+        <v>2.3881504076405098</v>
       </c>
       <c r="U14" s="4">
-        <f>S14*T14</f>
-        <v>45.941105920964723</v>
+        <f t="shared" si="10"/>
+        <v>20.418269298206546</v>
       </c>
       <c r="V14" s="5">
-        <f>U14*$N$1</f>
-        <v>229.70552960482362</v>
+        <f t="shared" si="11"/>
+        <v>102.09134649103274</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4">
-        <f>w*N14*10^-6*$G$1</f>
-        <v>268.59125880268311</v>
+        <f t="shared" si="12"/>
+        <v>179.06083920178872</v>
       </c>
       <c r="Y14" s="4">
-        <f>X14*$G$1</f>
-        <v>2014.4344410201234</v>
+        <f t="shared" si="13"/>
+        <v>895.30419600894356</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -4753,61 +4765,61 @@
         <v>111.18917378230699</v>
       </c>
       <c r="H15" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D15*(10^-9)</f>
-        <v>8359.9771626558631</v>
+        <f t="shared" si="0"/>
+        <v>1651.3535136110352</v>
       </c>
       <c r="I15" s="1">
-        <f>2*PI()*150000*Ist*Ist*E15*(10^-9)</f>
-        <v>7584.5260033132245</v>
+        <f t="shared" si="1"/>
+        <v>1498.1779759631065</v>
       </c>
       <c r="J15" s="2">
-        <f>F15*SQRT(H15*I15)</f>
-        <v>632.29708319867757</v>
+        <f t="shared" si="2"/>
+        <v>124.89818927381289</v>
       </c>
       <c r="K15">
-        <f>2*PI()*150000*G15*Ipt*(10^-9)</f>
-        <v>4.8143213563729166</v>
+        <f t="shared" si="3"/>
+        <v>2.1396983806101852</v>
       </c>
       <c r="N15">
-        <f>D15*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.824533628624096</v>
       </c>
       <c r="O15">
-        <f>E15*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8128913152085997</v>
       </c>
       <c r="P15">
-        <f>G15*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.667837606734605</v>
       </c>
       <c r="Q15">
-        <f>P15/SQRT(N15*O15)</f>
+        <f t="shared" si="7"/>
         <v>0.13888001609491035</v>
       </c>
       <c r="S15" s="4">
-        <f>w*P15*10^-6*$G$1</f>
-        <v>11.789249338570988</v>
+        <f t="shared" si="8"/>
+        <v>7.8594995590473253</v>
       </c>
       <c r="T15" s="4">
-        <f>P15*$G$1/O15</f>
-        <v>3.2806552866102856</v>
+        <f t="shared" si="9"/>
+        <v>2.1871035244068571</v>
       </c>
       <c r="U15" s="4">
-        <f>S15*T15</f>
-        <v>38.676463167749723</v>
+        <f t="shared" si="10"/>
+        <v>17.189539185666543</v>
       </c>
       <c r="V15" s="5">
-        <f>U15*$N$1</f>
-        <v>193.38231583874861</v>
+        <f t="shared" si="11"/>
+        <v>85.94769592833272</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4">
-        <f>w*N15*10^-6*$G$1</f>
-        <v>267.36587318957743</v>
+        <f t="shared" si="12"/>
+        <v>178.24391545971827</v>
       </c>
       <c r="Y15" s="4">
-        <f>X15*$G$1</f>
-        <v>2005.2440489218307</v>
+        <f t="shared" si="13"/>
+        <v>891.21957729859128</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -4835,61 +4847,61 @@
         <v>97.681215561976401</v>
       </c>
       <c r="H16" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D16*(10^-9)</f>
-        <v>8281.0427075055904</v>
+        <f t="shared" si="0"/>
+        <v>1635.7615224702406</v>
       </c>
       <c r="I16" s="1">
-        <f>2*PI()*150000*Ist*Ist*E16*(10^-9)</f>
-        <v>7563.3864229968467</v>
+        <f t="shared" si="1"/>
+        <v>1494.0022563944392</v>
       </c>
       <c r="J16" s="2">
-        <f>F16*SQRT(H16*I16)</f>
-        <v>590.06816986375645</v>
+        <f t="shared" si="2"/>
+        <v>116.5566755286433</v>
       </c>
       <c r="K16">
-        <f>2*PI()*150000*G16*Ipt*(10^-9)</f>
-        <v>4.2294474021113837</v>
+        <f t="shared" si="3"/>
+        <v>1.8797544009383931</v>
       </c>
       <c r="N16">
-        <f>D16*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.467396414586531</v>
       </c>
       <c r="O16">
-        <f>E16*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8022640298436006</v>
       </c>
       <c r="P16">
-        <f>G16*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.465218233429646</v>
       </c>
       <c r="Q16">
-        <f>P16/SQRT(N16*O16)</f>
+        <f t="shared" si="7"/>
         <v>0.12275930507635556</v>
       </c>
       <c r="S16" s="4">
-        <f>w*P16*10^-6*$G$1</f>
-        <v>10.357017385608877</v>
+        <f t="shared" si="8"/>
+        <v>6.9046782570725851</v>
       </c>
       <c r="T16" s="4">
-        <f>P16*$G$1/O16</f>
-        <v>2.8901561449887958</v>
+        <f t="shared" si="9"/>
+        <v>1.9267707633258639</v>
       </c>
       <c r="U16" s="4">
-        <f>S16*T16</f>
-        <v>29.933397440773287</v>
+        <f t="shared" si="10"/>
+        <v>13.30373219589924</v>
       </c>
       <c r="V16" s="5">
-        <f>U16*$N$1</f>
-        <v>149.66698720386643</v>
+        <f t="shared" si="11"/>
+        <v>66.518660979496204</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4">
-        <f>w*N16*10^-6*$G$1</f>
-        <v>264.84141898170361</v>
+        <f t="shared" si="12"/>
+        <v>176.5609459878024</v>
       </c>
       <c r="Y16" s="4">
-        <f>X16*$G$1</f>
-        <v>1986.3106423627771</v>
+        <f t="shared" si="13"/>
+        <v>882.80472993901196</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
@@ -4917,61 +4929,61 @@
         <v>81.489944007226896</v>
       </c>
       <c r="H17" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D17*(10^-9)</f>
-        <v>8189.7026466110347</v>
+        <f t="shared" si="0"/>
+        <v>1617.7190413058838</v>
       </c>
       <c r="I17" s="1">
-        <f>2*PI()*150000*Ist*Ist*E17*(10^-9)</f>
-        <v>7555.5608173788696</v>
+        <f t="shared" si="1"/>
+        <v>1492.4564577538511</v>
       </c>
       <c r="J17" s="2">
-        <f>F17*SQRT(H17*I17)</f>
-        <v>543.82505690342214</v>
+        <f t="shared" si="2"/>
+        <v>107.42223346240439</v>
       </c>
       <c r="K17">
-        <f>2*PI()*150000*G17*Ipt*(10^-9)</f>
-        <v>3.5283900798807224</v>
+        <f t="shared" si="3"/>
+        <v>1.5681733688358765</v>
       </c>
       <c r="N17">
-        <f>D17*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.05413030898282</v>
       </c>
       <c r="O17">
-        <f>E17*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.798329943035275</v>
       </c>
       <c r="P17">
-        <f>G17*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2223491601084036</v>
       </c>
       <c r="Q17">
-        <f>P17/SQRT(N17*O17)</f>
+        <f t="shared" si="7"/>
         <v>0.10303401476695871</v>
       </c>
       <c r="S17" s="4">
-        <f>w*P17*10^-6*$G$1</f>
-        <v>8.6402770684159815</v>
+        <f t="shared" si="8"/>
+        <v>5.7601847122773204</v>
       </c>
       <c r="T17" s="4">
-        <f>P17*$G$1/O17</f>
-        <v>2.4135919833986592</v>
+        <f t="shared" si="9"/>
+        <v>1.6090613222657728</v>
       </c>
       <c r="U17" s="4">
-        <f>S17*T17</f>
-        <v>20.854103466672083</v>
+        <f t="shared" si="10"/>
+        <v>9.2684904296320347</v>
       </c>
       <c r="V17" s="5">
-        <f>U17*$N$1</f>
-        <v>104.27051733336042</v>
+        <f t="shared" si="11"/>
+        <v>46.342452148160177</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4">
-        <f>w*N17*10^-6*$G$1</f>
-        <v>261.9202130186834</v>
+        <f t="shared" si="12"/>
+        <v>174.61347534578894</v>
       </c>
       <c r="Y17" s="4">
-        <f>X17*$G$1</f>
-        <v>1964.4015976401256</v>
+        <f t="shared" si="13"/>
+        <v>873.06737672894474</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
@@ -4999,61 +5011,61 @@
         <v>71.537674475284007</v>
       </c>
       <c r="H18" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D18*(10^-9)</f>
-        <v>8105.5026409188349</v>
+        <f t="shared" si="0"/>
+        <v>1601.0869414160666</v>
       </c>
       <c r="I18" s="1">
-        <f>2*PI()*150000*Ist*Ist*E18*(10^-9)</f>
-        <v>7520.5238583306218</v>
+        <f t="shared" si="1"/>
+        <v>1485.5355769541973</v>
       </c>
       <c r="J18" s="2">
-        <f>F18*SQRT(H18*I18)</f>
-        <v>498.51414729512271</v>
+        <f t="shared" si="2"/>
+        <v>98.471930329900815</v>
       </c>
       <c r="K18">
-        <f>2*PI()*150000*G18*Ipt*(10^-9)</f>
-        <v>3.097472013650461</v>
+        <f t="shared" si="3"/>
+        <v>1.3766542282890939</v>
       </c>
       <c r="N18">
-        <f>D18*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.673169226808859</v>
       </c>
       <c r="O18">
-        <f>E18*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7807161703607499</v>
       </c>
       <c r="P18">
-        <f>G18*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0730651171292602</v>
       </c>
       <c r="Q18">
-        <f>P18/SQRT(N18*O18)</f>
+        <f t="shared" si="7"/>
         <v>9.1130723567221628E-2</v>
       </c>
       <c r="S18" s="4">
-        <f>w*P18*10^-6*$G$1</f>
-        <v>7.5850503497926978</v>
+        <f t="shared" si="8"/>
+        <v>5.0567002331951318</v>
       </c>
       <c r="T18" s="4">
-        <f>P18*$G$1/O18</f>
-        <v>2.1286941457183031</v>
+        <f t="shared" si="9"/>
+        <v>1.4191294304788689</v>
       </c>
       <c r="U18" s="4">
-        <f>S18*T18</f>
-        <v>16.146252274582281</v>
+        <f t="shared" si="10"/>
+        <v>7.1761121220365709</v>
       </c>
       <c r="V18" s="5">
-        <f>U18*$N$1</f>
-        <v>80.731261372911405</v>
+        <f t="shared" si="11"/>
+        <v>35.880560610182854</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4">
-        <f>w*N18*10^-6*$G$1</f>
-        <v>259.22735781029547</v>
+        <f t="shared" si="12"/>
+        <v>172.818238540197</v>
       </c>
       <c r="Y18" s="4">
-        <f>X18*$G$1</f>
-        <v>1944.2051835772161</v>
+        <f t="shared" si="13"/>
+        <v>864.09119270098495</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
@@ -5081,61 +5093,61 @@
         <v>129.28791649253199</v>
       </c>
       <c r="H19" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D19*(10^-9)</f>
-        <v>8585.546602877539</v>
+        <f t="shared" si="0"/>
+        <v>1695.9104400745759</v>
       </c>
       <c r="I19" s="1">
-        <f>2*PI()*150000*Ist*Ist*E19*(10^-9)</f>
-        <v>7552.6436013733537</v>
+        <f t="shared" si="1"/>
+        <v>1491.8802175552307</v>
       </c>
       <c r="J19" s="2">
-        <f>F19*SQRT(H19*I19)</f>
-        <v>886.03790430275899</v>
+        <f t="shared" si="2"/>
+        <v>175.01983294869316</v>
       </c>
       <c r="K19">
-        <f>2*PI()*150000*G19*Ipt*(10^-9)</f>
-        <v>5.5979692655113498</v>
+        <f t="shared" si="3"/>
+        <v>2.4879863402272671</v>
       </c>
       <c r="N19">
-        <f>D19*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.84511762200718</v>
       </c>
       <c r="O19">
-        <f>E19*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7968634008193001</v>
       </c>
       <c r="P19">
-        <f>G19*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.93931874738798</v>
       </c>
       <c r="Q19">
-        <f>P19/SQRT(N19*O19)</f>
+        <f t="shared" si="7"/>
         <v>0.1596866054543922</v>
       </c>
       <c r="S19" s="4">
-        <f>w*P19*10^-6*$G$1</f>
-        <v>13.708236441966834</v>
+        <f t="shared" si="8"/>
+        <v>9.1388242946445573</v>
       </c>
       <c r="T19" s="4">
-        <f>P19*$G$1/O19</f>
-        <v>3.830764783971766</v>
+        <f t="shared" si="9"/>
+        <v>2.5538431893145104</v>
       </c>
       <c r="U19" s="4">
-        <f>S19*T19</f>
-        <v>52.513029412244968</v>
+        <f t="shared" si="10"/>
+        <v>23.339124183219987</v>
       </c>
       <c r="V19" s="5">
-        <f>U19*$N$1</f>
-        <v>262.56514706122482</v>
+        <f t="shared" si="11"/>
+        <v>116.69562091609993</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4">
-        <f>w*N19*10^-6*$G$1</f>
-        <v>274.57995633554066</v>
+        <f t="shared" si="12"/>
+        <v>183.05330422369377</v>
       </c>
       <c r="Y19" s="4">
-        <f>X19*$G$1</f>
-        <v>2059.3496725165551</v>
+        <f t="shared" si="13"/>
+        <v>915.26652111846886</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
@@ -5163,61 +5175,61 @@
         <v>127.35529918616101</v>
       </c>
       <c r="H20" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D20*(10^-9)</f>
-        <v>8496.7165306097977</v>
+        <f t="shared" si="0"/>
+        <v>1678.3637591328002</v>
       </c>
       <c r="I20" s="1">
-        <f>2*PI()*150000*Ist*Ist*E20*(10^-9)</f>
-        <v>7577.0988862852473</v>
+        <f t="shared" si="1"/>
+        <v>1496.710891118074</v>
       </c>
       <c r="J20" s="2">
-        <f>F20*SQRT(H20*I20)</f>
-        <v>876.98197480534168</v>
+        <f t="shared" si="2"/>
+        <v>173.23100736895643</v>
       </c>
       <c r="K20">
-        <f>2*PI()*150000*G20*Ipt*(10^-9)</f>
-        <v>5.5142898886866423</v>
+        <f t="shared" si="3"/>
+        <v>2.4507955060829523</v>
       </c>
       <c r="N20">
-        <f>D20*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.443207904988661</v>
       </c>
       <c r="O20">
-        <f>E20*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8091575565003244</v>
       </c>
       <c r="P20">
-        <f>G20*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9103294877924151</v>
       </c>
       <c r="Q20">
-        <f>P20/SQRT(N20*O20)</f>
+        <f t="shared" si="7"/>
         <v>0.15786432647841289</v>
       </c>
       <c r="S20" s="4">
-        <f>w*P20*10^-6*$G$1</f>
-        <v>13.503323440765357</v>
+        <f t="shared" si="8"/>
+        <v>9.0022156271769056</v>
       </c>
       <c r="T20" s="4">
-        <f>P20*$G$1/O20</f>
-        <v>3.7613227980011734</v>
+        <f t="shared" si="9"/>
+        <v>2.507548532000782</v>
       </c>
       <c r="U20" s="4">
-        <f>S20*T20</f>
-        <v>50.790358306534387</v>
+        <f t="shared" si="10"/>
+        <v>22.573492580681947</v>
       </c>
       <c r="V20" s="5">
-        <f>U20*$N$1</f>
-        <v>253.95179153267193</v>
+        <f t="shared" si="11"/>
+        <v>112.86746290340973</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4">
-        <f>w*N20*10^-6*$G$1</f>
-        <v>271.73902395315923</v>
+        <f t="shared" si="12"/>
+        <v>181.15934930210616</v>
       </c>
       <c r="Y20" s="4">
-        <f>X20*$G$1</f>
-        <v>2038.0426796486943</v>
+        <f t="shared" si="13"/>
+        <v>905.79674651053085</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
@@ -5245,61 +5257,61 @@
         <v>121.159745896101</v>
       </c>
       <c r="H21" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D21*(10^-9)</f>
-        <v>8400.7864489538151</v>
+        <f t="shared" si="0"/>
+        <v>1659.4146072007543</v>
       </c>
       <c r="I21" s="1">
-        <f>2*PI()*150000*Ist*Ist*E21*(10^-9)</f>
-        <v>7571.1231946857342</v>
+        <f t="shared" si="1"/>
+        <v>1495.5305075922442</v>
       </c>
       <c r="J21" s="2">
-        <f>F21*SQRT(H21*I21)</f>
-        <v>860.22854484853815</v>
+        <f t="shared" si="2"/>
+        <v>169.92168787131624</v>
       </c>
       <c r="K21">
-        <f>2*PI()*150000*G21*Ipt*(10^-9)</f>
-        <v>5.2460318964357029</v>
+        <f t="shared" si="3"/>
+        <v>2.3315697317492012</v>
       </c>
       <c r="N21">
-        <f>D21*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.00917435094955</v>
       </c>
       <c r="O21">
-        <f>E21*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8061534580778003</v>
       </c>
       <c r="P21">
-        <f>G21*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8173961884415148</v>
       </c>
       <c r="Q21">
-        <f>P21/SQRT(N21*O21)</f>
+        <f t="shared" si="7"/>
         <v>0.15109922882271482</v>
       </c>
       <c r="S21" s="4">
-        <f>w*P21*10^-6*$G$1</f>
-        <v>12.846416657107397</v>
+        <f t="shared" si="8"/>
+        <v>8.5642777714049316</v>
       </c>
       <c r="T21" s="4">
-        <f>P21*$G$1/O21</f>
-        <v>3.5811670662893031</v>
+        <f t="shared" si="9"/>
+        <v>2.3874447108595356</v>
       </c>
       <c r="U21" s="4">
-        <f>S21*T21</f>
-        <v>46.005164252263334</v>
+        <f t="shared" si="10"/>
+        <v>20.446739667672595</v>
       </c>
       <c r="V21" s="5">
-        <f>U21*$N$1</f>
-        <v>230.02582126131668</v>
+        <f t="shared" si="11"/>
+        <v>102.23369833836298</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4">
-        <f>w*N21*10^-6*$G$1</f>
-        <v>268.67102154740252</v>
+        <f t="shared" si="12"/>
+        <v>179.11401436493503</v>
       </c>
       <c r="Y21" s="4">
-        <f>X21*$G$1</f>
-        <v>2015.0326616055188</v>
+        <f t="shared" si="13"/>
+        <v>895.5700718246751</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
@@ -5327,61 +5339,61 @@
         <v>110.61784048831301</v>
       </c>
       <c r="H22" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D22*(10^-9)</f>
-        <v>8342.148464980095</v>
+        <f t="shared" si="0"/>
+        <v>1647.8317955516241</v>
       </c>
       <c r="I22" s="1">
-        <f>2*PI()*150000*Ist*Ist*E22*(10^-9)</f>
-        <v>7537.4183581003344</v>
+        <f t="shared" si="1"/>
+        <v>1488.8727620938937</v>
       </c>
       <c r="J22" s="2">
-        <f>F22*SQRT(H22*I22)</f>
-        <v>842.0421156116505</v>
+        <f t="shared" si="2"/>
+        <v>166.32930678748656</v>
       </c>
       <c r="K22">
-        <f>2*PI()*150000*G22*Ipt*(10^-9)</f>
-        <v>4.7895834975930018</v>
+        <f t="shared" si="3"/>
+        <v>2.1287037767080013</v>
       </c>
       <c r="N22">
-        <f>D22*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.74386807635392</v>
       </c>
       <c r="O22">
-        <f>E22*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7892093697272751</v>
       </c>
       <c r="P22">
-        <f>G22*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.6592676073246952</v>
       </c>
       <c r="Q22">
-        <f>P22/SQRT(N22*O22)</f>
+        <f t="shared" si="7"/>
         <v>0.13874550781393152</v>
       </c>
       <c r="S22" s="4">
-        <f>w*P22*10^-6*$G$1</f>
-        <v>11.728671582399246</v>
+        <f t="shared" si="8"/>
+        <v>7.819114388266164</v>
       </c>
       <c r="T22" s="4">
-        <f>P22*$G$1/O22</f>
-        <v>3.284196211050459</v>
+        <f t="shared" si="9"/>
+        <v>2.1894641407003061</v>
       </c>
       <c r="U22" s="4">
-        <f>S22*T22</f>
-        <v>38.51925877157079</v>
+        <f t="shared" si="10"/>
+        <v>17.119670565142577</v>
       </c>
       <c r="V22" s="5">
-        <f>U22*$N$1</f>
-        <v>192.59629385785394</v>
+        <f t="shared" si="11"/>
+        <v>85.59835282571288</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4">
-        <f>w*N22*10^-6*$G$1</f>
-        <v>266.79568200015552</v>
+        <f t="shared" si="12"/>
+        <v>177.86378800010368</v>
       </c>
       <c r="Y22" s="4">
-        <f>X22*$G$1</f>
-        <v>2000.9676150011665</v>
+        <f t="shared" si="13"/>
+        <v>889.31894000051841</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
@@ -5409,61 +5421,61 @@
         <v>97.238348646655297</v>
       </c>
       <c r="H23" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D23*(10^-9)</f>
-        <v>8267.7139128555937</v>
+        <f t="shared" si="0"/>
+        <v>1633.1286741443155</v>
       </c>
       <c r="I23" s="1">
-        <f>2*PI()*150000*Ist*Ist*E23*(10^-9)</f>
-        <v>7540.506305446067</v>
+        <f t="shared" si="1"/>
+        <v>1489.4827270016924</v>
       </c>
       <c r="J23" s="2">
-        <f>F23*SQRT(H23*I23)</f>
-        <v>817.0857235380206</v>
+        <f t="shared" si="2"/>
+        <v>161.39964909393004</v>
       </c>
       <c r="K23">
-        <f>2*PI()*150000*G23*Ipt*(10^-9)</f>
-        <v>4.2102719412644873</v>
+        <f t="shared" si="3"/>
+        <v>1.8712319738953276</v>
       </c>
       <c r="N23">
-        <f>D23*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.407090575029947</v>
       </c>
       <c r="O23">
-        <f>E23*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7907617419666502</v>
       </c>
       <c r="P23">
-        <f>G23*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.4585752296998293</v>
       </c>
       <c r="Q23">
-        <f>P23/SQRT(N23*O23)</f>
+        <f t="shared" si="7"/>
         <v>0.12248661246841816</v>
       </c>
       <c r="S23" s="4">
-        <f>w*P23*10^-6*$G$1</f>
-        <v>10.310060759249314</v>
+        <f t="shared" si="8"/>
+        <v>6.8733738394995427</v>
       </c>
       <c r="T23" s="4">
-        <f>P23*$G$1/O23</f>
-        <v>2.8857825860280513</v>
+        <f t="shared" si="9"/>
+        <v>1.9238550573520343</v>
       </c>
       <c r="U23" s="4">
-        <f>S23*T23</f>
-        <v>29.752593799932818</v>
+        <f t="shared" si="10"/>
+        <v>13.223375022192364</v>
       </c>
       <c r="V23" s="5">
-        <f>U23*$N$1</f>
-        <v>148.76296899966408</v>
+        <f t="shared" si="11"/>
+        <v>66.116875110961814</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4">
-        <f>w*N23*10^-6*$G$1</f>
-        <v>264.41514212103465</v>
+        <f t="shared" si="12"/>
+        <v>176.2767614140231</v>
       </c>
       <c r="Y23" s="4">
-        <f>X23*$G$1</f>
-        <v>1983.1135659077599</v>
+        <f t="shared" si="13"/>
+        <v>881.38380707011549</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -5491,61 +5503,61 @@
         <v>81.862202555812303</v>
       </c>
       <c r="H24" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D24*(10^-9)</f>
-        <v>8191.2874463324551</v>
+        <f t="shared" si="0"/>
+        <v>1618.0320881644361</v>
       </c>
       <c r="I24" s="1">
-        <f>2*PI()*150000*Ist*Ist*E24*(10^-9)</f>
-        <v>7582.1950802070141</v>
+        <f t="shared" si="1"/>
+        <v>1497.7175467075588</v>
       </c>
       <c r="J24" s="2">
-        <f>F24*SQRT(H24*I24)</f>
-        <v>792.46901688559512</v>
+        <f t="shared" si="2"/>
+        <v>156.53708975517932</v>
       </c>
       <c r="K24">
-        <f>2*PI()*150000*G24*Ipt*(10^-9)</f>
-        <v>3.5445083063193494</v>
+        <f t="shared" si="3"/>
+        <v>1.5753370250308221</v>
       </c>
       <c r="N24">
-        <f>D24*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.061300700622802</v>
       </c>
       <c r="O24">
-        <f>E24*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8117195140355005</v>
       </c>
       <c r="P24">
-        <f>G24*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2279330383371847</v>
       </c>
       <c r="Q24">
-        <f>P24/SQRT(N24*O24)</f>
+        <f t="shared" si="7"/>
         <v>0.1033127419814822</v>
       </c>
       <c r="S24" s="4">
-        <f>w*P24*10^-6*$G$1</f>
-        <v>8.679747177765659</v>
+        <f t="shared" si="8"/>
+        <v>5.7864981185104387</v>
       </c>
       <c r="T24" s="4">
-        <f>P24*$G$1/O24</f>
-        <v>2.4161005954445769</v>
+        <f t="shared" si="9"/>
+        <v>1.6107337302963844</v>
       </c>
       <c r="U24" s="4">
-        <f>S24*T24</f>
-        <v>20.971142324507994</v>
+        <f t="shared" si="10"/>
+        <v>9.320507699781329</v>
       </c>
       <c r="V24" s="5">
-        <f>U24*$N$1</f>
-        <v>104.85571162253997</v>
+        <f t="shared" si="11"/>
+        <v>46.602538498906647</v>
       </c>
       <c r="W24" s="4"/>
       <c r="X24" s="4">
-        <f>w*N24*10^-6*$G$1</f>
-        <v>261.97089753050739</v>
+        <f t="shared" si="12"/>
+        <v>174.64726502033827</v>
       </c>
       <c r="Y24" s="4">
-        <f>X24*$G$1</f>
-        <v>1964.7817314788053</v>
+        <f t="shared" si="13"/>
+        <v>873.23632510169136</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
@@ -5573,61 +5585,61 @@
         <v>71.948313410054197</v>
       </c>
       <c r="H25" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D25*(10^-9)</f>
-        <v>8126.8260734123605</v>
+        <f t="shared" si="0"/>
+        <v>1605.2989774641705</v>
       </c>
       <c r="I25" s="1">
-        <f>2*PI()*150000*Ist*Ist*E25*(10^-9)</f>
-        <v>7568.2752717656176</v>
+        <f t="shared" si="1"/>
+        <v>1494.9679549166656</v>
       </c>
       <c r="J25" s="2">
-        <f>F25*SQRT(H25*I25)</f>
-        <v>762.45553933480403</v>
+        <f t="shared" si="2"/>
+        <v>150.60850159699837</v>
       </c>
       <c r="K25">
-        <f>2*PI()*150000*G25*Ipt*(10^-9)</f>
-        <v>3.1152520521755513</v>
+        <f t="shared" si="3"/>
+        <v>1.3845564676335784</v>
       </c>
       <c r="N25">
-        <f>D25*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.769646630243876</v>
       </c>
       <c r="O25">
-        <f>E25*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8047217508671252</v>
       </c>
       <c r="P25">
-        <f>G25*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0792247011508129</v>
       </c>
       <c r="Q25">
-        <f>P25/SQRT(N25*O25)</f>
+        <f t="shared" si="7"/>
         <v>9.1244290425295388E-2</v>
       </c>
       <c r="S25" s="4">
-        <f>w*P25*10^-6*$G$1</f>
-        <v>7.6285898835930759</v>
+        <f t="shared" si="8"/>
+        <v>5.0857265890620509</v>
       </c>
       <c r="T25" s="4">
-        <f>P25*$G$1/O25</f>
-        <v>2.1274053107264335</v>
+        <f t="shared" si="9"/>
+        <v>1.4182702071509556</v>
       </c>
       <c r="U25" s="4">
-        <f>S25*T25</f>
-        <v>16.229102631709853</v>
+        <f t="shared" si="10"/>
+        <v>7.2129345029821579</v>
       </c>
       <c r="V25" s="5">
-        <f>U25*$N$1</f>
-        <v>81.145513158549264</v>
+        <f t="shared" si="11"/>
+        <v>36.064672514910789</v>
       </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4">
-        <f>w*N25*10^-6*$G$1</f>
-        <v>259.90931638950042</v>
+        <f t="shared" si="12"/>
+        <v>173.27287759300026</v>
       </c>
       <c r="Y25" s="4">
-        <f>X25*$G$1</f>
-        <v>1949.3198729212531</v>
+        <f t="shared" si="13"/>
+        <v>866.36438796500124</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
@@ -5655,61 +5667,61 @@
         <v>129.20643724553599</v>
       </c>
       <c r="H26" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D26*(10^-9)</f>
-        <v>8594.4087274878966</v>
+        <f t="shared" si="0"/>
+        <v>1697.6609832074862</v>
       </c>
       <c r="I26" s="1">
-        <f>2*PI()*150000*Ist*Ist*E26*(10^-9)</f>
-        <v>7562.4433993786588</v>
+        <f t="shared" si="1"/>
+        <v>1493.81598012418</v>
       </c>
       <c r="J26" s="2">
-        <f>F26*SQRT(H26*I26)</f>
-        <v>654.40335915333378</v>
+        <f t="shared" si="2"/>
+        <v>129.26486106732523</v>
       </c>
       <c r="K26">
-        <f>2*PI()*150000*G26*Ipt*(10^-9)</f>
-        <v>5.5944413385957139</v>
+        <f t="shared" si="3"/>
+        <v>2.4864183727092062</v>
       </c>
       <c r="N26">
-        <f>D26*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.885214110768281</v>
       </c>
       <c r="O26">
-        <f>E26*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8017899532088499</v>
       </c>
       <c r="P26">
-        <f>G26*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9380965586830399</v>
       </c>
       <c r="Q26">
-        <f>P26/SQRT(N26*O26)</f>
+        <f t="shared" si="7"/>
         <v>0.15940028874833531</v>
       </c>
       <c r="S26" s="4">
-        <f>w*P26*10^-6*$G$1</f>
-        <v>13.699597299089167</v>
+        <f t="shared" si="8"/>
+        <v>9.1330648660594456</v>
       </c>
       <c r="T26" s="4">
-        <f>P26*$G$1/O26</f>
-        <v>3.8233896056919492</v>
+        <f t="shared" si="9"/>
+        <v>2.5489264037946331</v>
       </c>
       <c r="U26" s="4">
-        <f>S26*T26</f>
-        <v>52.378897915503018</v>
+        <f t="shared" si="10"/>
+        <v>23.279510184668016</v>
       </c>
       <c r="V26" s="5">
-        <f>U26*$N$1</f>
-        <v>261.89448957751506</v>
+        <f t="shared" si="11"/>
+        <v>116.39755092334008</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4">
-        <f>w*N26*10^-6*$G$1</f>
-        <v>274.86338171322546</v>
+        <f t="shared" si="12"/>
+        <v>183.24225447548366</v>
       </c>
       <c r="Y26" s="4">
-        <f>X26*$G$1</f>
-        <v>2061.4753628491908</v>
+        <f t="shared" si="13"/>
+        <v>916.21127237741825</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -5737,61 +5749,61 @@
         <v>127.10038549434501</v>
       </c>
       <c r="H27" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D27*(10^-9)</f>
-        <v>8486.3341795763135</v>
+        <f t="shared" si="0"/>
+        <v>1676.3129243607541</v>
       </c>
       <c r="I27" s="1">
-        <f>2*PI()*150000*Ist*Ist*E27*(10^-9)</f>
-        <v>7557.4150436325399</v>
+        <f t="shared" si="1"/>
+        <v>1492.8227246681563</v>
       </c>
       <c r="J27" s="2">
-        <f>F27*SQRT(H27*I27)</f>
-        <v>609.99631766618722</v>
+        <f t="shared" si="2"/>
+        <v>120.49309978591357</v>
       </c>
       <c r="K27">
-        <f>2*PI()*150000*G27*Ipt*(10^-9)</f>
-        <v>5.5032525152734308</v>
+        <f t="shared" si="3"/>
+        <v>2.4458900067881921</v>
       </c>
       <c r="N27">
-        <f>D27*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.396233185061867</v>
       </c>
       <c r="O27">
-        <f>E27*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7992620992670503</v>
       </c>
       <c r="P27">
-        <f>G27*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.906505782415175</v>
       </c>
       <c r="Q27">
-        <f>P27/SQRT(N27*O27)</f>
+        <f t="shared" si="7"/>
         <v>0.15784985560385217</v>
       </c>
       <c r="S27" s="4">
-        <f>w*P27*10^-6*$G$1</f>
-        <v>13.476295260139441</v>
+        <f t="shared" si="8"/>
+        <v>8.9841968400929613</v>
       </c>
       <c r="T27" s="4">
-        <f>P27*$G$1/O27</f>
-        <v>3.763571186855553</v>
+        <f t="shared" si="9"/>
+        <v>2.5090474579037023</v>
       </c>
       <c r="U27" s="4">
-        <f>S27*T27</f>
-        <v>50.718996546618861</v>
+        <f t="shared" si="10"/>
+        <v>22.541776242941719</v>
       </c>
       <c r="V27" s="5">
-        <f>U27*$N$1</f>
-        <v>253.5949827330943</v>
+        <f t="shared" si="11"/>
+        <v>112.7088812147086</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4">
-        <f>w*N27*10^-6*$G$1</f>
-        <v>271.4069792243497</v>
+        <f t="shared" si="12"/>
+        <v>180.93798614956648</v>
       </c>
       <c r="Y27" s="4">
-        <f>X27*$G$1</f>
-        <v>2035.5523441826226</v>
+        <f t="shared" si="13"/>
+        <v>904.68993074783248</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -5819,61 +5831,61 @@
         <v>120.895889066416</v>
       </c>
       <c r="H28" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D28*(10^-9)</f>
-        <v>8400.4791308072217</v>
+        <f t="shared" si="0"/>
+        <v>1659.3539023816738</v>
       </c>
       <c r="I28" s="1">
-        <f>2*PI()*150000*Ist*Ist*E28*(10^-9)</f>
-        <v>7562.5341430325489</v>
+        <f t="shared" si="1"/>
+        <v>1493.8339047965533</v>
       </c>
       <c r="J28" s="2">
-        <f>F28*SQRT(H28*I28)</f>
-        <v>562.69968779714111</v>
+        <f t="shared" si="2"/>
+        <v>111.15055561425012</v>
       </c>
       <c r="K28">
-        <f>2*PI()*150000*G28*Ipt*(10^-9)</f>
-        <v>5.2346072988155754</v>
+        <f t="shared" si="3"/>
+        <v>2.3264921328069228</v>
       </c>
       <c r="N28">
-        <f>D28*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.007783896724092</v>
       </c>
       <c r="O28">
-        <f>E28*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8018355718394248</v>
       </c>
       <c r="P28">
-        <f>G28*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8134383359962403</v>
       </c>
       <c r="Q28">
-        <f>P28/SQRT(N28*O28)</f>
+        <f t="shared" si="7"/>
         <v>0.15085852372586986</v>
       </c>
       <c r="S28" s="4">
-        <f>w*P28*10^-6*$G$1</f>
-        <v>12.818440246733747</v>
+        <f t="shared" si="8"/>
+        <v>8.5456268311558308</v>
       </c>
       <c r="T28" s="4">
-        <f>P28*$G$1/O28</f>
-        <v>3.5774265517199617</v>
+        <f t="shared" si="9"/>
+        <v>2.3849510344799745</v>
       </c>
       <c r="U28" s="4">
-        <f>S28*T28</f>
-        <v>45.857028490301083</v>
+        <f t="shared" si="10"/>
+        <v>20.380901551244925</v>
       </c>
       <c r="V28" s="5">
-        <f>U28*$N$1</f>
-        <v>229.28514245150541</v>
+        <f t="shared" si="11"/>
+        <v>101.90450775622463</v>
       </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4">
-        <f>w*N28*10^-6*$G$1</f>
-        <v>268.66119300564787</v>
+        <f t="shared" si="12"/>
+        <v>179.10746200376525</v>
       </c>
       <c r="Y28" s="4">
-        <f>X28*$G$1</f>
-        <v>2014.9589475423591</v>
+        <f t="shared" si="13"/>
+        <v>895.53731001882625</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
@@ -5901,61 +5913,61 @@
         <v>111.229728541607</v>
       </c>
       <c r="H29" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D29*(10^-9)</f>
-        <v>8349.0529099792057</v>
+        <f t="shared" si="0"/>
+        <v>1649.1956365391029</v>
       </c>
       <c r="I29" s="1">
-        <f>2*PI()*150000*Ist*Ist*E29*(10^-9)</f>
-        <v>7565.6553387182139</v>
+        <f t="shared" si="1"/>
+        <v>1494.4504372776726</v>
       </c>
       <c r="J29" s="2">
-        <f>F29*SQRT(H29*I29)</f>
-        <v>518.38185908210539</v>
+        <f t="shared" si="2"/>
+        <v>102.39641660881098</v>
       </c>
       <c r="K29">
-        <f>2*PI()*150000*G29*Ipt*(10^-9)</f>
-        <v>4.8160773154933878</v>
+        <f t="shared" si="3"/>
+        <v>2.1404788068859504</v>
       </c>
       <c r="N29">
-        <f>D29*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.775107086577833</v>
       </c>
       <c r="O29">
-        <f>E29*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8034046586772496</v>
       </c>
       <c r="P29">
-        <f>G29*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.6684459281241051</v>
       </c>
       <c r="Q29">
-        <f>P29/SQRT(N29*O29)</f>
+        <f t="shared" si="7"/>
         <v>0.13919480189315717</v>
       </c>
       <c r="S29" s="4">
-        <f>w*P29*10^-6*$G$1</f>
-        <v>11.793549309089608</v>
+        <f t="shared" si="8"/>
+        <v>7.8623662060597388</v>
       </c>
       <c r="T29" s="4">
-        <f>P29*$G$1/O29</f>
-        <v>3.2900376330933683</v>
+        <f t="shared" si="9"/>
+        <v>2.1933584220622455</v>
       </c>
       <c r="U29" s="4">
-        <f>S29*T29</f>
-        <v>38.801221054647101</v>
+        <f t="shared" si="10"/>
+        <v>17.244987135398713</v>
       </c>
       <c r="V29" s="5">
-        <f>U29*$N$1</f>
-        <v>194.00610527323551</v>
+        <f t="shared" si="11"/>
+        <v>86.224935676993567</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4">
-        <f>w*N29*10^-6*$G$1</f>
-        <v>267.01649755146144</v>
+        <f t="shared" si="12"/>
+        <v>178.01099836764095</v>
       </c>
       <c r="Y29" s="4">
-        <f>X29*$G$1</f>
-        <v>2002.6237316359609</v>
+        <f t="shared" si="13"/>
+        <v>890.05499183820473</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
@@ -5983,61 +5995,61 @@
         <v>98.099425835053594</v>
       </c>
       <c r="H30" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D30*(10^-9)</f>
-        <v>8285.5672242516102</v>
+        <f t="shared" si="0"/>
+        <v>1636.6552541731583</v>
       </c>
       <c r="I30" s="1">
-        <f>2*PI()*150000*Ist*Ist*E30*(10^-9)</f>
-        <v>7593.228877620757</v>
+        <f t="shared" si="1"/>
+        <v>1499.8970622460761</v>
       </c>
       <c r="J30" s="2">
-        <f>F30*SQRT(H30*I30)</f>
-        <v>474.63457710784678</v>
+        <f t="shared" si="2"/>
+        <v>93.754978194142609</v>
       </c>
       <c r="K30">
-        <f>2*PI()*150000*G30*Ipt*(10^-9)</f>
-        <v>4.2475552680181137</v>
+        <f t="shared" si="3"/>
+        <v>1.887802341341384</v>
       </c>
       <c r="N30">
-        <f>D30*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.487867491538459</v>
       </c>
       <c r="O30">
-        <f>E30*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8172664223477999</v>
       </c>
       <c r="P30">
-        <f>G30*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.471491387525804</v>
       </c>
       <c r="Q30">
-        <f>P30/SQRT(N30*O30)</f>
+        <f t="shared" si="7"/>
         <v>0.12300878261060014</v>
       </c>
       <c r="S30" s="4">
-        <f>w*P30*10^-6*$G$1</f>
-        <v>10.401359698961363</v>
+        <f t="shared" si="8"/>
+        <v>6.9342397993075755</v>
       </c>
       <c r="T30" s="4">
-        <f>P30*$G$1/O30</f>
-        <v>2.8911226478281158</v>
+        <f t="shared" si="9"/>
+        <v>1.9274150985520773</v>
       </c>
       <c r="U30" s="4">
-        <f>S30*T30</f>
-        <v>30.071606593873828</v>
+        <f t="shared" si="10"/>
+        <v>13.365158486166147</v>
       </c>
       <c r="V30" s="5">
-        <f>U30*$N$1</f>
-        <v>150.35803296936913</v>
+        <f t="shared" si="11"/>
+        <v>66.825792430830731</v>
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4">
-        <f>w*N30*10^-6*$G$1</f>
-        <v>264.98612049787084</v>
+        <f t="shared" si="12"/>
+        <v>176.65741366524725</v>
       </c>
       <c r="Y30" s="4">
-        <f>X30*$G$1</f>
-        <v>1987.3959037340314</v>
+        <f t="shared" si="13"/>
+        <v>883.28706832623629</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
@@ -6065,61 +6077,61 @@
         <v>81.446194710907406</v>
       </c>
       <c r="H31" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D31*(10^-9)</f>
-        <v>8191.0138116965281</v>
+        <f t="shared" si="0"/>
+        <v>1617.978036878327</v>
       </c>
       <c r="I31" s="1">
-        <f>2*PI()*150000*Ist*Ist*E31*(10^-9)</f>
-        <v>7551.5945823553993</v>
+        <f t="shared" si="1"/>
+        <v>1491.6730039220545</v>
       </c>
       <c r="J31" s="2">
-        <f>F31*SQRT(H31*I31)</f>
-        <v>428.77650400298239</v>
+        <f t="shared" si="2"/>
+        <v>84.696593383305185</v>
       </c>
       <c r="K31">
-        <f>2*PI()*150000*G31*Ipt*(10^-9)</f>
-        <v>3.5264958021877373</v>
+        <f t="shared" si="3"/>
+        <v>1.5673314676389944</v>
       </c>
       <c r="N31">
-        <f>D31*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.060062646703848</v>
       </c>
       <c r="O31">
-        <f>E31*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7963360381995006</v>
       </c>
       <c r="P31">
-        <f>G31*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2216929206636111</v>
       </c>
       <c r="Q31">
-        <f>P31/SQRT(N31*O31)</f>
+        <f t="shared" si="7"/>
         <v>0.10299749417540038</v>
       </c>
       <c r="S31" s="4">
-        <f>w*P31*10^-6*$G$1</f>
-        <v>8.6356383851237819</v>
+        <f t="shared" si="8"/>
+        <v>5.7570922567491873</v>
       </c>
       <c r="T31" s="4">
-        <f>P31*$G$1/O31</f>
-        <v>2.413563186393453</v>
+        <f t="shared" si="9"/>
+        <v>1.6090421242623019</v>
       </c>
       <c r="U31" s="4">
-        <f>S31*T31</f>
-        <v>20.842658897340968</v>
+        <f t="shared" si="10"/>
+        <v>9.2634039543737625</v>
       </c>
       <c r="V31" s="5">
-        <f>U31*$N$1</f>
-        <v>104.21329448670484</v>
+        <f t="shared" si="11"/>
+        <v>46.317019771868814</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4">
-        <f>w*N31*10^-6*$G$1</f>
-        <v>261.96214624304019</v>
+        <f t="shared" si="12"/>
+        <v>174.64143082869344</v>
       </c>
       <c r="Y31" s="4">
-        <f>X31*$G$1</f>
-        <v>1964.7160968228015</v>
+        <f t="shared" si="13"/>
+        <v>873.20715414346728</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
@@ -6147,61 +6159,61 @@
         <v>71.698868319815801</v>
       </c>
       <c r="H32" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D32*(10^-9)</f>
-        <v>8134.4933260018897</v>
+        <f t="shared" si="0"/>
+        <v>1606.813496494201</v>
       </c>
       <c r="I32" s="1">
-        <f>2*PI()*150000*Ist*Ist*E32*(10^-9)</f>
-        <v>7584.5478015480076</v>
+        <f t="shared" si="1"/>
+        <v>1498.182281787261</v>
       </c>
       <c r="J32" s="2">
-        <f>F32*SQRT(H32*I32)</f>
-        <v>867.74289158086617</v>
+        <f t="shared" si="2"/>
+        <v>171.40600327523288</v>
       </c>
       <c r="K32">
-        <f>2*PI()*150000*G32*Ipt*(10^-9)</f>
-        <v>3.1044514608560374</v>
+        <f t="shared" si="3"/>
+        <v>1.3797562048249057</v>
       </c>
       <c r="N32">
-        <f>D32*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.804336946708773</v>
       </c>
       <c r="O32">
-        <f>E32*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8129022736125999</v>
       </c>
       <c r="P32">
-        <f>G32*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0754830247972371</v>
       </c>
       <c r="Q32">
-        <f>P32/SQRT(N32*O32)</f>
+        <f t="shared" si="7"/>
         <v>9.0787534835649164E-2</v>
       </c>
       <c r="S32" s="4">
-        <f>w*P32*10^-6*$G$1</f>
-        <v>7.6021415319679413</v>
+        <f t="shared" si="8"/>
+        <v>5.0680943546452939</v>
       </c>
       <c r="T32" s="4">
-        <f>P32*$G$1/O32</f>
-        <v>2.1154810973785834</v>
+        <f t="shared" si="9"/>
+        <v>1.4103207315857222</v>
       </c>
       <c r="U32" s="4">
-        <f>S32*T32</f>
-        <v>16.082186710474847</v>
+        <f t="shared" si="10"/>
+        <v>7.1476385379888194</v>
       </c>
       <c r="V32" s="5">
-        <f>U32*$N$1</f>
-        <v>80.410933552374232</v>
+        <f t="shared" si="11"/>
+        <v>35.7381926899441</v>
       </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4">
-        <f>w*N32*10^-6*$G$1</f>
-        <v>260.15452778705321</v>
+        <f t="shared" si="12"/>
+        <v>173.43635185803549</v>
       </c>
       <c r="Y32" s="4">
-        <f>X32*$G$1</f>
-        <v>1951.1589584028991</v>
+        <f t="shared" si="13"/>
+        <v>867.18175929017752</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
@@ -6229,1011 +6241,1011 @@
         <v>129.048781138941</v>
       </c>
       <c r="H33" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D33*(10^-9)</f>
-        <v>8563.3939159262081</v>
+        <f t="shared" si="0"/>
+        <v>1691.5346006767822</v>
       </c>
       <c r="I33" s="1">
-        <f>2*PI()*150000*Ist*Ist*E33*(10^-9)</f>
-        <v>7552.4829391139292</v>
+        <f t="shared" si="1"/>
+        <v>1491.8484818002828</v>
       </c>
       <c r="J33" s="2">
-        <f>F33*SQRT(H33*I33)</f>
-        <v>871.73120266306796</v>
+        <f t="shared" si="2"/>
+        <v>172.19381780998879</v>
       </c>
       <c r="K33">
-        <f>2*PI()*150000*G33*Ipt*(10^-9)</f>
-        <v>5.5876150700380487</v>
+        <f t="shared" si="3"/>
+        <v>2.4833844755724663</v>
       </c>
       <c r="N33">
-        <f>D33*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.74488827493456</v>
       </c>
       <c r="O33">
-        <f>E33*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7967826327220751</v>
       </c>
       <c r="P33">
-        <f>G33*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9357317170841153</v>
       </c>
       <c r="Q33">
-        <f>P33/SQRT(N33*O33)</f>
+        <f t="shared" si="7"/>
         <v>0.15959897302128428</v>
       </c>
       <c r="S33" s="4">
-        <f>w*P33*10^-6*$G$1</f>
-        <v>13.682881218852478</v>
+        <f t="shared" si="8"/>
+        <v>9.1219208125683178</v>
       </c>
       <c r="T33" s="4">
-        <f>P33*$G$1/O33</f>
-        <v>3.8237606106310857</v>
+        <f t="shared" si="9"/>
+        <v>2.549173740420724</v>
       </c>
       <c r="U33" s="4">
-        <f>S33*T33</f>
-        <v>52.320062244591966</v>
+        <f t="shared" si="10"/>
+        <v>23.253360997596427</v>
       </c>
       <c r="V33" s="5">
-        <f>U33*$N$1</f>
-        <v>261.60031122295982</v>
+        <f t="shared" si="11"/>
+        <v>116.26680498798214</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4">
-        <f>w*N33*10^-6*$G$1</f>
-        <v>273.87147682955634</v>
+        <f t="shared" si="12"/>
+        <v>182.58098455303755</v>
       </c>
       <c r="Y33" s="4">
-        <f>X33*$G$1</f>
-        <v>2054.0360762216724</v>
+        <f t="shared" si="13"/>
+        <v>912.90492276518773</v>
       </c>
       <c r="AA33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="F34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B35">
         <f>VALUE(LEFT(Sheet1!B10,LEN(Sheet1!B10)-2))</f>
         <v>36</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f>VALUE(LEFT(Sheet1!C10,LEN(Sheet1!C10)-2))</f>
         <v>9</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <f>VALUE(LEFT(Sheet1!D10,LEN(Sheet1!D10)-2))</f>
         <v>4254.44302494556</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <f>VALUE(LEFT(Sheet1!E10,LEN(Sheet1!E10)-2))</f>
         <v>151.79390312577601</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>0.105833314231285</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <f>VALUE(LEFT(Sheet1!G10,LEN(Sheet1!G10)-2))</f>
         <v>127.007458026424</v>
       </c>
-      <c r="H34" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D34*(10^-9)</f>
-        <v>8462.8517009142233</v>
-      </c>
-      <c r="I34" s="1">
-        <f>2*PI()*150000*Ist*Ist*E34*(10^-9)</f>
-        <v>7548.6337678292239</v>
-      </c>
-      <c r="J34" s="2">
-        <f>F34*SQRT(H34*I34)</f>
-        <v>845.89204266203092</v>
-      </c>
-      <c r="K34">
-        <f>2*PI()*150000*G34*Ipt*(10^-9)</f>
-        <v>5.4992288978816735</v>
-      </c>
-      <c r="N34">
-        <f>D34*$D$1^2*10^-3</f>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>1671.6744100571311</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>1491.0881516699706</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="2"/>
+        <v>167.08978620484567</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>2.444101732391855</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
         <v>38.289987224510043</v>
       </c>
-      <c r="O34">
-        <f>E34*$D$2^2*10^-3</f>
+      <c r="O35">
+        <f t="shared" si="5"/>
         <v>3.7948475781444007</v>
       </c>
-      <c r="P34">
-        <f>G34*$D$1*$D$2*10^-3</f>
+      <c r="P35">
+        <f t="shared" si="6"/>
         <v>1.9051118703963603</v>
       </c>
-      <c r="Q34">
-        <f>P34/SQRT(N34*O34)</f>
+      <c r="Q35">
+        <f t="shared" si="7"/>
         <v>0.15804497927121275</v>
       </c>
-      <c r="S34" s="4">
-        <f>w*P34*10^-6*$G$1</f>
-        <v>13.466442276683809</v>
-      </c>
-      <c r="T34" s="4">
-        <f>P34*$G$1/O34</f>
-        <v>3.7651944468766767</v>
-      </c>
-      <c r="U34" s="4">
-        <f>S34*T34</f>
-        <v>50.703773679355187</v>
-      </c>
-      <c r="V34" s="5">
-        <f>U34*$N$1</f>
-        <v>253.51886839677593</v>
-      </c>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4">
-        <f>w*N34*10^-6*$G$1</f>
-        <v>270.65597078377749</v>
-      </c>
-      <c r="Y34" s="4">
-        <f>X34*$G$1</f>
-        <v>2029.9197808783313</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="S35" s="4">
+        <f t="shared" si="8"/>
+        <v>8.9776281844558721</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5101296312511177</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="10"/>
+        <v>22.535010524157858</v>
+      </c>
+      <c r="V35" s="5">
+        <f t="shared" si="11"/>
+        <v>112.67505262078929</v>
+      </c>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4">
+        <f t="shared" si="12"/>
+        <v>180.43731385585164</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="13"/>
+        <v>902.18656927925826</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B37">
         <f>VALUE(LEFT(Sheet1!B11,LEN(Sheet1!B11)-2))</f>
         <v>36</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <f>VALUE(LEFT(Sheet1!C11,LEN(Sheet1!C11)-2))</f>
         <v>18</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D37" s="1">
         <f>VALUE(LEFT(Sheet1!D11,LEN(Sheet1!D11)-2))</f>
         <v>4211.9591725457703</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E37" s="1">
         <f>VALUE(LEFT(Sheet1!E11,LEN(Sheet1!E11)-2))</f>
         <v>152.18745098302799</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F37" s="1">
         <v>0.102603525612164</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G37" s="1">
         <f>VALUE(LEFT(Sheet1!G11,LEN(Sheet1!G11)-2))</f>
         <v>121.08152466300101</v>
       </c>
-      <c r="H35" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D35*(10^-9)</f>
-        <v>8378.3436841339189</v>
-      </c>
-      <c r="I35" s="1">
-        <f>2*PI()*150000*Ist*Ist*E35*(10^-9)</f>
-        <v>7568.2047030468757</v>
-      </c>
-      <c r="J35" s="2">
-        <f>F35*SQRT(H35*I35)</f>
-        <v>817.02962648492041</v>
-      </c>
-      <c r="K35">
-        <f>2*PI()*150000*G35*Ipt*(10^-9)</f>
-        <v>5.2426450365443573</v>
-      </c>
-      <c r="N35">
-        <f>D35*$D$1^2*10^-3</f>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>1654.9814684708983</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>1494.9540154166673</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>161.38856819455222</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>2.3300644606863816</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
         <v>37.907632552911934</v>
       </c>
-      <c r="O35">
-        <f>E35*$D$2^2*10^-3</f>
+      <c r="O37">
+        <f t="shared" si="5"/>
         <v>3.8046862745756997</v>
       </c>
-      <c r="P35">
-        <f>G35*$D$1*$D$2*10^-3</f>
+      <c r="P37">
+        <f t="shared" si="6"/>
         <v>1.8162228699450151</v>
       </c>
-      <c r="Q35">
-        <f>P35/SQRT(N35*O35)</f>
+      <c r="Q37">
+        <f t="shared" si="7"/>
         <v>0.15123293583416217</v>
       </c>
-      <c r="S35" s="4">
-        <f>w*P35*10^-6*$G$1</f>
-        <v>12.838122957377317</v>
-      </c>
-      <c r="T35" s="4">
-        <f>P35*$G$1/O35</f>
-        <v>3.5802351472741885</v>
-      </c>
-      <c r="U35" s="4">
-        <f>S35*T35</f>
-        <v>45.963499037029919</v>
-      </c>
-      <c r="V35" s="5">
-        <f>U35*$N$1</f>
-        <v>229.8174951851496</v>
-      </c>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4">
-        <f>w*N35*10^-6*$G$1</f>
-        <v>267.95326487222115</v>
-      </c>
-      <c r="Y35" s="4">
-        <f>X35*$G$1</f>
-        <v>2009.6494865416587</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="S37" s="4">
+        <f t="shared" si="8"/>
+        <v>8.5587486382515436</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="9"/>
+        <v>2.3868234315161256</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="10"/>
+        <v>20.428221794235515</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" si="11"/>
+        <v>102.14110897117757</v>
+      </c>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4">
+        <f t="shared" si="12"/>
+        <v>178.63550991481412</v>
+      </c>
+      <c r="Y37" s="4">
+        <f t="shared" si="13"/>
+        <v>893.17754957407055</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+      <c r="J38" s="2"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B39">
         <f>VALUE(LEFT(Sheet1!B12,LEN(Sheet1!B12)-2))</f>
         <v>36</v>
       </c>
-      <c r="C36">
+      <c r="C39">
         <f>VALUE(LEFT(Sheet1!C12,LEN(Sheet1!C12)-2))</f>
         <v>27</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D39" s="1">
         <f>VALUE(LEFT(Sheet1!D12,LEN(Sheet1!D12)-2))</f>
         <v>4185.16705275605</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E39" s="1">
         <f>VALUE(LEFT(Sheet1!E12,LEN(Sheet1!E12)-2))</f>
         <v>151.45261058167901</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F39" s="1">
         <v>9.9461501318100803E-2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G39" s="1">
         <f>VALUE(LEFT(Sheet1!G12,LEN(Sheet1!G12)-2))</f>
         <v>110.353397689395</v>
       </c>
-      <c r="H36" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D36*(10^-9)</f>
-        <v>8325.0493433226602</v>
-      </c>
-      <c r="I36" s="1">
-        <f>2*PI()*150000*Ist*Ist*E36*(10^-9)</f>
-        <v>7531.6614628154693</v>
-      </c>
-      <c r="J36" s="2">
-        <f>F36*SQRT(H36*I36)</f>
-        <v>787.57843125509203</v>
-      </c>
-      <c r="K36">
-        <f>2*PI()*150000*G36*Ipt*(10^-9)</f>
-        <v>4.7781335284002937</v>
-      </c>
-      <c r="N36">
-        <f>D36*$D$1^2*10^-3</f>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>1644.4541912736124</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>1487.7355975931796</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="2"/>
+        <v>155.57104814915402</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>2.123614901511242</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
         <v>37.66650347480445</v>
       </c>
-      <c r="O36">
-        <f>E36*$D$2^2*10^-3</f>
+      <c r="O39">
+        <f t="shared" si="5"/>
         <v>3.7863152645419755</v>
       </c>
-      <c r="P36">
-        <f>G36*$D$1*$D$2*10^-3</f>
+      <c r="P39">
+        <f t="shared" si="6"/>
         <v>1.655300965340925</v>
       </c>
-      <c r="Q36">
-        <f>P36/SQRT(N36*O36)</f>
+      <c r="Q39">
+        <f t="shared" si="7"/>
         <v>0.13860883987212388</v>
       </c>
-      <c r="S36" s="4">
-        <f>w*P36*10^-6*$G$1</f>
-        <v>11.700633042439071</v>
-      </c>
-      <c r="T36" s="4">
-        <f>P36*$G$1/O36</f>
-        <v>3.2788493225375226</v>
-      </c>
-      <c r="U36" s="4">
-        <f>S36*T36</f>
-        <v>38.364612724461502</v>
-      </c>
-      <c r="V36" s="5">
-        <f>U36*$N$1</f>
-        <v>191.8230636223075</v>
-      </c>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4">
-        <f>w*N36*10^-6*$G$1</f>
-        <v>266.24882385643514</v>
-      </c>
-      <c r="Y36" s="4">
-        <f>X36*$G$1</f>
-        <v>1996.8661789232635</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="S39" s="4">
+        <f t="shared" si="8"/>
+        <v>7.8004220282927141</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="9"/>
+        <v>2.1858995483583481</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="10"/>
+        <v>17.050938988649552</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="11"/>
+        <v>85.254694943247756</v>
+      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4">
+        <f t="shared" si="12"/>
+        <v>177.49921590429011</v>
+      </c>
+      <c r="Y39" s="4">
+        <f t="shared" si="13"/>
+        <v>887.49607952145061</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B40">
         <f>VALUE(LEFT(Sheet1!B13,LEN(Sheet1!B13)-2))</f>
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <f>VALUE(LEFT(Sheet1!C13,LEN(Sheet1!C13)-2))</f>
         <v>36</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D40" s="1">
         <f>VALUE(LEFT(Sheet1!D13,LEN(Sheet1!D13)-2))</f>
         <v>4147.4083244786598</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E40" s="1">
         <f>VALUE(LEFT(Sheet1!E13,LEN(Sheet1!E13)-2))</f>
         <v>151.555072494082</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F40" s="1">
         <v>9.5391626401261004E-2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G40" s="1">
         <f>VALUE(LEFT(Sheet1!G13,LEN(Sheet1!G13)-2))</f>
         <v>97.225307987847899</v>
       </c>
-      <c r="H37" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D37*(10^-9)</f>
-        <v>8249.9404475275969</v>
-      </c>
-      <c r="I37" s="1">
-        <f>2*PI()*150000*Ist*Ist*E37*(10^-9)</f>
-        <v>7536.756841720382</v>
-      </c>
-      <c r="J37" s="2">
-        <f>F37*SQRT(H37*I37)</f>
-        <v>752.190617951744</v>
-      </c>
-      <c r="K37">
-        <f>2*PI()*150000*G37*Ipt*(10^-9)</f>
-        <v>4.2097073006608925</v>
-      </c>
-      <c r="N37">
-        <f>D37*$D$1^2*10^-3</f>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>1629.6178661782913</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>1488.742092191681</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="2"/>
+        <v>148.58086280528281</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>1.8709810225159527</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
         <v>37.326674920307937</v>
       </c>
-      <c r="O37">
-        <f>E37*$D$2^2*10^-3</f>
+      <c r="O40">
+        <f t="shared" si="5"/>
         <v>3.7888768123520502</v>
       </c>
-      <c r="P37">
-        <f>G37*$D$1*$D$2*10^-3</f>
+      <c r="P40">
+        <f t="shared" si="6"/>
         <v>1.4583796198177186</v>
       </c>
-      <c r="Q37">
-        <f>P37/SQRT(N37*O37)</f>
+      <c r="Q40">
+        <f t="shared" si="7"/>
         <v>0.12263253100722643</v>
       </c>
-      <c r="S37" s="4">
-        <f>w*P37*10^-6*$G$1</f>
-        <v>10.308678074469945</v>
-      </c>
-      <c r="T37" s="4">
-        <f>P37*$G$1/O37</f>
-        <v>2.8868310294424475</v>
-      </c>
-      <c r="U37" s="4">
-        <f>S37*T37</f>
-        <v>29.75941173791286</v>
-      </c>
-      <c r="V37" s="5">
-        <f>U37*$N$1</f>
-        <v>148.7970586895643</v>
-      </c>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4">
-        <f>w*N37*10^-6*$G$1</f>
-        <v>263.84671735329096</v>
-      </c>
-      <c r="Y37" s="4">
-        <f>X37*$G$1</f>
-        <v>1978.8503801496822</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="S40" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8724520496466299</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="9"/>
+        <v>1.9245540196282986</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="10"/>
+        <v>13.226405216850161</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="11"/>
+        <v>66.132026084250811</v>
+      </c>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4">
+        <f t="shared" si="12"/>
+        <v>175.89781156886065</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="13"/>
+        <v>879.48905784430326</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="J41" s="2"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B42">
         <f>VALUE(LEFT(Sheet1!B14,LEN(Sheet1!B14)-2))</f>
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <f>VALUE(LEFT(Sheet1!C14,LEN(Sheet1!C14)-2))</f>
         <v>45</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D42" s="1">
         <f>VALUE(LEFT(Sheet1!D14,LEN(Sheet1!D14)-2))</f>
         <v>4102.3118863878999</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E42" s="1">
         <f>VALUE(LEFT(Sheet1!E14,LEN(Sheet1!E14)-2))</f>
         <v>151.64308024761399</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F42" s="1">
         <v>9.0977471681649602E-2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G42" s="1">
         <f>VALUE(LEFT(Sheet1!G14,LEN(Sheet1!G14)-2))</f>
         <v>81.263609119509795</v>
       </c>
-      <c r="H38" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D38*(10^-9)</f>
-        <v>8160.2355283257602</v>
-      </c>
-      <c r="I38" s="1">
-        <f>2*PI()*150000*Ist*Ist*E38*(10^-9)</f>
-        <v>7541.1334226400522</v>
-      </c>
-      <c r="J38" s="2">
-        <f>F38*SQRT(H38*I38)</f>
-        <v>713.67999393424248</v>
-      </c>
-      <c r="K38">
-        <f>2*PI()*150000*G38*Ipt*(10^-9)</f>
-        <v>3.5185901250239469</v>
-      </c>
-      <c r="N38">
-        <f>D38*$D$1^2*10^-3</f>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>1611.8983759655828</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>1489.6066020029737</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="2"/>
+        <v>140.97382596231952</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>1.5638178333439765</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
         <v>36.920806977491097</v>
       </c>
-      <c r="O38">
-        <f>E38*$D$2^2*10^-3</f>
+      <c r="O42">
+        <f t="shared" si="5"/>
         <v>3.79107700619035</v>
       </c>
-      <c r="P38">
-        <f>G38*$D$1*$D$2*10^-3</f>
+      <c r="P42">
+        <f t="shared" si="6"/>
         <v>1.2189541367926471</v>
       </c>
-      <c r="Q38">
-        <f>P38/SQRT(N38*O38)</f>
+      <c r="Q42">
+        <f t="shared" si="7"/>
         <v>0.10303160616198277</v>
       </c>
-      <c r="S38" s="4">
-        <f>w*P38*10^-6*$G$1</f>
-        <v>8.6162790627240025</v>
-      </c>
-      <c r="T38" s="4">
-        <f>P38*$G$1/O38</f>
-        <v>2.4114930957658909</v>
-      </c>
-      <c r="U38" s="4">
-        <f>S38*T38</f>
-        <v>20.778097470951135</v>
-      </c>
-      <c r="V38" s="5">
-        <f>U38*$N$1</f>
-        <v>103.89048735475568</v>
-      </c>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4">
-        <f>w*N38*10^-6*$G$1</f>
-        <v>260.97780592145881</v>
-      </c>
-      <c r="Y38" s="4">
-        <f>X38*$G$1</f>
-        <v>1957.3335444109412</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="S42" s="4">
+        <f t="shared" si="8"/>
+        <v>5.7441860418160022</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="9"/>
+        <v>1.6076620638439272</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="10"/>
+        <v>9.2347099870893938</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="11"/>
+        <v>46.173549935446971</v>
+      </c>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4">
+        <f t="shared" si="12"/>
+        <v>173.98520394763921</v>
+      </c>
+      <c r="Y42" s="4">
+        <f t="shared" si="13"/>
+        <v>869.92601973819603</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B43">
         <f>VALUE(LEFT(Sheet1!B15,LEN(Sheet1!B15)-2))</f>
         <v>36</v>
       </c>
-      <c r="C39">
+      <c r="C43">
         <f>VALUE(LEFT(Sheet1!C15,LEN(Sheet1!C15)-2))</f>
         <v>50</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D43" s="1">
         <f>VALUE(LEFT(Sheet1!D15,LEN(Sheet1!D15)-2))</f>
         <v>4074.3777738137901</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E43" s="1">
         <f>VALUE(LEFT(Sheet1!E15,LEN(Sheet1!E15)-2))</f>
         <v>151.91027278398099</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F43" s="1">
         <v>8.6355439693960104E-2</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G43" s="1">
         <f>VALUE(LEFT(Sheet1!G15,LEN(Sheet1!G15)-2))</f>
         <v>71.640620522803104</v>
       </c>
-      <c r="H39" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D39*(10^-9)</f>
-        <v>8104.6695586500091</v>
-      </c>
-      <c r="I39" s="1">
-        <f>2*PI()*150000*Ist*Ist*E39*(10^-9)</f>
-        <v>7554.4207718747612</v>
-      </c>
-      <c r="J39" s="2">
-        <f>F39*SQRT(H39*I39)</f>
-        <v>675.7062586162416</v>
-      </c>
-      <c r="K39">
-        <f>2*PI()*150000*G39*Ipt*(10^-9)</f>
-        <v>3.1019294202330094</v>
-      </c>
-      <c r="N39">
-        <f>D39*$D$1^2*10^-3</f>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>1600.922381955558</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>1492.2312635802002</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="2"/>
+        <v>133.47284120814655</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>1.3786352978813377</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
         <v>36.669399964324114</v>
       </c>
-      <c r="O39">
-        <f>E39*$D$2^2*10^-3</f>
+      <c r="O43">
+        <f t="shared" si="5"/>
         <v>3.7977568195995248</v>
       </c>
-      <c r="P39">
-        <f>G39*$D$1*$D$2*10^-3</f>
+      <c r="P43">
+        <f t="shared" si="6"/>
         <v>1.0746093078420467</v>
       </c>
-      <c r="Q39">
-        <f>P39/SQRT(N39*O39)</f>
+      <c r="Q43">
+        <f t="shared" si="7"/>
         <v>9.1061567130414856E-2</v>
       </c>
-      <c r="S39" s="4">
-        <f>w*P39*10^-6*$G$1</f>
-        <v>7.5959655907405192</v>
-      </c>
-      <c r="T39" s="4">
-        <f>P39*$G$1/O39</f>
-        <v>2.1221921759764584</v>
-      </c>
-      <c r="U39" s="4">
-        <f>S39*T39</f>
-        <v>16.120098745655927</v>
-      </c>
-      <c r="V39" s="5">
-        <f>U39*$N$1</f>
-        <v>80.600493728279631</v>
-      </c>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4">
-        <f>w*N39*10^-6*$G$1</f>
-        <v>259.20071446379956</v>
-      </c>
-      <c r="Y39" s="4">
-        <f>X39*$G$1</f>
-        <v>1944.0053584784966</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="S43" s="4">
+        <f t="shared" si="8"/>
+        <v>5.0639770604936798</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" si="9"/>
+        <v>1.4147947839843056</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="10"/>
+        <v>7.1644883314026346</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="11"/>
+        <v>35.822441657013172</v>
+      </c>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4">
+        <f t="shared" si="12"/>
+        <v>172.80047630919969</v>
+      </c>
+      <c r="Y43" s="4">
+        <f t="shared" si="13"/>
+        <v>864.00238154599845</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B44">
         <f>VALUE(LEFT(Sheet1!B3,LEN(Sheet1!B3)-2))</f>
         <v>45</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <f>VALUE(LEFT(Sheet1!C3,LEN(Sheet1!C3)-2))</f>
         <v>9</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D44" s="1">
         <f>VALUE(LEFT(Sheet1!D3,LEN(Sheet1!D3)-2))</f>
         <v>4238.4621789577004</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E44" s="1">
         <f>VALUE(LEFT(Sheet1!E3,LEN(Sheet1!E3)-2))</f>
         <v>152.098246502401</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F44" s="2">
         <v>1.8344868125899102E-5</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G44" s="1">
         <f>VALUE(LEFT(Sheet1!G3,LEN(Sheet1!G3)-2))</f>
         <v>127.343899477246</v>
       </c>
-      <c r="H40" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D40*(10^-9)</f>
-        <v>8431.0629264830204</v>
-      </c>
-      <c r="I40" s="1">
-        <f>2*PI()*150000*Ist*Ist*E40*(10^-9)</f>
-        <v>7563.7686094961045</v>
-      </c>
-      <c r="J40" s="2">
-        <f>F40*SQRT(H40*I40)</f>
-        <v>0.14649569980851929</v>
-      </c>
-      <c r="K40">
-        <f>2*PI()*150000*G40*Ipt*(10^-9)</f>
-        <v>5.5137962987064393</v>
-      </c>
-      <c r="N40">
-        <f>D40*$D$1^2*10^-3</f>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>1665.3951459719549</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>1494.0777500239224</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8937422184398875E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>2.4505761327584179</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
         <v>38.146159610619307</v>
       </c>
-      <c r="O40">
-        <f>E40*$D$2^2*10^-3</f>
+      <c r="O44">
+        <f t="shared" si="5"/>
         <v>3.8024561625600248</v>
       </c>
-      <c r="P40">
-        <f>G40*$D$1*$D$2*10^-3</f>
+      <c r="P44">
+        <f t="shared" si="6"/>
         <v>1.91015849215869</v>
       </c>
-      <c r="Q40">
-        <f>P40/SQRT(N40*O40)</f>
+      <c r="Q44">
+        <f t="shared" si="7"/>
         <v>0.15860317786199621</v>
       </c>
-      <c r="S40" s="4">
-        <f>w*P40*10^-6*$G$1</f>
-        <v>13.502114743855268</v>
-      </c>
-      <c r="T40" s="4">
-        <f>P40*$G$1/O40</f>
-        <v>3.7676144257097732</v>
-      </c>
-      <c r="U40" s="4">
-        <f>S40*T40</f>
-        <v>50.870762286537726</v>
-      </c>
-      <c r="V40" s="5">
-        <f>U40*$N$1</f>
-        <v>254.35381143268864</v>
-      </c>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4">
-        <f>w*N40*10^-6*$G$1</f>
-        <v>269.63931328961689</v>
-      </c>
-      <c r="Y40" s="4">
-        <f>X40*$G$1</f>
-        <v>2022.2948496721267</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="S44" s="4">
+        <f t="shared" si="8"/>
+        <v>9.0014098292368452</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5117429504731823</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="10"/>
+        <v>22.609227682905658</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="11"/>
+        <v>113.04613841452829</v>
+      </c>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4">
+        <f t="shared" si="12"/>
+        <v>179.75954219307795</v>
+      </c>
+      <c r="Y44" s="4">
+        <f t="shared" si="13"/>
+        <v>898.7977109653898</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B45">
         <f>VALUE(LEFT(Sheet1!B5,LEN(Sheet1!B5)-2))</f>
         <v>45</v>
       </c>
-      <c r="C41">
+      <c r="C45">
         <f>VALUE(LEFT(Sheet1!C5,LEN(Sheet1!C5)-2))</f>
         <v>27</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D45" s="1">
         <f>VALUE(LEFT(Sheet1!D5,LEN(Sheet1!D5)-2))</f>
         <v>4173.1511606104596</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E45" s="1">
         <f>VALUE(LEFT(Sheet1!E5,LEN(Sheet1!E5)-2))</f>
         <v>152.02110098009001</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F45" s="2">
         <v>1.5624851463950899E-5</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G45" s="1">
         <f>VALUE(LEFT(Sheet1!G5,LEN(Sheet1!G5)-2))</f>
         <v>110.840126969262</v>
       </c>
-      <c r="H41" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D41*(10^-9)</f>
-        <v>8301.147574586761</v>
-      </c>
-      <c r="I41" s="1">
-        <f>2*PI()*150000*Ist*Ist*E41*(10^-9)</f>
-        <v>7559.9322018225312</v>
-      </c>
-      <c r="J41" s="2">
-        <f>F41*SQRT(H41*I41)</f>
-        <v>0.12377812940744091</v>
-      </c>
-      <c r="K41">
-        <f>2*PI()*150000*G41*Ipt*(10^-9)</f>
-        <v>4.7992081626216399</v>
-      </c>
-      <c r="N41">
-        <f>D41*$D$1^2*10^-3</f>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>1639.7328542393607</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>1493.3199411007472</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4450000870605618E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>2.1329814056096179</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
         <v>37.558360445494138</v>
       </c>
-      <c r="O41">
-        <f>E41*$D$2^2*10^-3</f>
+      <c r="O45">
+        <f t="shared" si="5"/>
         <v>3.8005275245022503</v>
       </c>
-      <c r="P41">
-        <f>G41*$D$1*$D$2*10^-3</f>
+      <c r="P45">
+        <f t="shared" si="6"/>
         <v>1.6626019045389304</v>
       </c>
-      <c r="Q41">
-        <f>P41/SQRT(N41*O41)</f>
+      <c r="Q45">
+        <f t="shared" si="7"/>
         <v>0.13915955131762639</v>
       </c>
-      <c r="S41" s="4">
-        <f>w*P41*10^-6*$G$1</f>
-        <v>11.752240340573781</v>
-      </c>
-      <c r="T41" s="4">
-        <f>P41*$G$1/O41</f>
-        <v>3.2809956522220141</v>
-      </c>
-      <c r="U41" s="4">
-        <f>S41*T41</f>
-        <v>38.559049461290741</v>
-      </c>
-      <c r="V41" s="5">
-        <f>U41*$N$1</f>
-        <v>192.79524730645369</v>
-      </c>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4">
-        <f>w*N41*10^-6*$G$1</f>
-        <v>265.48440582699413</v>
-      </c>
-      <c r="Y41" s="4">
-        <f>X41*$G$1</f>
-        <v>1991.133043702456</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="S45" s="4">
+        <f t="shared" si="8"/>
+        <v>7.8348268937158538</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="9"/>
+        <v>2.1873304348146765</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="10"/>
+        <v>17.13735531612922</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" si="11"/>
+        <v>85.686776580646097</v>
+      </c>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4">
+        <f t="shared" si="12"/>
+        <v>176.98960388466276</v>
+      </c>
+      <c r="Y45" s="4">
+        <f t="shared" si="13"/>
+        <v>884.94801942331378</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B46">
         <f>VALUE(LEFT(Sheet1!B6,LEN(Sheet1!B6)-2))</f>
         <v>45</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <f>VALUE(LEFT(Sheet1!C6,LEN(Sheet1!C6)-2))</f>
         <v>36</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D46" s="1">
         <f>VALUE(LEFT(Sheet1!D6,LEN(Sheet1!D6)-2))</f>
         <v>4122.0682978096202</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E46" s="1">
         <f>VALUE(LEFT(Sheet1!E6,LEN(Sheet1!E6)-2))</f>
         <v>150.61011704008601</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F46" s="1">
         <v>0.112460663405514</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G46" s="1">
         <f>VALUE(LEFT(Sheet1!G6,LEN(Sheet1!G6)-2))</f>
         <v>96.666817007936004</v>
       </c>
-      <c r="H42" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D42*(10^-9)</f>
-        <v>8199.5345808748079</v>
-      </c>
-      <c r="I42" s="1">
-        <f>2*PI()*150000*Ist*Ist*E42*(10^-9)</f>
-        <v>7489.7646865531351</v>
-      </c>
-      <c r="J42" s="2">
-        <f>F42*SQRT(H42*I42)</f>
-        <v>881.31127974374238</v>
-      </c>
-      <c r="K42">
-        <f>2*PI()*150000*G42*Ipt*(10^-9)</f>
-        <v>4.1855254944609861</v>
-      </c>
-      <c r="N42">
-        <f>D42*$D$1^2*10^-3</f>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>1619.6611517777403</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>1479.45969117099</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="2"/>
+        <v>174.08617871481337</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1.8602335530937719</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
         <v>37.098614680286587</v>
       </c>
-      <c r="O42">
-        <f>E42*$D$2^2*10^-3</f>
+      <c r="O46">
+        <f t="shared" si="5"/>
         <v>3.7652529260021503</v>
       </c>
-      <c r="P42">
-        <f>G42*$D$1*$D$2*10^-3</f>
+      <c r="P46">
+        <f t="shared" si="6"/>
         <v>1.4500022551190401</v>
       </c>
-      <c r="Q42">
-        <f>P42/SQRT(N42*O42)</f>
+      <c r="Q46">
+        <f t="shared" si="7"/>
         <v>0.12268536349453933</v>
       </c>
-      <c r="S42" s="4">
-        <f>w*P42*10^-6*$G$1</f>
-        <v>10.249461972833871</v>
-      </c>
-      <c r="T42" s="4">
-        <f>P42*$G$1/O42</f>
-        <v>2.8882566794628635</v>
-      </c>
-      <c r="U42" s="4">
-        <f>S42*T42</f>
-        <v>29.603077003938044</v>
-      </c>
-      <c r="V42" s="5">
-        <f>U42*$N$1</f>
-        <v>148.01538501969023</v>
-      </c>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4">
-        <f>w*N42*10^-6*$G$1</f>
-        <v>262.23465451038027</v>
-      </c>
-      <c r="Y42" s="4">
-        <f>X42*$G$1</f>
-        <v>1966.7599088278521</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="S46" s="4">
+        <f t="shared" si="8"/>
+        <v>6.832974648555914</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="9"/>
+        <v>1.9255044529752423</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="10"/>
+        <v>13.156923112861353</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="11"/>
+        <v>65.784615564306762</v>
+      </c>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4">
+        <f t="shared" si="12"/>
+        <v>174.82310300692018</v>
+      </c>
+      <c r="Y46" s="4">
+        <f t="shared" si="13"/>
+        <v>874.11551503460089</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47">
         <f>VALUE(LEFT(Sheet1!B7,LEN(Sheet1!B7)-2))</f>
         <v>45</v>
       </c>
-      <c r="C43">
+      <c r="C47">
         <f>VALUE(LEFT(Sheet1!C7,LEN(Sheet1!C7)-2))</f>
         <v>45</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D47" s="1">
         <f>VALUE(LEFT(Sheet1!D7,LEN(Sheet1!D7)-2))</f>
         <v>4092.0661999036802</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E47" s="1">
         <f>VALUE(LEFT(Sheet1!E7,LEN(Sheet1!E7)-2))</f>
         <v>152.19977875967501</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F47" s="1">
         <v>0.11168647169957301</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G47" s="1">
         <f>VALUE(LEFT(Sheet1!G7,LEN(Sheet1!G7)-2))</f>
         <v>81.501233515307604</v>
       </c>
-      <c r="H43" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D43*(10^-9)</f>
-        <v>8139.8550167566527</v>
-      </c>
-      <c r="I43" s="1">
-        <f>2*PI()*150000*Ist*Ist*E43*(10^-9)</f>
-        <v>7568.8177571232491</v>
-      </c>
-      <c r="J43" s="2">
-        <f>F43*SQRT(H43*I43)</f>
-        <v>876.64332485439297</v>
-      </c>
-      <c r="K43">
-        <f>2*PI()*150000*G43*Ipt*(10^-9)</f>
-        <v>3.5288788983331578</v>
-      </c>
-      <c r="N43">
-        <f>D43*$D$1^2*10^-3</f>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>1607.8725959025492</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="1"/>
+        <v>1495.0751125181732</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="2"/>
+        <v>173.16411355148512</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>1.5683906214814036</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
         <v>36.828595799133126</v>
       </c>
-      <c r="O43">
-        <f>E43*$D$2^2*10^-3</f>
+      <c r="O47">
+        <f t="shared" si="5"/>
         <v>3.8049944689918753</v>
       </c>
-      <c r="P43">
-        <f>G43*$D$1*$D$2*10^-3</f>
+      <c r="P47">
+        <f t="shared" si="6"/>
         <v>1.2225185027296142</v>
       </c>
-      <c r="Q43">
-        <f>P43/SQRT(N43*O43)</f>
+      <c r="Q47">
+        <f t="shared" si="7"/>
         <v>0.10327277472354718</v>
       </c>
-      <c r="S43" s="4">
-        <f>w*P43*10^-6*$G$1</f>
-        <v>8.6414740808691342</v>
-      </c>
-      <c r="T43" s="4">
-        <f>P43*$G$1/O43</f>
-        <v>2.4096983176171034</v>
-      </c>
-      <c r="U43" s="4">
-        <f>S43*T43</f>
-        <v>20.823345554402156</v>
-      </c>
-      <c r="V43" s="5">
-        <f>U43*$N$1</f>
-        <v>104.11672777201078</v>
-      </c>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4">
-        <f>w*N43*10^-6*$G$1</f>
-        <v>260.32600351031516</v>
-      </c>
-      <c r="Y43" s="4">
-        <f>X43*$G$1</f>
-        <v>1952.4450263273636</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="S47" s="4">
+        <f t="shared" si="8"/>
+        <v>5.7609827205794231</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="9"/>
+        <v>1.6064655450780692</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="10"/>
+        <v>9.2548202464009606</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="11"/>
+        <v>46.274101232004803</v>
+      </c>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4">
+        <f t="shared" si="12"/>
+        <v>173.55066900687677</v>
+      </c>
+      <c r="Y47" s="4">
+        <f t="shared" si="13"/>
+        <v>867.75334503438387</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48">
         <f>VALUE(LEFT(Sheet1!B8,LEN(Sheet1!B8)-2))</f>
         <v>45</v>
       </c>
-      <c r="C44">
+      <c r="C48">
         <f>VALUE(LEFT(Sheet1!C8,LEN(Sheet1!C8)-2))</f>
         <v>50</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D48" s="1">
         <f>VALUE(LEFT(Sheet1!D8,LEN(Sheet1!D8)-2))</f>
         <v>4053.4617953041602</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E48" s="1">
         <f>VALUE(LEFT(Sheet1!E8,LEN(Sheet1!E8)-2))</f>
         <v>151.56906706569001</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F48" s="1">
         <v>0.110163084299018</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G48" s="1">
         <f>VALUE(LEFT(Sheet1!G8,LEN(Sheet1!G8)-2))</f>
         <v>71.551237811054705</v>
       </c>
-      <c r="H44" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D44*(10^-9)</f>
-        <v>8063.0639187886618</v>
-      </c>
-      <c r="I44" s="1">
-        <f>2*PI()*150000*Ist*Ist*E44*(10^-9)</f>
-        <v>7537.4527846642768</v>
-      </c>
-      <c r="J44" s="2">
-        <f>F44*SQRT(H44*I44)</f>
-        <v>858.81266474370159</v>
-      </c>
-      <c r="K44">
-        <f>2*PI()*150000*G44*Ipt*(10^-9)</f>
-        <v>3.0980592853680506</v>
-      </c>
-      <c r="N44">
-        <f>D44*$D$1^2*10^-3</f>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>1592.7039839582546</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>1488.8795624028205</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="2"/>
+        <v>169.64200785060774</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>1.3769152379413561</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
         <v>36.481156157737445</v>
       </c>
-      <c r="O44">
-        <f>E44*$D$2^2*10^-3</f>
+      <c r="O48">
+        <f t="shared" si="5"/>
         <v>3.7892266766422504</v>
       </c>
-      <c r="P44">
-        <f>G44*$D$1*$D$2*10^-3</f>
+      <c r="P48">
+        <f t="shared" si="6"/>
         <v>1.0732685671658206</v>
       </c>
-      <c r="Q44">
-        <f>P44/SQRT(N44*O44)</f>
+      <c r="Q48">
+        <f t="shared" si="7"/>
         <v>9.1284874020947981E-2</v>
       </c>
-      <c r="S44" s="4">
-        <f>w*P44*10^-6*$G$1</f>
-        <v>7.5864884533582178</v>
-      </c>
-      <c r="T44" s="4">
-        <f>P44*$G$1/O44</f>
-        <v>2.1243158408450182</v>
-      </c>
-      <c r="U44" s="4">
-        <f>S44*T44</f>
-        <v>16.116097597856683</v>
-      </c>
-      <c r="V44" s="5">
-        <f>U44*$N$1</f>
-        <v>80.580487989283412</v>
-      </c>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4">
-        <f>w*N44*10^-6*$G$1</f>
-        <v>257.87009740412253</v>
-      </c>
-      <c r="Y44" s="4">
-        <f>X44*$G$1</f>
-        <v>1934.025730530919</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
-      <c r="J45" s="2"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
-      <c r="J46" s="2"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F47" s="1"/>
-      <c r="J47" s="2"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F48" s="1"/>
-      <c r="J48" s="2"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="5"/>
+      <c r="S48" s="4">
+        <f t="shared" si="8"/>
+        <v>5.0576589689054785</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="9"/>
+        <v>1.4162105605633453</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="10"/>
+        <v>7.1627100434918587</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" si="11"/>
+        <v>35.813550217459294</v>
+      </c>
       <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
+      <c r="X48" s="4">
+        <f t="shared" si="12"/>
+        <v>171.91339826941501</v>
+      </c>
+      <c r="Y48" s="4">
+        <f t="shared" si="13"/>
+        <v>859.56699134707503</v>
+      </c>
     </row>
     <row r="49" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
@@ -9897,10 +9909,54 @@
       <c r="X290" s="4"/>
       <c r="Y290" s="4"/>
     </row>
+    <row r="291" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F291" s="1"/>
+      <c r="J291" s="2"/>
+      <c r="S291" s="4"/>
+      <c r="T291" s="4"/>
+      <c r="U291" s="4"/>
+      <c r="V291" s="5"/>
+      <c r="W291" s="4"/>
+      <c r="X291" s="4"/>
+      <c r="Y291" s="4"/>
+    </row>
+    <row r="292" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F292" s="1"/>
+      <c r="J292" s="2"/>
+      <c r="S292" s="4"/>
+      <c r="T292" s="4"/>
+      <c r="U292" s="4"/>
+      <c r="V292" s="5"/>
+      <c r="W292" s="4"/>
+      <c r="X292" s="4"/>
+      <c r="Y292" s="4"/>
+    </row>
+    <row r="293" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F293" s="1"/>
+      <c r="J293" s="2"/>
+      <c r="S293" s="4"/>
+      <c r="T293" s="4"/>
+      <c r="U293" s="4"/>
+      <c r="V293" s="5"/>
+      <c r="W293" s="4"/>
+      <c r="X293" s="4"/>
+      <c r="Y293" s="4"/>
+    </row>
+    <row r="294" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F294" s="1"/>
+      <c r="J294" s="2"/>
+      <c r="S294" s="4"/>
+      <c r="T294" s="4"/>
+      <c r="U294" s="4"/>
+      <c r="V294" s="5"/>
+      <c r="W294" s="4"/>
+      <c r="X294" s="4"/>
+      <c r="Y294" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="B5:Y44">
-    <sortCondition ref="B5:B44"/>
-    <sortCondition ref="C5:C44"/>
+  <sortState ref="B5:Y48">
+    <sortCondition ref="B5:B48"/>
+    <sortCondition ref="C5:C48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9912,8 +9968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B8707C-0ADA-43C9-8138-8806A8046C6B}">
   <dimension ref="B1:AA290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9941,7 +9997,7 @@
         <v>26</v>
       </c>
       <c r="G1" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>32</v>
@@ -9967,7 +10023,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
@@ -10064,61 +10120,61 @@
         <v>129.35658264979801</v>
       </c>
       <c r="H5" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D5*(10^-9)</f>
-        <v>10474.114618195274</v>
+        <f t="shared" ref="H5:H44" si="0">2*PI()*150000*Ipt*Ipt*D5*(10^-9)</f>
+        <v>2068.9609122361026</v>
       </c>
       <c r="I5" s="1">
-        <f>2*PI()*150000*Ist*Ist*E5*(10^-9)</f>
-        <v>9210.4262067222971</v>
+        <f t="shared" ref="I5:I44" si="1">2*PI()*150000*Ist*Ist*E5*(10^-9)</f>
+        <v>1819.3434482414407</v>
       </c>
       <c r="J5" s="2">
-        <f>F5*SQRT(H5*I5)</f>
-        <v>575.1179433793709</v>
+        <f t="shared" ref="J5:J44" si="2">F5*SQRT(H5*I5)</f>
+        <v>113.60354437123371</v>
       </c>
       <c r="K5">
-        <f>2*PI()*150000*G5*Ipt*(10^-9)</f>
-        <v>6.1815864118242647</v>
+        <f t="shared" ref="K5:K44" si="3">2*PI()*150000*G5*Ipt*(10^-9)</f>
+        <v>2.7473717385885621</v>
       </c>
       <c r="N5">
-        <f>D5*$D$1^2*10^-3</f>
+        <f t="shared" ref="N5:N44" si="4">D5*$D$1^2*10^-3</f>
         <v>38.905243464121106</v>
       </c>
       <c r="O5">
-        <f>E5*$D$2^2*10^-3</f>
+        <f t="shared" ref="O5:O44" si="5">E5*$D$2^2*10^-3</f>
         <v>3.8012640054173503</v>
       </c>
       <c r="P5">
-        <f>G5*$D$1*$D$2*10^-3</f>
+        <f t="shared" ref="P5:P44" si="6">G5*$D$1*$D$2*10^-3</f>
         <v>1.9403487397469701</v>
       </c>
       <c r="Q5">
-        <f>P5/SQRT(N5*O5)</f>
+        <f t="shared" ref="Q5:Q44" si="7">P5/SQRT(N5*O5)</f>
         <v>0.15955547365434397</v>
       </c>
       <c r="S5" s="4">
-        <f>w*P5*10^-6*$G$1</f>
-        <v>13.715517028930412</v>
+        <f t="shared" ref="S5:S44" si="8">w*P5*10^-6*$G$1</f>
+        <v>9.1436780192869413</v>
       </c>
       <c r="T5" s="4">
-        <f>P5*$G$1/O5</f>
-        <v>3.8283622309217926</v>
+        <f t="shared" ref="T5:T44" si="9">P5*$G$1/O5</f>
+        <v>2.5522414872811949</v>
       </c>
       <c r="U5" s="4">
-        <f>S5*T5</f>
-        <v>52.507967371121872</v>
+        <f t="shared" ref="U5:U44" si="10">S5*T5</f>
+        <v>23.336874387165274</v>
       </c>
       <c r="V5" s="5">
-        <f>U5*$N$1</f>
-        <v>262.53983685560934</v>
+        <f t="shared" ref="V5:V44" si="11">U5*$N$1</f>
+        <v>116.68437193582636</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4">
-        <f>w*N5*10^-6*$G$1</f>
-        <v>275.00496086926159</v>
+        <f t="shared" ref="X5:X44" si="12">w*N5*10^-6*$G$1</f>
+        <v>183.33664057950773</v>
       </c>
       <c r="Y5" s="4">
-        <f>X5*$G$1</f>
-        <v>2062.537206519462</v>
+        <f t="shared" ref="Y5:Y44" si="13">X5*$G$1</f>
+        <v>916.68320289753865</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -10146,61 +10202,61 @@
         <v>129.62842841766701</v>
       </c>
       <c r="H6" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D6*(10^-9)</f>
-        <v>10471.997625189077</v>
+        <f t="shared" si="0"/>
+        <v>2068.5427407780885</v>
       </c>
       <c r="I6" s="1">
-        <f>2*PI()*150000*Ist*Ist*E6*(10^-9)</f>
-        <v>9235.3435368518494</v>
+        <f t="shared" si="1"/>
+        <v>1824.2653899954264</v>
       </c>
       <c r="J6" s="2">
-        <f>F6*SQRT(H6*I6)</f>
-        <v>917.78977394895708</v>
+        <f t="shared" si="2"/>
+        <v>181.29180719979394</v>
       </c>
       <c r="K6">
-        <f>2*PI()*150000*G6*Ipt*(10^-9)</f>
-        <v>6.1945771547021931</v>
+        <f t="shared" si="3"/>
+        <v>2.7531454020898631</v>
       </c>
       <c r="N6">
-        <f>D6*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.897380066466972</v>
       </c>
       <c r="O6">
-        <f>E6*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8115477152052248</v>
       </c>
       <c r="P6">
-        <f>G6*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9444264262650053</v>
       </c>
       <c r="Q6">
-        <f>P6/SQRT(N6*O6)</f>
+        <f t="shared" si="7"/>
         <v>0.15969108041667934</v>
       </c>
       <c r="S6" s="4">
-        <f>w*P6*10^-6*$G$1</f>
-        <v>13.744340496449992</v>
+        <f t="shared" si="8"/>
+        <v>9.162893664299995</v>
       </c>
       <c r="T6" s="4">
-        <f>P6*$G$1/O6</f>
-        <v>3.8260568374394177</v>
+        <f t="shared" si="9"/>
+        <v>2.5507045582929448</v>
       </c>
       <c r="U6" s="4">
-        <f>S6*T6</f>
-        <v>52.586627932537972</v>
+        <f t="shared" si="10"/>
+        <v>23.371834636683541</v>
       </c>
       <c r="V6" s="5">
-        <f>U6*$N$1</f>
-        <v>262.93313966268988</v>
+        <f t="shared" si="11"/>
+        <v>116.85917318341771</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4">
-        <f>w*N6*10^-6*$G$1</f>
-        <v>274.94937778658107</v>
+        <f t="shared" si="12"/>
+        <v>183.29958519105404</v>
       </c>
       <c r="Y6" s="4">
-        <f>X6*$G$1</f>
-        <v>2062.1203333993581</v>
+        <f t="shared" si="13"/>
+        <v>916.49792595527015</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -10228,61 +10284,61 @@
         <v>129.28791649253199</v>
       </c>
       <c r="H7" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D7*(10^-9)</f>
-        <v>10457.92746947848</v>
+        <f t="shared" si="0"/>
+        <v>2065.7634507611801</v>
       </c>
       <c r="I7" s="1">
-        <f>2*PI()*150000*Ist*Ist*E7*(10^-9)</f>
-        <v>9199.7635840111307</v>
+        <f t="shared" si="1"/>
+        <v>1817.2372511626918</v>
       </c>
       <c r="J7" s="2">
-        <f>F7*SQRT(H7*I7)</f>
-        <v>1079.2696804302857</v>
+        <f t="shared" si="2"/>
+        <v>213.18907267758723</v>
       </c>
       <c r="K7">
-        <f>2*PI()*150000*G7*Ipt*(10^-9)</f>
-        <v>6.1783050497473386</v>
+        <f t="shared" si="3"/>
+        <v>2.7459133554432613</v>
       </c>
       <c r="N7">
-        <f>D7*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.84511762200718</v>
       </c>
       <c r="O7">
-        <f>E7*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7968634008193001</v>
       </c>
       <c r="P7">
-        <f>G7*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.93931874738798</v>
       </c>
       <c r="Q7">
-        <f>P7/SQRT(N7*O7)</f>
+        <f t="shared" si="7"/>
         <v>0.1596866054543922</v>
       </c>
       <c r="S7" s="4">
-        <f>w*P7*10^-6*$G$1</f>
-        <v>13.708236441966834</v>
+        <f t="shared" si="8"/>
+        <v>9.1388242946445573</v>
       </c>
       <c r="T7" s="4">
-        <f>P7*$G$1/O7</f>
-        <v>3.830764783971766</v>
+        <f t="shared" si="9"/>
+        <v>2.5538431893145104</v>
       </c>
       <c r="U7" s="4">
-        <f>S7*T7</f>
-        <v>52.513029412244968</v>
+        <f t="shared" si="10"/>
+        <v>23.339124183219987</v>
       </c>
       <c r="V7" s="5">
-        <f>U7*$N$1</f>
-        <v>262.56514706122482</v>
+        <f t="shared" si="11"/>
+        <v>116.69562091609993</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4">
-        <f>w*N7*10^-6*$G$1</f>
-        <v>274.57995633554066</v>
+        <f t="shared" si="12"/>
+        <v>183.05330422369377</v>
       </c>
       <c r="Y7" s="4">
-        <f>X7*$G$1</f>
-        <v>2059.3496725165551</v>
+        <f t="shared" si="13"/>
+        <v>915.26652111846886</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
@@ -10310,61 +10366,61 @@
         <v>129.20643724553599</v>
       </c>
       <c r="H8" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D8*(10^-9)</f>
-        <v>10468.722292532555</v>
+        <f t="shared" si="0"/>
+        <v>2067.8957614879114</v>
       </c>
       <c r="I8" s="1">
-        <f>2*PI()*150000*Ist*Ist*E8*(10^-9)</f>
-        <v>9211.7005731739027</v>
+        <f t="shared" si="1"/>
+        <v>1819.5951749479304</v>
       </c>
       <c r="J8" s="2">
-        <f>F8*SQRT(H8*I8)</f>
-        <v>797.11906327721738</v>
+        <f t="shared" si="2"/>
+        <v>157.45561743747496</v>
       </c>
       <c r="K8">
-        <f>2*PI()*150000*G8*Ipt*(10^-9)</f>
-        <v>6.1744113862339809</v>
+        <f t="shared" si="3"/>
+        <v>2.7441828383262137</v>
       </c>
       <c r="N8">
-        <f>D8*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.885214110768281</v>
       </c>
       <c r="O8">
-        <f>E8*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8017899532088499</v>
       </c>
       <c r="P8">
-        <f>G8*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9380965586830399</v>
       </c>
       <c r="Q8">
-        <f>P8/SQRT(N8*O8)</f>
+        <f t="shared" si="7"/>
         <v>0.15940028874833531</v>
       </c>
       <c r="S8" s="4">
-        <f>w*P8*10^-6*$G$1</f>
-        <v>13.699597299089167</v>
+        <f t="shared" si="8"/>
+        <v>9.1330648660594456</v>
       </c>
       <c r="T8" s="4">
-        <f>P8*$G$1/O8</f>
-        <v>3.8233896056919492</v>
+        <f t="shared" si="9"/>
+        <v>2.5489264037946331</v>
       </c>
       <c r="U8" s="4">
-        <f>S8*T8</f>
-        <v>52.378897915503018</v>
+        <f t="shared" si="10"/>
+        <v>23.279510184668016</v>
       </c>
       <c r="V8" s="5">
-        <f>U8*$N$1</f>
-        <v>261.89448957751506</v>
+        <f t="shared" si="11"/>
+        <v>116.39755092334008</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4">
-        <f>w*N8*10^-6*$G$1</f>
-        <v>274.86338171322546</v>
+        <f t="shared" si="12"/>
+        <v>183.24225447548366</v>
       </c>
       <c r="Y8" s="4">
-        <f>X8*$G$1</f>
-        <v>2061.4753628491908</v>
+        <f t="shared" si="13"/>
+        <v>916.21127237741825</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -10392,61 +10448,61 @@
         <v>129.048781138941</v>
       </c>
       <c r="H9" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D9*(10^-9)</f>
-        <v>10430.943608798783</v>
+        <f t="shared" si="0"/>
+        <v>2060.4333054417343</v>
       </c>
       <c r="I9" s="1">
-        <f>2*PI()*150000*Ist*Ist*E9*(10^-9)</f>
-        <v>9199.5678836866355</v>
+        <f t="shared" si="1"/>
+        <v>1817.1985943084705</v>
       </c>
       <c r="J9" s="2">
-        <f>F9*SQRT(H9*I9)</f>
-        <v>1061.8428985378885</v>
+        <f t="shared" si="2"/>
+        <v>209.74674539020015</v>
       </c>
       <c r="K9">
-        <f>2*PI()*150000*G9*Ipt*(10^-9)</f>
-        <v>6.1668774453528492</v>
+        <f t="shared" si="3"/>
+        <v>2.7408344201568218</v>
       </c>
       <c r="N9">
-        <f>D9*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.74488827493456</v>
       </c>
       <c r="O9">
-        <f>E9*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7967826327220751</v>
       </c>
       <c r="P9">
-        <f>G9*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9357317170841153</v>
       </c>
       <c r="Q9">
-        <f>P9/SQRT(N9*O9)</f>
+        <f t="shared" si="7"/>
         <v>0.15959897302128428</v>
       </c>
       <c r="S9" s="4">
-        <f>w*P9*10^-6*$G$1</f>
-        <v>13.682881218852478</v>
+        <f t="shared" si="8"/>
+        <v>9.1219208125683178</v>
       </c>
       <c r="T9" s="4">
-        <f>P9*$G$1/O9</f>
-        <v>3.8237606106310857</v>
+        <f t="shared" si="9"/>
+        <v>2.549173740420724</v>
       </c>
       <c r="U9" s="4">
-        <f>S9*T9</f>
-        <v>52.320062244591966</v>
+        <f t="shared" si="10"/>
+        <v>23.253360997596427</v>
       </c>
       <c r="V9" s="5">
-        <f>U9*$N$1</f>
-        <v>261.60031122295982</v>
+        <f t="shared" si="11"/>
+        <v>116.26680498798214</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4">
-        <f>w*N9*10^-6*$G$1</f>
-        <v>273.87147682955634</v>
+        <f t="shared" si="12"/>
+        <v>182.58098455303755</v>
       </c>
       <c r="Y9" s="4">
-        <f>X9*$G$1</f>
-        <v>2054.0360762216724</v>
+        <f t="shared" si="13"/>
+        <v>912.90492276518773</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -10474,61 +10530,61 @@
         <v>127.631920443439</v>
       </c>
       <c r="H10" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D10*(10^-9)</f>
-        <v>10363.278801698072</v>
+        <f t="shared" si="0"/>
+        <v>2047.067417619372</v>
       </c>
       <c r="I10" s="1">
-        <f>2*PI()*150000*Ist*Ist*E10*(10^-9)</f>
-        <v>9227.8492220899261</v>
+        <f t="shared" si="1"/>
+        <v>1822.7850315239355</v>
       </c>
       <c r="J10" s="2">
-        <f>F10*SQRT(H10*I10)</f>
-        <v>525.04560684248031</v>
+        <f t="shared" si="2"/>
+        <v>103.71271246271213</v>
       </c>
       <c r="K10">
-        <f>2*PI()*150000*G10*Ipt*(10^-9)</f>
-        <v>6.0991696670291571</v>
+        <f t="shared" si="3"/>
+        <v>2.7107420742351804</v>
       </c>
       <c r="N10">
-        <f>D10*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.493552874266634</v>
       </c>
       <c r="O10">
-        <f>E10*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8084547129585999</v>
       </c>
       <c r="P10">
-        <f>G10*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9144788066515848</v>
       </c>
       <c r="Q10">
-        <f>P10/SQRT(N10*O10)</f>
+        <f t="shared" si="7"/>
         <v>0.15811831095959347</v>
       </c>
       <c r="S10" s="4">
-        <f>w*P10*10^-6*$G$1</f>
-        <v>13.532653247467438</v>
+        <f t="shared" si="8"/>
+        <v>9.0217688316449589</v>
       </c>
       <c r="T10" s="4">
-        <f>P10*$G$1/O10</f>
-        <v>3.77018820810197</v>
+        <f t="shared" si="9"/>
+        <v>2.5134588054013132</v>
       </c>
       <c r="U10" s="4">
-        <f>S10*T10</f>
-        <v>51.020649697934566</v>
+        <f t="shared" si="10"/>
+        <v>22.675844310193138</v>
       </c>
       <c r="V10" s="5">
-        <f>U10*$N$1</f>
-        <v>255.10324848967284</v>
+        <f t="shared" si="11"/>
+        <v>113.3792215509657</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4">
-        <f>w*N10*10^-6*$G$1</f>
-        <v>272.09489157082425</v>
+        <f t="shared" si="12"/>
+        <v>181.39659438054949</v>
       </c>
       <c r="Y10" s="4">
-        <f>X10*$G$1</f>
-        <v>2040.7116867811819</v>
+        <f t="shared" si="13"/>
+        <v>906.98297190274741</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -10556,61 +10612,61 @@
         <v>127.179902033109</v>
       </c>
       <c r="H11" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D11*(10^-9)</f>
-        <v>10333.96059534903</v>
+        <f t="shared" si="0"/>
+        <v>2041.2761669825236</v>
       </c>
       <c r="I11" s="1">
-        <f>2*PI()*150000*Ist*Ist*E11*(10^-9)</f>
-        <v>9198.8011398167127</v>
+        <f t="shared" si="1"/>
+        <v>1817.0471387292264</v>
       </c>
       <c r="J11" s="2">
-        <f>F11*SQRT(H11*I11)</f>
-        <v>867.88006388912959</v>
+        <f t="shared" si="2"/>
+        <v>171.43309903982799</v>
       </c>
       <c r="K11">
-        <f>2*PI()*150000*G11*Ipt*(10^-9)</f>
-        <v>6.0775689814981009</v>
+        <f t="shared" si="3"/>
+        <v>2.7011417695547109</v>
       </c>
       <c r="N11">
-        <f>D11*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.384652790820972</v>
       </c>
       <c r="O11">
-        <f>E11*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7964661874448753</v>
       </c>
       <c r="P11">
-        <f>G11*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9076985304966352</v>
       </c>
       <c r="Q11">
-        <f>P11/SQRT(N11*O11)</f>
+        <f t="shared" si="7"/>
         <v>0.15803059263342417</v>
       </c>
       <c r="S11" s="4">
-        <f>w*P11*10^-6*$G$1</f>
-        <v>13.484726299512614</v>
+        <f t="shared" si="8"/>
+        <v>8.9898175330084094</v>
       </c>
       <c r="T11" s="4">
-        <f>P11*$G$1/O11</f>
-        <v>3.7686991724149292</v>
+        <f t="shared" si="9"/>
+        <v>2.5124661149432863</v>
       </c>
       <c r="U11" s="4">
-        <f>S11*T11</f>
-        <v>50.81987684521502</v>
+        <f t="shared" si="10"/>
+        <v>22.586611931206676</v>
       </c>
       <c r="V11" s="5">
-        <f>U11*$N$1</f>
-        <v>254.0993842260751</v>
+        <f t="shared" si="11"/>
+        <v>112.93305965603338</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4">
-        <f>w*N11*10^-6*$G$1</f>
-        <v>271.32512224103573</v>
+        <f t="shared" si="12"/>
+        <v>180.88341482735714</v>
       </c>
       <c r="Y11" s="4">
-        <f>X11*$G$1</f>
-        <v>2034.9384168077679</v>
+        <f t="shared" si="13"/>
+        <v>904.41707413678569</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -10638,61 +10694,61 @@
         <v>127.35529918616101</v>
       </c>
       <c r="H12" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D12*(10^-9)</f>
-        <v>10349.724870872444</v>
+        <f t="shared" si="0"/>
+        <v>2044.3900979501116</v>
       </c>
       <c r="I12" s="1">
-        <f>2*PI()*150000*Ist*Ist*E12*(10^-9)</f>
-        <v>9229.5522052467659</v>
+        <f t="shared" si="1"/>
+        <v>1823.1214232586196</v>
       </c>
       <c r="J12" s="2">
-        <f>F12*SQRT(H12*I12)</f>
-        <v>1068.2387865066582</v>
+        <f t="shared" si="2"/>
+        <v>211.01013066798183</v>
       </c>
       <c r="K12">
-        <f>2*PI()*150000*G12*Ipt*(10^-9)</f>
-        <v>6.0859507169750984</v>
+        <f t="shared" si="3"/>
+        <v>2.704866985322266</v>
       </c>
       <c r="N12">
-        <f>D12*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.443207904988661</v>
       </c>
       <c r="O12">
-        <f>E12*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8091575565003244</v>
       </c>
       <c r="P12">
-        <f>G12*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9103294877924151</v>
       </c>
       <c r="Q12">
-        <f>P12/SQRT(N12*O12)</f>
+        <f t="shared" si="7"/>
         <v>0.15786432647841289</v>
       </c>
       <c r="S12" s="4">
-        <f>w*P12*10^-6*$G$1</f>
-        <v>13.503323440765357</v>
+        <f t="shared" si="8"/>
+        <v>9.0022156271769056</v>
       </c>
       <c r="T12" s="4">
-        <f>P12*$G$1/O12</f>
-        <v>3.7613227980011734</v>
+        <f t="shared" si="9"/>
+        <v>2.507548532000782</v>
       </c>
       <c r="U12" s="4">
-        <f>S12*T12</f>
-        <v>50.790358306534387</v>
+        <f t="shared" si="10"/>
+        <v>22.573492580681947</v>
       </c>
       <c r="V12" s="5">
-        <f>U12*$N$1</f>
-        <v>253.95179153267193</v>
+        <f t="shared" si="11"/>
+        <v>112.86746290340973</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4">
-        <f>w*N12*10^-6*$G$1</f>
-        <v>271.73902395315923</v>
+        <f t="shared" si="12"/>
+        <v>181.15934930210616</v>
       </c>
       <c r="Y12" s="4">
-        <f>X12*$G$1</f>
-        <v>2038.0426796486943</v>
+        <f t="shared" si="13"/>
+        <v>905.79674651053085</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -10720,61 +10776,61 @@
         <v>127.10038549434501</v>
       </c>
       <c r="H13" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D13*(10^-9)</f>
-        <v>10337.078282472999</v>
+        <f t="shared" si="0"/>
+        <v>2041.8920064144188</v>
       </c>
       <c r="I13" s="1">
-        <f>2*PI()*150000*Ist*Ist*E13*(10^-9)</f>
-        <v>9205.5756073311877</v>
+        <f t="shared" si="1"/>
+        <v>1818.385305151839</v>
       </c>
       <c r="J13" s="2">
-        <f>F13*SQRT(H13*I13)</f>
-        <v>743.02750213525701</v>
+        <f t="shared" si="2"/>
+        <v>146.77086461930998</v>
       </c>
       <c r="K13">
-        <f>2*PI()*150000*G13*Ipt*(10^-9)</f>
-        <v>6.0737691102780209</v>
+        <f t="shared" si="3"/>
+        <v>2.6994529379013428</v>
       </c>
       <c r="N13">
-        <f>D13*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.396233185061867</v>
       </c>
       <c r="O13">
-        <f>E13*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7992620992670503</v>
       </c>
       <c r="P13">
-        <f>G13*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.906505782415175</v>
       </c>
       <c r="Q13">
-        <f>P13/SQRT(N13*O13)</f>
+        <f t="shared" si="7"/>
         <v>0.15784985560385217</v>
       </c>
       <c r="S13" s="4">
-        <f>w*P13*10^-6*$G$1</f>
-        <v>13.476295260139441</v>
+        <f t="shared" si="8"/>
+        <v>8.9841968400929613</v>
       </c>
       <c r="T13" s="4">
-        <f>P13*$G$1/O13</f>
-        <v>3.763571186855553</v>
+        <f t="shared" si="9"/>
+        <v>2.5090474579037023</v>
       </c>
       <c r="U13" s="4">
-        <f>S13*T13</f>
-        <v>50.718996546618861</v>
+        <f t="shared" si="10"/>
+        <v>22.541776242941719</v>
       </c>
       <c r="V13" s="5">
-        <f>U13*$N$1</f>
-        <v>253.5949827330943</v>
+        <f t="shared" si="11"/>
+        <v>112.7088812147086</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4">
-        <f>w*N13*10^-6*$G$1</f>
-        <v>271.4069792243497</v>
+        <f t="shared" si="12"/>
+        <v>180.93798614956648</v>
       </c>
       <c r="Y13" s="4">
-        <f>X13*$G$1</f>
-        <v>2035.5523441826226</v>
+        <f t="shared" si="13"/>
+        <v>904.68993074783248</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -10802,61 +10858,61 @@
         <v>127.007458026424</v>
       </c>
       <c r="H14" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D14*(10^-9)</f>
-        <v>10308.474622157488</v>
+        <f t="shared" si="0"/>
+        <v>2036.2419006730831</v>
       </c>
       <c r="I14" s="1">
-        <f>2*PI()*150000*Ist*Ist*E14*(10^-9)</f>
-        <v>9194.879265014466</v>
+        <f t="shared" si="1"/>
+        <v>1816.272447410264</v>
       </c>
       <c r="J14" s="2">
-        <f>F14*SQRT(H14*I14)</f>
-        <v>1030.3685995022834</v>
+        <f t="shared" si="2"/>
+        <v>203.52959990168551</v>
       </c>
       <c r="K14">
-        <f>2*PI()*150000*G14*Ipt*(10^-9)</f>
-        <v>6.0693283685606803</v>
+        <f t="shared" si="3"/>
+        <v>2.6974792749158572</v>
       </c>
       <c r="N14">
-        <f>D14*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.289987224510043</v>
       </c>
       <c r="O14">
-        <f>E14*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7948475781444007</v>
       </c>
       <c r="P14">
-        <f>G14*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.9051118703963603</v>
       </c>
       <c r="Q14">
-        <f>P14/SQRT(N14*O14)</f>
+        <f t="shared" si="7"/>
         <v>0.15804497927121275</v>
       </c>
       <c r="S14" s="4">
-        <f>w*P14*10^-6*$G$1</f>
-        <v>13.466442276683809</v>
+        <f t="shared" si="8"/>
+        <v>8.9776281844558721</v>
       </c>
       <c r="T14" s="4">
-        <f>P14*$G$1/O14</f>
-        <v>3.7651944468766767</v>
+        <f t="shared" si="9"/>
+        <v>2.5101296312511177</v>
       </c>
       <c r="U14" s="4">
-        <f>S14*T14</f>
-        <v>50.703773679355187</v>
+        <f t="shared" si="10"/>
+        <v>22.535010524157858</v>
       </c>
       <c r="V14" s="5">
-        <f>U14*$N$1</f>
-        <v>253.51886839677593</v>
+        <f t="shared" si="11"/>
+        <v>112.67505262078929</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4">
-        <f>w*N14*10^-6*$G$1</f>
-        <v>270.65597078377749</v>
+        <f t="shared" si="12"/>
+        <v>180.43731385585164</v>
       </c>
       <c r="Y14" s="4">
-        <f>X14*$G$1</f>
-        <v>2029.9197808783313</v>
+        <f t="shared" si="13"/>
+        <v>902.18656927925826</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -10884,61 +10940,61 @@
         <v>127.343899477246</v>
       </c>
       <c r="H15" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D15*(10^-9)</f>
-        <v>10269.753185687299</v>
+        <f t="shared" si="0"/>
+        <v>2028.5932218641574</v>
       </c>
       <c r="I15" s="1">
-        <f>2*PI()*150000*Ist*Ist*E15*(10^-9)</f>
-        <v>9213.3147920385964</v>
+        <f t="shared" si="1"/>
+        <v>1819.9140329952775</v>
       </c>
       <c r="J15" s="2">
-        <f>F15*SQRT(H15*I15)</f>
-        <v>0.17844424753043756</v>
+        <f t="shared" si="2"/>
+        <v>3.5248246425765427E-2</v>
       </c>
       <c r="K15">
-        <f>2*PI()*150000*G15*Ipt*(10^-9)</f>
-        <v>6.0854059570233101</v>
+        <f t="shared" si="3"/>
+        <v>2.7046248697881374</v>
       </c>
       <c r="N15">
-        <f>D15*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.146159610619307</v>
       </c>
       <c r="O15">
-        <f>E15*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8024561625600248</v>
       </c>
       <c r="P15">
-        <f>G15*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.91015849215869</v>
       </c>
       <c r="Q15">
-        <f>P15/SQRT(N15*O15)</f>
+        <f t="shared" si="7"/>
         <v>0.15860317786199621</v>
       </c>
       <c r="S15" s="4">
-        <f>w*P15*10^-6*$G$1</f>
-        <v>13.502114743855268</v>
+        <f t="shared" si="8"/>
+        <v>9.0014098292368452</v>
       </c>
       <c r="T15" s="4">
-        <f>P15*$G$1/O15</f>
-        <v>3.7676144257097732</v>
+        <f t="shared" si="9"/>
+        <v>2.5117429504731823</v>
       </c>
       <c r="U15" s="4">
-        <f>S15*T15</f>
-        <v>50.870762286537726</v>
+        <f t="shared" si="10"/>
+        <v>22.609227682905658</v>
       </c>
       <c r="V15" s="5">
-        <f>U15*$N$1</f>
-        <v>254.35381143268864</v>
+        <f t="shared" si="11"/>
+        <v>113.04613841452829</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4">
-        <f>w*N15*10^-6*$G$1</f>
-        <v>269.63931328961689</v>
+        <f t="shared" si="12"/>
+        <v>179.75954219307795</v>
       </c>
       <c r="Y15" s="4">
-        <f>X15*$G$1</f>
-        <v>2022.2948496721267</v>
+        <f t="shared" si="13"/>
+        <v>898.7977109653898</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -10966,61 +11022,61 @@
         <v>121.49748761608799</v>
       </c>
       <c r="H16" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D16*(10^-9)</f>
-        <v>10261.467412424783</v>
+        <f t="shared" si="0"/>
+        <v>2026.9565259110677</v>
       </c>
       <c r="I16" s="1">
-        <f>2*PI()*150000*Ist*Ist*E16*(10^-9)</f>
-        <v>9246.3689247163875</v>
+        <f t="shared" si="1"/>
+        <v>1826.4432443884216</v>
       </c>
       <c r="J16" s="2">
-        <f>F16*SQRT(H16*I16)</f>
-        <v>485.23749373216623</v>
+        <f t="shared" si="2"/>
+        <v>95.849381477958744</v>
       </c>
       <c r="K16">
-        <f>2*PI()*150000*G16*Ipt*(10^-9)</f>
-        <v>5.8060224159730396</v>
+        <f t="shared" si="3"/>
+        <v>2.5804544070991282</v>
       </c>
       <c r="N16">
-        <f>D16*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.115382782427382</v>
       </c>
       <c r="O16">
-        <f>E16*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8160980377521496</v>
       </c>
       <c r="P16">
-        <f>G16*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8224623142413201</v>
       </c>
       <c r="Q16">
-        <f>P16/SQRT(N16*O16)</f>
+        <f t="shared" si="7"/>
         <v>0.15111189505694944</v>
       </c>
       <c r="S16" s="4">
-        <f>w*P16*10^-6*$G$1</f>
-        <v>12.882226990195763</v>
+        <f t="shared" si="8"/>
+        <v>8.5881513267971759</v>
       </c>
       <c r="T16" s="4">
-        <f>P16*$G$1/O16</f>
-        <v>3.5817914586023663</v>
+        <f t="shared" si="9"/>
+        <v>2.3878609724015778</v>
       </c>
       <c r="U16" s="4">
-        <f>S16*T16</f>
-        <v>46.141450601260054</v>
+        <f t="shared" si="10"/>
+        <v>20.507311378337803</v>
       </c>
       <c r="V16" s="5">
-        <f>U16*$N$1</f>
-        <v>230.70725300630028</v>
+        <f t="shared" si="11"/>
+        <v>102.53655689168902</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4">
-        <f>w*N16*10^-6*$G$1</f>
-        <v>269.42176471058264</v>
+        <f t="shared" si="12"/>
+        <v>179.6145098070551</v>
       </c>
       <c r="Y16" s="4">
-        <f>X16*$G$1</f>
-        <v>2020.6632353293699</v>
+        <f t="shared" si="13"/>
+        <v>898.07254903527553</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
@@ -11048,61 +11104,61 @@
         <v>120.95528834715699</v>
       </c>
       <c r="H17" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D17*(10^-9)</f>
-        <v>10229.83593187646</v>
+        <f t="shared" si="0"/>
+        <v>2020.7083322225096</v>
       </c>
       <c r="I17" s="1">
-        <f>2*PI()*150000*Ist*Ist*E17*(10^-9)</f>
-        <v>9203.9901044439775</v>
+        <f t="shared" si="1"/>
+        <v>1818.0721193963404</v>
       </c>
       <c r="J17" s="2">
-        <f>F17*SQRT(H17*I17)</f>
-        <v>818.89018603386808</v>
+        <f t="shared" si="2"/>
+        <v>161.75608613014671</v>
       </c>
       <c r="K17">
-        <f>2*PI()*150000*G17*Ipt*(10^-9)</f>
-        <v>5.7801122414409969</v>
+        <f t="shared" si="3"/>
+        <v>2.5689387739737759</v>
       </c>
       <c r="N17">
-        <f>D17*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.997890230863611</v>
       </c>
       <c r="O17">
-        <f>E17*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7986077413773751</v>
       </c>
       <c r="P17">
-        <f>G17*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8143293252073549</v>
       </c>
       <c r="Q17">
-        <f>P17/SQRT(N17*O17)</f>
+        <f t="shared" si="7"/>
         <v>0.15101641413248773</v>
       </c>
       <c r="S17" s="4">
-        <f>w*P17*10^-6*$G$1</f>
-        <v>12.824738278343892</v>
+        <f t="shared" si="8"/>
+        <v>8.5498255188959291</v>
       </c>
       <c r="T17" s="4">
-        <f>P17*$G$1/O17</f>
-        <v>3.5822256114607649</v>
+        <f t="shared" si="9"/>
+        <v>2.3881504076405098</v>
       </c>
       <c r="U17" s="4">
-        <f>S17*T17</f>
-        <v>45.941105920964723</v>
+        <f t="shared" si="10"/>
+        <v>20.418269298206546</v>
       </c>
       <c r="V17" s="5">
-        <f>U17*$N$1</f>
-        <v>229.70552960482362</v>
+        <f t="shared" si="11"/>
+        <v>102.09134649103274</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4">
-        <f>w*N17*10^-6*$G$1</f>
-        <v>268.59125880268311</v>
+        <f t="shared" si="12"/>
+        <v>179.06083920178872</v>
       </c>
       <c r="Y17" s="4">
-        <f>X17*$G$1</f>
-        <v>2014.4344410201234</v>
+        <f t="shared" si="13"/>
+        <v>895.30419600894356</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
@@ -11130,61 +11186,61 @@
         <v>121.159745896101</v>
       </c>
       <c r="H18" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D18*(10^-9)</f>
-        <v>10232.873855729951</v>
+        <f t="shared" si="0"/>
+        <v>2021.3084159466566</v>
       </c>
       <c r="I18" s="1">
-        <f>2*PI()*150000*Ist*Ist*E18*(10^-9)</f>
-        <v>9222.2733035974834</v>
+        <f t="shared" si="1"/>
+        <v>1821.6836155254282</v>
       </c>
       <c r="J18" s="2">
-        <f>F18*SQRT(H18*I18)</f>
-        <v>1047.8316810004678</v>
+        <f t="shared" si="2"/>
+        <v>206.9790974815738</v>
       </c>
       <c r="K18">
-        <f>2*PI()*150000*G18*Ipt*(10^-9)</f>
-        <v>5.7898826913126413</v>
+        <f t="shared" si="3"/>
+        <v>2.5732811961389515</v>
       </c>
       <c r="N18">
-        <f>D18*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.00917435094955</v>
       </c>
       <c r="O18">
-        <f>E18*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8061534580778003</v>
       </c>
       <c r="P18">
-        <f>G18*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8173961884415148</v>
       </c>
       <c r="Q18">
-        <f>P18/SQRT(N18*O18)</f>
+        <f t="shared" si="7"/>
         <v>0.15109922882271482</v>
       </c>
       <c r="S18" s="4">
-        <f>w*P18*10^-6*$G$1</f>
-        <v>12.846416657107397</v>
+        <f t="shared" si="8"/>
+        <v>8.5642777714049316</v>
       </c>
       <c r="T18" s="4">
-        <f>P18*$G$1/O18</f>
-        <v>3.5811670662893031</v>
+        <f t="shared" si="9"/>
+        <v>2.3874447108595356</v>
       </c>
       <c r="U18" s="4">
-        <f>S18*T18</f>
-        <v>46.005164252263334</v>
+        <f t="shared" si="10"/>
+        <v>20.446739667672595</v>
       </c>
       <c r="V18" s="5">
-        <f>U18*$N$1</f>
-        <v>230.02582126131668</v>
+        <f t="shared" si="11"/>
+        <v>102.23369833836298</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4">
-        <f>w*N18*10^-6*$G$1</f>
-        <v>268.67102154740252</v>
+        <f t="shared" si="12"/>
+        <v>179.11401436493503</v>
       </c>
       <c r="Y18" s="4">
-        <f>X18*$G$1</f>
-        <v>2015.0326616055188</v>
+        <f t="shared" si="13"/>
+        <v>895.5700718246751</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
@@ -11212,61 +11268,61 @@
         <v>120.895889066416</v>
       </c>
       <c r="H19" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D19*(10^-9)</f>
-        <v>10232.499516036069</v>
+        <f t="shared" si="0"/>
+        <v>2021.2344723034205</v>
       </c>
       <c r="I19" s="1">
-        <f>2*PI()*150000*Ist*Ist*E19*(10^-9)</f>
-        <v>9211.8111066780111</v>
+        <f t="shared" si="1"/>
+        <v>1819.61700872652</v>
       </c>
       <c r="J19" s="2">
-        <f>F19*SQRT(H19*I19)</f>
-        <v>685.41617607763897</v>
+        <f t="shared" si="2"/>
+        <v>135.39084959558295</v>
       </c>
       <c r="K19">
-        <f>2*PI()*150000*G19*Ipt*(10^-9)</f>
-        <v>5.7772737172686721</v>
+        <f t="shared" si="3"/>
+        <v>2.5676772076749654</v>
       </c>
       <c r="N19">
-        <f>D19*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>38.007783896724092</v>
       </c>
       <c r="O19">
-        <f>E19*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8018355718394248</v>
       </c>
       <c r="P19">
-        <f>G19*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8134383359962403</v>
       </c>
       <c r="Q19">
-        <f>P19/SQRT(N19*O19)</f>
+        <f t="shared" si="7"/>
         <v>0.15085852372586986</v>
       </c>
       <c r="S19" s="4">
-        <f>w*P19*10^-6*$G$1</f>
-        <v>12.818440246733747</v>
+        <f t="shared" si="8"/>
+        <v>8.5456268311558308</v>
       </c>
       <c r="T19" s="4">
-        <f>P19*$G$1/O19</f>
-        <v>3.5774265517199617</v>
+        <f t="shared" si="9"/>
+        <v>2.3849510344799745</v>
       </c>
       <c r="U19" s="4">
-        <f>S19*T19</f>
-        <v>45.857028490301083</v>
+        <f t="shared" si="10"/>
+        <v>20.380901551244925</v>
       </c>
       <c r="V19" s="5">
-        <f>U19*$N$1</f>
-        <v>229.28514245150541</v>
+        <f t="shared" si="11"/>
+        <v>101.90450775622463</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4">
-        <f>w*N19*10^-6*$G$1</f>
-        <v>268.66119300564787</v>
+        <f t="shared" si="12"/>
+        <v>179.10746200376525</v>
       </c>
       <c r="Y19" s="4">
-        <f>X19*$G$1</f>
-        <v>2014.9589475423591</v>
+        <f t="shared" si="13"/>
+        <v>895.53731001882625</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
@@ -11294,61 +11350,61 @@
         <v>121.08152466300101</v>
       </c>
       <c r="H20" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D20*(10^-9)</f>
-        <v>10205.536655484322</v>
+        <f t="shared" si="0"/>
+        <v>2015.9084751573967</v>
       </c>
       <c r="I20" s="1">
-        <f>2*PI()*150000*Ist*Ist*E20*(10^-9)</f>
-        <v>9218.718332051556</v>
+        <f t="shared" si="1"/>
+        <v>1820.9813989237632</v>
       </c>
       <c r="J20" s="2">
-        <f>F20*SQRT(H20*I20)</f>
-        <v>995.21171678581641</v>
+        <f t="shared" si="2"/>
+        <v>196.58503047621059</v>
       </c>
       <c r="K20">
-        <f>2*PI()*150000*G20*Ipt*(10^-9)</f>
-        <v>5.7861447190986102</v>
+        <f t="shared" si="3"/>
+        <v>2.5716198751549375</v>
       </c>
       <c r="N20">
-        <f>D20*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.907632552911934</v>
       </c>
       <c r="O20">
-        <f>E20*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8046862745756997</v>
       </c>
       <c r="P20">
-        <f>G20*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.8162228699450151</v>
       </c>
       <c r="Q20">
-        <f>P20/SQRT(N20*O20)</f>
+        <f t="shared" si="7"/>
         <v>0.15123293583416217</v>
       </c>
       <c r="S20" s="4">
-        <f>w*P20*10^-6*$G$1</f>
-        <v>12.838122957377317</v>
+        <f t="shared" si="8"/>
+        <v>8.5587486382515436</v>
       </c>
       <c r="T20" s="4">
-        <f>P20*$G$1/O20</f>
-        <v>3.5802351472741885</v>
+        <f t="shared" si="9"/>
+        <v>2.3868234315161256</v>
       </c>
       <c r="U20" s="4">
-        <f>S20*T20</f>
-        <v>45.963499037029919</v>
+        <f t="shared" si="10"/>
+        <v>20.428221794235515</v>
       </c>
       <c r="V20" s="5">
-        <f>U20*$N$1</f>
-        <v>229.8174951851496</v>
+        <f t="shared" si="11"/>
+        <v>102.14110897117757</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4">
-        <f>w*N20*10^-6*$G$1</f>
-        <v>267.95326487222115</v>
+        <f t="shared" si="12"/>
+        <v>178.63550991481412</v>
       </c>
       <c r="Y20" s="4">
-        <f>X20*$G$1</f>
-        <v>2009.6494865416587</v>
+        <f t="shared" si="13"/>
+        <v>893.17754957407055</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
@@ -11376,61 +11432,61 @@
         <v>111.177432412616</v>
       </c>
       <c r="H21" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D21*(10^-9)</f>
-        <v>10196.422224038181</v>
+        <f t="shared" si="0"/>
+        <v>2014.1080936371711</v>
       </c>
       <c r="I21" s="1">
-        <f>2*PI()*150000*Ist*Ist*E21*(10^-9)</f>
-        <v>9227.4630852236751</v>
+        <f t="shared" si="1"/>
+        <v>1822.7087575750463</v>
       </c>
       <c r="J21" s="2">
-        <f>F21*SQRT(H21*I21)</f>
-        <v>1050.0918676706542</v>
+        <f t="shared" si="2"/>
+        <v>207.42555410778351</v>
       </c>
       <c r="K21">
-        <f>2*PI()*150000*G21*Ipt*(10^-9)</f>
-        <v>5.3128560713752808</v>
+        <f t="shared" si="3"/>
+        <v>2.36126936505568</v>
       </c>
       <c r="N21">
-        <f>D21*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.873777741562705</v>
       </c>
       <c r="O21">
-        <f>E21*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8082953491964999</v>
       </c>
       <c r="P21">
-        <f>G21*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.6676614861892403</v>
       </c>
       <c r="Q21">
-        <f>P21/SQRT(N21*O21)</f>
+        <f t="shared" si="7"/>
         <v>0.13885875745617815</v>
       </c>
       <c r="S21" s="4">
-        <f>w*P21*10^-6*$G$1</f>
-        <v>11.788004415795193</v>
+        <f t="shared" si="8"/>
+        <v>7.8586696105301286</v>
       </c>
       <c r="T21" s="4">
-        <f>P21*$G$1/O21</f>
-        <v>3.2842676314635662</v>
+        <f t="shared" si="9"/>
+        <v>2.1895117543090441</v>
       </c>
       <c r="U21" s="4">
-        <f>S21*T21</f>
-        <v>38.714961342345738</v>
+        <f t="shared" si="10"/>
+        <v>17.206649485486995</v>
       </c>
       <c r="V21" s="5">
-        <f>U21*$N$1</f>
-        <v>193.57480671172868</v>
+        <f t="shared" si="11"/>
+        <v>86.033247427434972</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4">
-        <f>w*N21*10^-6*$G$1</f>
-        <v>267.71395931231848</v>
+        <f t="shared" si="12"/>
+        <v>178.47597287487901</v>
       </c>
       <c r="Y21" s="4">
-        <f>X21*$G$1</f>
-        <v>2007.8546948423887</v>
+        <f t="shared" si="13"/>
+        <v>892.37986437439508</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
@@ -11458,61 +11514,61 @@
         <v>111.18917378230699</v>
       </c>
       <c r="H22" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D22*(10^-9)</f>
-        <v>10183.164667028776</v>
+        <f t="shared" si="0"/>
+        <v>2011.4893169439551</v>
       </c>
       <c r="I22" s="1">
-        <f>2*PI()*150000*Ist*Ist*E22*(10^-9)</f>
-        <v>9238.5990667663209</v>
+        <f t="shared" si="1"/>
+        <v>1824.9084576328526</v>
       </c>
       <c r="J22" s="2">
-        <f>F22*SQRT(H22*I22)</f>
-        <v>770.1917351468702</v>
+        <f t="shared" si="2"/>
+        <v>152.136639041357</v>
       </c>
       <c r="K22">
-        <f>2*PI()*150000*G22*Ipt*(10^-9)</f>
-        <v>5.3134171583323662</v>
+        <f t="shared" si="3"/>
+        <v>2.3615187370366071</v>
       </c>
       <c r="N22">
-        <f>D22*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.824533628624096</v>
       </c>
       <c r="O22">
-        <f>E22*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8128913152085997</v>
       </c>
       <c r="P22">
-        <f>G22*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.667837606734605</v>
       </c>
       <c r="Q22">
-        <f>P22/SQRT(N22*O22)</f>
+        <f t="shared" si="7"/>
         <v>0.13888001609491035</v>
       </c>
       <c r="S22" s="4">
-        <f>w*P22*10^-6*$G$1</f>
-        <v>11.789249338570988</v>
+        <f t="shared" si="8"/>
+        <v>7.8594995590473253</v>
       </c>
       <c r="T22" s="4">
-        <f>P22*$G$1/O22</f>
-        <v>3.2806552866102856</v>
+        <f t="shared" si="9"/>
+        <v>2.1871035244068571</v>
       </c>
       <c r="U22" s="4">
-        <f>S22*T22</f>
-        <v>38.676463167749723</v>
+        <f t="shared" si="10"/>
+        <v>17.189539185666543</v>
       </c>
       <c r="V22" s="5">
-        <f>U22*$N$1</f>
-        <v>193.38231583874861</v>
+        <f t="shared" si="11"/>
+        <v>85.94769592833272</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4">
-        <f>w*N22*10^-6*$G$1</f>
-        <v>267.36587318957743</v>
+        <f t="shared" si="12"/>
+        <v>178.24391545971827</v>
       </c>
       <c r="Y22" s="4">
-        <f>X22*$G$1</f>
-        <v>2005.2440489218307</v>
+        <f t="shared" si="13"/>
+        <v>891.21957729859128</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
@@ -11540,61 +11596,61 @@
         <v>110.61784048831301</v>
       </c>
       <c r="H23" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D23*(10^-9)</f>
-        <v>10161.447793800698</v>
+        <f t="shared" si="0"/>
+        <v>2007.1995642075449</v>
       </c>
       <c r="I23" s="1">
-        <f>2*PI()*150000*Ist*Ist*E23*(10^-9)</f>
-        <v>9181.2179401262056</v>
+        <f t="shared" si="1"/>
+        <v>1813.5739140990029</v>
       </c>
       <c r="J23" s="2">
-        <f>F23*SQRT(H23*I23)</f>
-        <v>1025.6790602431092</v>
+        <f t="shared" si="2"/>
+        <v>202.60327115913262</v>
       </c>
       <c r="K23">
-        <f>2*PI()*150000*G23*Ipt*(10^-9)</f>
-        <v>5.2861147508751651</v>
+        <f t="shared" si="3"/>
+        <v>2.3493843337222953</v>
       </c>
       <c r="N23">
-        <f>D23*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.74386807635392</v>
       </c>
       <c r="O23">
-        <f>E23*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7892093697272751</v>
       </c>
       <c r="P23">
-        <f>G23*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.6592676073246952</v>
       </c>
       <c r="Q23">
-        <f>P23/SQRT(N23*O23)</f>
+        <f t="shared" si="7"/>
         <v>0.13874550781393152</v>
       </c>
       <c r="S23" s="4">
-        <f>w*P23*10^-6*$G$1</f>
-        <v>11.728671582399246</v>
+        <f t="shared" si="8"/>
+        <v>7.819114388266164</v>
       </c>
       <c r="T23" s="4">
-        <f>P23*$G$1/O23</f>
-        <v>3.284196211050459</v>
+        <f t="shared" si="9"/>
+        <v>2.1894641407003061</v>
       </c>
       <c r="U23" s="4">
-        <f>S23*T23</f>
-        <v>38.51925877157079</v>
+        <f t="shared" si="10"/>
+        <v>17.119670565142577</v>
       </c>
       <c r="V23" s="5">
-        <f>U23*$N$1</f>
-        <v>192.59629385785394</v>
+        <f t="shared" si="11"/>
+        <v>85.59835282571288</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4">
-        <f>w*N23*10^-6*$G$1</f>
-        <v>266.79568200015552</v>
+        <f t="shared" si="12"/>
+        <v>177.86378800010368</v>
       </c>
       <c r="Y23" s="4">
-        <f>X23*$G$1</f>
-        <v>2000.9676150011665</v>
+        <f t="shared" si="13"/>
+        <v>889.31894000051841</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -11622,61 +11678,61 @@
         <v>111.229728541607</v>
       </c>
       <c r="H24" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D24*(10^-9)</f>
-        <v>10169.857996244129</v>
+        <f t="shared" si="0"/>
+        <v>2008.8608387642719</v>
       </c>
       <c r="I24" s="1">
-        <f>2*PI()*150000*Ist*Ist*E24*(10^-9)</f>
-        <v>9215.6129890284956</v>
+        <f t="shared" si="1"/>
+        <v>1820.3679978327884</v>
       </c>
       <c r="J24" s="2">
-        <f>F24*SQRT(H24*I24)</f>
-        <v>631.43328369530923</v>
+        <f t="shared" si="2"/>
+        <v>124.72756221141906</v>
       </c>
       <c r="K24">
-        <f>2*PI()*150000*G24*Ipt*(10^-9)</f>
-        <v>5.3153551559501802</v>
+        <f t="shared" si="3"/>
+        <v>2.3623800693111909</v>
       </c>
       <c r="N24">
-        <f>D24*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.775107086577833</v>
       </c>
       <c r="O24">
-        <f>E24*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8034046586772496</v>
       </c>
       <c r="P24">
-        <f>G24*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.6684459281241051</v>
       </c>
       <c r="Q24">
-        <f>P24/SQRT(N24*O24)</f>
+        <f t="shared" si="7"/>
         <v>0.13919480189315717</v>
       </c>
       <c r="S24" s="4">
-        <f>w*P24*10^-6*$G$1</f>
-        <v>11.793549309089608</v>
+        <f t="shared" si="8"/>
+        <v>7.8623662060597388</v>
       </c>
       <c r="T24" s="4">
-        <f>P24*$G$1/O24</f>
-        <v>3.2900376330933683</v>
+        <f t="shared" si="9"/>
+        <v>2.1933584220622455</v>
       </c>
       <c r="U24" s="4">
-        <f>S24*T24</f>
-        <v>38.801221054647101</v>
+        <f t="shared" si="10"/>
+        <v>17.244987135398713</v>
       </c>
       <c r="V24" s="5">
-        <f>U24*$N$1</f>
-        <v>194.00610527323551</v>
+        <f t="shared" si="11"/>
+        <v>86.224935676993567</v>
       </c>
       <c r="W24" s="4"/>
       <c r="X24" s="4">
-        <f>w*N24*10^-6*$G$1</f>
-        <v>267.01649755146144</v>
+        <f t="shared" si="12"/>
+        <v>178.01099836764095</v>
       </c>
       <c r="Y24" s="4">
-        <f>X24*$G$1</f>
-        <v>2002.6237316359609</v>
+        <f t="shared" si="13"/>
+        <v>890.05499183820473</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
@@ -11704,61 +11760,61 @@
         <v>110.353397689395</v>
       </c>
       <c r="H25" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D25*(10^-9)</f>
-        <v>10140.619606341405</v>
+        <f t="shared" si="0"/>
+        <v>2003.0853543390424</v>
       </c>
       <c r="I25" s="1">
-        <f>2*PI()*150000*Ist*Ist*E25*(10^-9)</f>
-        <v>9174.2055510351802</v>
+        <f t="shared" si="1"/>
+        <v>1812.1887508217633</v>
       </c>
       <c r="J25" s="2">
-        <f>F25*SQRT(H25*I25)</f>
-        <v>959.33765100417281</v>
+        <f t="shared" si="2"/>
+        <v>189.49879526008345</v>
       </c>
       <c r="K25">
-        <f>2*PI()*150000*G25*Ipt*(10^-9)</f>
-        <v>5.2734777750134736</v>
+        <f t="shared" si="3"/>
+        <v>2.3437679000059877</v>
       </c>
       <c r="N25">
-        <f>D25*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.66650347480445</v>
       </c>
       <c r="O25">
-        <f>E25*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7863152645419755</v>
       </c>
       <c r="P25">
-        <f>G25*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.655300965340925</v>
       </c>
       <c r="Q25">
-        <f>P25/SQRT(N25*O25)</f>
+        <f t="shared" si="7"/>
         <v>0.13860883987212388</v>
       </c>
       <c r="S25" s="4">
-        <f>w*P25*10^-6*$G$1</f>
-        <v>11.700633042439071</v>
+        <f t="shared" si="8"/>
+        <v>7.8004220282927141</v>
       </c>
       <c r="T25" s="4">
-        <f>P25*$G$1/O25</f>
-        <v>3.2788493225375226</v>
+        <f t="shared" si="9"/>
+        <v>2.1858995483583481</v>
       </c>
       <c r="U25" s="4">
-        <f>S25*T25</f>
-        <v>38.364612724461502</v>
+        <f t="shared" si="10"/>
+        <v>17.050938988649552</v>
       </c>
       <c r="V25" s="5">
-        <f>U25*$N$1</f>
-        <v>191.8230636223075</v>
+        <f t="shared" si="11"/>
+        <v>85.254694943247756</v>
       </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4">
-        <f>w*N25*10^-6*$G$1</f>
-        <v>266.24882385643514</v>
+        <f t="shared" si="12"/>
+        <v>177.49921590429011</v>
       </c>
       <c r="Y25" s="4">
-        <f>X25*$G$1</f>
-        <v>1996.8661789232635</v>
+        <f t="shared" si="13"/>
+        <v>887.49607952145061</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
@@ -11786,61 +11842,61 @@
         <v>110.840126969262</v>
       </c>
       <c r="H26" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D26*(10^-9)</f>
-        <v>10111.505214981802</v>
+        <f t="shared" si="0"/>
+        <v>1997.334363453195</v>
       </c>
       <c r="I26" s="1">
-        <f>2*PI()*150000*Ist*Ist*E26*(10^-9)</f>
-        <v>9208.641720532567</v>
+        <f t="shared" si="1"/>
+        <v>1818.9909571422347</v>
       </c>
       <c r="J26" s="2">
-        <f>F26*SQRT(H26*I26)</f>
-        <v>0.15077231066649674</v>
+        <f t="shared" si="2"/>
+        <v>2.9782184823011697E-2</v>
       </c>
       <c r="K26">
-        <f>2*PI()*150000*G26*Ipt*(10^-9)</f>
-        <v>5.2967371951452531</v>
+        <f t="shared" si="3"/>
+        <v>2.3541054200645566</v>
       </c>
       <c r="N26">
-        <f>D26*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.558360445494138</v>
       </c>
       <c r="O26">
-        <f>E26*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8005275245022503</v>
       </c>
       <c r="P26">
-        <f>G26*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.6626019045389304</v>
       </c>
       <c r="Q26">
-        <f>P26/SQRT(N26*O26)</f>
+        <f t="shared" si="7"/>
         <v>0.13915955131762639</v>
       </c>
       <c r="S26" s="4">
-        <f>w*P26*10^-6*$G$1</f>
-        <v>11.752240340573781</v>
+        <f t="shared" si="8"/>
+        <v>7.8348268937158538</v>
       </c>
       <c r="T26" s="4">
-        <f>P26*$G$1/O26</f>
-        <v>3.2809956522220141</v>
+        <f t="shared" si="9"/>
+        <v>2.1873304348146765</v>
       </c>
       <c r="U26" s="4">
-        <f>S26*T26</f>
-        <v>38.559049461290741</v>
+        <f t="shared" si="10"/>
+        <v>17.13735531612922</v>
       </c>
       <c r="V26" s="5">
-        <f>U26*$N$1</f>
-        <v>192.79524730645369</v>
+        <f t="shared" si="11"/>
+        <v>85.686776580646097</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4">
-        <f>w*N26*10^-6*$G$1</f>
-        <v>265.48440582699413</v>
+        <f t="shared" si="12"/>
+        <v>176.98960388466276</v>
       </c>
       <c r="Y26" s="4">
-        <f>X26*$G$1</f>
-        <v>1991.133043702456</v>
+        <f t="shared" si="13"/>
+        <v>884.94801942331378</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -11868,61 +11924,61 @@
         <v>97.936741444554798</v>
       </c>
       <c r="H27" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D27*(10^-9)</f>
-        <v>10118.51177427316</v>
+        <f t="shared" si="0"/>
+        <v>1998.7183751650682</v>
       </c>
       <c r="I27" s="1">
-        <f>2*PI()*150000*Ist*Ist*E27*(10^-9)</f>
-        <v>9238.0838032379397</v>
+        <f t="shared" si="1"/>
+        <v>1824.8066771828021</v>
       </c>
       <c r="J27" s="2">
-        <f>F27*SQRT(H27*I27)</f>
-        <v>1043.9705188602602</v>
+        <f t="shared" si="2"/>
+        <v>206.2163987872118</v>
       </c>
       <c r="K27">
-        <f>2*PI()*150000*G27*Ipt*(10^-9)</f>
-        <v>4.6801207772394067</v>
+        <f t="shared" si="3"/>
+        <v>2.0800536787730697</v>
       </c>
       <c r="N27">
-        <f>D27*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.584385737847022</v>
       </c>
       <c r="O27">
-        <f>E27*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8126786591751247</v>
       </c>
       <c r="P27">
-        <f>G27*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.469051121668322</v>
       </c>
       <c r="Q27">
-        <f>P27/SQRT(N27*O27)</f>
+        <f t="shared" si="7"/>
         <v>0.12272077209907126</v>
       </c>
       <c r="S27" s="4">
-        <f>w*P27*10^-6*$G$1</f>
-        <v>10.384110476057351</v>
+        <f t="shared" si="8"/>
+        <v>6.9227403173715674</v>
       </c>
       <c r="T27" s="4">
-        <f>P27*$G$1/O27</f>
-        <v>2.8898012125931798</v>
+        <f t="shared" si="9"/>
+        <v>1.9265341417287867</v>
       </c>
       <c r="U27" s="4">
-        <f>S27*T27</f>
-        <v>30.008015045412076</v>
+        <f t="shared" si="10"/>
+        <v>13.336895575738701</v>
       </c>
       <c r="V27" s="5">
-        <f>U27*$N$1</f>
-        <v>150.04007522706038</v>
+        <f t="shared" si="11"/>
+        <v>66.684477878693514</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4">
-        <f>w*N27*10^-6*$G$1</f>
-        <v>265.66836777833669</v>
+        <f t="shared" si="12"/>
+        <v>177.11224518555778</v>
       </c>
       <c r="Y27" s="4">
-        <f>X27*$G$1</f>
-        <v>1992.5127583375252</v>
+        <f t="shared" si="13"/>
+        <v>885.56122592778888</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -11950,61 +12006,61 @@
         <v>97.681215561976401</v>
       </c>
       <c r="H28" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D28*(10^-9)</f>
-        <v>10087.015773430358</v>
+        <f t="shared" si="0"/>
+        <v>1992.4969428998229</v>
       </c>
       <c r="I28" s="1">
-        <f>2*PI()*150000*Ist*Ist*E28*(10^-9)</f>
-        <v>9212.8492563104792</v>
+        <f t="shared" si="1"/>
+        <v>1819.8220753205878</v>
       </c>
       <c r="J28" s="2">
-        <f>F28*SQRT(H28*I28)</f>
-        <v>718.75331972629806</v>
+        <f t="shared" si="2"/>
+        <v>141.97596439037983</v>
       </c>
       <c r="K28">
-        <f>2*PI()*150000*G28*Ipt*(10^-9)</f>
-        <v>4.6679099156716406</v>
+        <f t="shared" si="3"/>
+        <v>2.0746266291873954</v>
       </c>
       <c r="N28">
-        <f>D28*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.467396414586531</v>
       </c>
       <c r="O28">
-        <f>E28*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8022640298436006</v>
       </c>
       <c r="P28">
-        <f>G28*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.465218233429646</v>
       </c>
       <c r="Q28">
-        <f>P28/SQRT(N28*O28)</f>
+        <f t="shared" si="7"/>
         <v>0.12275930507635556</v>
       </c>
       <c r="S28" s="4">
-        <f>w*P28*10^-6*$G$1</f>
-        <v>10.357017385608877</v>
+        <f t="shared" si="8"/>
+        <v>6.9046782570725851</v>
       </c>
       <c r="T28" s="4">
-        <f>P28*$G$1/O28</f>
-        <v>2.8901561449887958</v>
+        <f t="shared" si="9"/>
+        <v>1.9267707633258639</v>
       </c>
       <c r="U28" s="4">
-        <f>S28*T28</f>
-        <v>29.933397440773287</v>
+        <f t="shared" si="10"/>
+        <v>13.30373219589924</v>
       </c>
       <c r="V28" s="5">
-        <f>U28*$N$1</f>
-        <v>149.66698720386643</v>
+        <f t="shared" si="11"/>
+        <v>66.518660979496204</v>
       </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4">
-        <f>w*N28*10^-6*$G$1</f>
-        <v>264.84141898170361</v>
+        <f t="shared" si="12"/>
+        <v>176.5609459878024</v>
       </c>
       <c r="Y28" s="4">
-        <f>X28*$G$1</f>
-        <v>1986.3106423627771</v>
+        <f t="shared" si="13"/>
+        <v>882.80472993901196</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
@@ -12032,61 +12088,61 @@
         <v>97.238348646655297</v>
       </c>
       <c r="H29" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D29*(10^-9)</f>
-        <v>10070.780165593984</v>
+        <f t="shared" si="0"/>
+        <v>1989.2899092531318</v>
       </c>
       <c r="I29" s="1">
-        <f>2*PI()*150000*Ist*Ist*E29*(10^-9)</f>
-        <v>9184.9793231650456</v>
+        <f t="shared" si="1"/>
+        <v>1814.3169033412428</v>
       </c>
       <c r="J29" s="2">
-        <f>F29*SQRT(H29*I29)</f>
-        <v>995.28004777738988</v>
+        <f t="shared" si="2"/>
+        <v>196.59852795602757</v>
       </c>
       <c r="K29">
-        <f>2*PI()*150000*G29*Ipt*(10^-9)</f>
-        <v>4.6467465542878061</v>
+        <f t="shared" si="3"/>
+        <v>2.0652206907945803</v>
       </c>
       <c r="N29">
-        <f>D29*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.407090575029947</v>
       </c>
       <c r="O29">
-        <f>E29*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7907617419666502</v>
       </c>
       <c r="P29">
-        <f>G29*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.4585752296998293</v>
       </c>
       <c r="Q29">
-        <f>P29/SQRT(N29*O29)</f>
+        <f t="shared" si="7"/>
         <v>0.12248661246841816</v>
       </c>
       <c r="S29" s="4">
-        <f>w*P29*10^-6*$G$1</f>
-        <v>10.310060759249314</v>
+        <f t="shared" si="8"/>
+        <v>6.8733738394995427</v>
       </c>
       <c r="T29" s="4">
-        <f>P29*$G$1/O29</f>
-        <v>2.8857825860280513</v>
+        <f t="shared" si="9"/>
+        <v>1.9238550573520343</v>
       </c>
       <c r="U29" s="4">
-        <f>S29*T29</f>
-        <v>29.752593799932818</v>
+        <f t="shared" si="10"/>
+        <v>13.223375022192364</v>
       </c>
       <c r="V29" s="5">
-        <f>U29*$N$1</f>
-        <v>148.76296899966408</v>
+        <f t="shared" si="11"/>
+        <v>66.116875110961814</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4">
-        <f>w*N29*10^-6*$G$1</f>
-        <v>264.41514212103465</v>
+        <f t="shared" si="12"/>
+        <v>176.2767614140231</v>
       </c>
       <c r="Y29" s="4">
-        <f>X29*$G$1</f>
-        <v>1983.1135659077599</v>
+        <f t="shared" si="13"/>
+        <v>881.38380707011549</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
@@ -12114,61 +12170,61 @@
         <v>98.099425835053594</v>
       </c>
       <c r="H30" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D30*(10^-9)</f>
-        <v>10092.527020431038</v>
+        <f t="shared" si="0"/>
+        <v>1993.5855842826734</v>
       </c>
       <c r="I30" s="1">
-        <f>2*PI()*150000*Ist*Ist*E30*(10^-9)</f>
-        <v>9249.1999093793784</v>
+        <f t="shared" si="1"/>
+        <v>1827.0024512354319</v>
       </c>
       <c r="J30" s="2">
-        <f>F30*SQRT(H30*I30)</f>
-        <v>578.14536586835561</v>
+        <f t="shared" si="2"/>
+        <v>114.20155375177389</v>
       </c>
       <c r="K30">
-        <f>2*PI()*150000*G30*Ipt*(10^-9)</f>
-        <v>4.6878950056329156</v>
+        <f t="shared" si="3"/>
+        <v>2.0835088913924067</v>
       </c>
       <c r="N30">
-        <f>D30*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.487867491538459</v>
       </c>
       <c r="O30">
-        <f>E30*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8172664223477999</v>
       </c>
       <c r="P30">
-        <f>G30*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.471491387525804</v>
       </c>
       <c r="Q30">
-        <f>P30/SQRT(N30*O30)</f>
+        <f t="shared" si="7"/>
         <v>0.12300878261060014</v>
       </c>
       <c r="S30" s="4">
-        <f>w*P30*10^-6*$G$1</f>
-        <v>10.401359698961363</v>
+        <f t="shared" si="8"/>
+        <v>6.9342397993075755</v>
       </c>
       <c r="T30" s="4">
-        <f>P30*$G$1/O30</f>
-        <v>2.8911226478281158</v>
+        <f t="shared" si="9"/>
+        <v>1.9274150985520773</v>
       </c>
       <c r="U30" s="4">
-        <f>S30*T30</f>
-        <v>30.071606593873828</v>
+        <f t="shared" si="10"/>
+        <v>13.365158486166147</v>
       </c>
       <c r="V30" s="5">
-        <f>U30*$N$1</f>
-        <v>150.35803296936913</v>
+        <f t="shared" si="11"/>
+        <v>66.825792430830731</v>
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4">
-        <f>w*N30*10^-6*$G$1</f>
-        <v>264.98612049787084</v>
+        <f t="shared" si="12"/>
+        <v>176.65741366524725</v>
       </c>
       <c r="Y30" s="4">
-        <f>X30*$G$1</f>
-        <v>1987.3959037340314</v>
+        <f t="shared" si="13"/>
+        <v>883.28706832623629</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
@@ -12196,61 +12252,61 @@
         <v>97.225307987847899</v>
       </c>
       <c r="H31" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D31*(10^-9)</f>
-        <v>10049.130570072692</v>
+        <f t="shared" si="0"/>
+        <v>1985.0134459402843</v>
       </c>
       <c r="I31" s="1">
-        <f>2*PI()*150000*Ist*Ist*E31*(10^-9)</f>
-        <v>9180.4121567973853</v>
+        <f t="shared" si="1"/>
+        <v>1813.4147470217049</v>
       </c>
       <c r="J31" s="2">
-        <f>F31*SQRT(H31*I31)</f>
-        <v>916.23227845796578</v>
+        <f t="shared" si="2"/>
+        <v>180.98415376947463</v>
       </c>
       <c r="K31">
-        <f>2*PI()*150000*G31*Ipt*(10^-9)</f>
-        <v>4.6461233779667124</v>
+        <f t="shared" si="3"/>
+        <v>2.0649437235407611</v>
       </c>
       <c r="N31">
-        <f>D31*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.326674920307937</v>
       </c>
       <c r="O31">
-        <f>E31*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7888768123520502</v>
       </c>
       <c r="P31">
-        <f>G31*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.4583796198177186</v>
       </c>
       <c r="Q31">
-        <f>P31/SQRT(N31*O31)</f>
+        <f t="shared" si="7"/>
         <v>0.12263253100722643</v>
       </c>
       <c r="S31" s="4">
-        <f>w*P31*10^-6*$G$1</f>
-        <v>10.308678074469945</v>
+        <f t="shared" si="8"/>
+        <v>6.8724520496466299</v>
       </c>
       <c r="T31" s="4">
-        <f>P31*$G$1/O31</f>
-        <v>2.8868310294424475</v>
+        <f t="shared" si="9"/>
+        <v>1.9245540196282986</v>
       </c>
       <c r="U31" s="4">
-        <f>S31*T31</f>
-        <v>29.75941173791286</v>
+        <f t="shared" si="10"/>
+        <v>13.226405216850161</v>
       </c>
       <c r="V31" s="5">
-        <f>U31*$N$1</f>
-        <v>148.7970586895643</v>
+        <f t="shared" si="11"/>
+        <v>66.132026084250811</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4">
-        <f>w*N31*10^-6*$G$1</f>
-        <v>263.84671735329096</v>
+        <f t="shared" si="12"/>
+        <v>175.89781156886065</v>
       </c>
       <c r="Y31" s="4">
-        <f>X31*$G$1</f>
-        <v>1978.8503801496822</v>
+        <f t="shared" si="13"/>
+        <v>879.48905784430326</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
@@ -12278,61 +12334,61 @@
         <v>96.666817007936004</v>
       </c>
       <c r="H32" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D32*(10^-9)</f>
-        <v>9987.7319286263355</v>
+        <f t="shared" si="0"/>
+        <v>1972.8853192348308</v>
       </c>
       <c r="I32" s="1">
-        <f>2*PI()*150000*Ist*Ist*E32*(10^-9)</f>
-        <v>9123.1717068755552</v>
+        <f t="shared" si="1"/>
+        <v>1802.1079914815905</v>
       </c>
       <c r="J32" s="2">
-        <f>F32*SQRT(H32*I32)</f>
-        <v>1073.5122488886429</v>
+        <f t="shared" si="2"/>
+        <v>212.05180224960841</v>
       </c>
       <c r="K32">
-        <f>2*PI()*150000*G32*Ipt*(10^-9)</f>
-        <v>4.6194346684953418</v>
+        <f t="shared" si="3"/>
+        <v>2.0530820748868184</v>
       </c>
       <c r="N32">
-        <f>D32*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.098614680286587</v>
       </c>
       <c r="O32">
-        <f>E32*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7652529260021503</v>
       </c>
       <c r="P32">
-        <f>G32*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.4500022551190401</v>
       </c>
       <c r="Q32">
-        <f>P32/SQRT(N32*O32)</f>
+        <f t="shared" si="7"/>
         <v>0.12268536349453933</v>
       </c>
       <c r="S32" s="4">
-        <f>w*P32*10^-6*$G$1</f>
-        <v>10.249461972833871</v>
+        <f t="shared" si="8"/>
+        <v>6.832974648555914</v>
       </c>
       <c r="T32" s="4">
-        <f>P32*$G$1/O32</f>
-        <v>2.8882566794628635</v>
+        <f t="shared" si="9"/>
+        <v>1.9255044529752423</v>
       </c>
       <c r="U32" s="4">
-        <f>S32*T32</f>
-        <v>29.603077003938044</v>
+        <f t="shared" si="10"/>
+        <v>13.156923112861353</v>
       </c>
       <c r="V32" s="5">
-        <f>U32*$N$1</f>
-        <v>148.01538501969023</v>
+        <f t="shared" si="11"/>
+        <v>65.784615564306762</v>
       </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4">
-        <f>w*N32*10^-6*$G$1</f>
-        <v>262.23465451038027</v>
+        <f t="shared" si="12"/>
+        <v>174.82310300692018</v>
       </c>
       <c r="Y32" s="4">
-        <f>X32*$G$1</f>
-        <v>1966.7599088278521</v>
+        <f t="shared" si="13"/>
+        <v>874.11551503460089</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
@@ -12360,61 +12416,61 @@
         <v>81.897070409233393</v>
       </c>
       <c r="H33" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D33*(10^-9)</f>
-        <v>9993.3203198208957</v>
+        <f t="shared" si="0"/>
+        <v>1973.9891989769665</v>
       </c>
       <c r="I33" s="1">
-        <f>2*PI()*150000*Ist*Ist*E33*(10^-9)</f>
-        <v>9249.8586239630768</v>
+        <f t="shared" si="1"/>
+        <v>1827.1325676964095</v>
       </c>
       <c r="J33" s="2">
-        <f>F33*SQRT(H33*I33)</f>
-        <v>1029.3794117592636</v>
+        <f t="shared" si="2"/>
+        <v>203.33420479195323</v>
       </c>
       <c r="K33">
-        <f>2*PI()*150000*G33*Ipt*(10^-9)</f>
-        <v>3.9136301163775586</v>
+        <f t="shared" si="3"/>
+        <v>1.73939116283447</v>
       </c>
       <c r="N33">
-        <f>D33*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.119372303047307</v>
       </c>
       <c r="O33">
-        <f>E33*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.817538282518075</v>
       </c>
       <c r="P33">
-        <f>G33*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.228456056138501</v>
       </c>
       <c r="Q33">
-        <f>P33/SQRT(N33*O33)</f>
+        <f t="shared" si="7"/>
         <v>0.10319712859331616</v>
       </c>
       <c r="S33" s="4">
-        <f>w*P33*10^-6*$G$1</f>
-        <v>8.6834441727508604</v>
+        <f t="shared" si="8"/>
+        <v>5.7889627818339076</v>
       </c>
       <c r="T33" s="4">
-        <f>P33*$G$1/O33</f>
-        <v>2.4134454559972403</v>
+        <f t="shared" si="9"/>
+        <v>1.6089636373314937</v>
       </c>
       <c r="U33" s="4">
-        <f>S33*T33</f>
-        <v>20.95701888113128</v>
+        <f t="shared" si="10"/>
+        <v>9.314230613836127</v>
       </c>
       <c r="V33" s="5">
-        <f>U33*$N$1</f>
-        <v>104.78509440565639</v>
+        <f t="shared" si="11"/>
+        <v>46.571153069180639</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4">
-        <f>w*N33*10^-6*$G$1</f>
-        <v>262.38138149951516</v>
+        <f t="shared" si="12"/>
+        <v>174.92092099967678</v>
       </c>
       <c r="Y33" s="4">
-        <f>X33*$G$1</f>
-        <v>1967.8603612463637</v>
+        <f t="shared" si="13"/>
+        <v>874.60460499838393</v>
       </c>
       <c r="AA33" t="s">
         <v>41</v>
@@ -12445,61 +12501,61 @@
         <v>81.489944007226896</v>
       </c>
       <c r="H34" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D34*(10^-9)</f>
-        <v>9975.7557947619225</v>
+        <f t="shared" si="0"/>
+        <v>1970.519663162848</v>
       </c>
       <c r="I34" s="1">
-        <f>2*PI()*150000*Ist*Ist*E34*(10^-9)</f>
-        <v>9203.3170017269294</v>
+        <f t="shared" si="1"/>
+        <v>1817.9391608349483</v>
       </c>
       <c r="J34" s="2">
-        <f>F34*SQRT(H34*I34)</f>
-        <v>662.42526704995589</v>
+        <f t="shared" si="2"/>
+        <v>130.84943546665789</v>
       </c>
       <c r="K34">
-        <f>2*PI()*150000*G34*Ipt*(10^-9)</f>
-        <v>3.89417469336788</v>
+        <f t="shared" si="3"/>
+        <v>1.7307443081635021</v>
       </c>
       <c r="N34">
-        <f>D34*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.05413030898282</v>
       </c>
       <c r="O34">
-        <f>E34*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.798329943035275</v>
       </c>
       <c r="P34">
-        <f>G34*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2223491601084036</v>
       </c>
       <c r="Q34">
-        <f>P34/SQRT(N34*O34)</f>
+        <f t="shared" si="7"/>
         <v>0.10303401476695871</v>
       </c>
       <c r="S34" s="4">
-        <f>w*P34*10^-6*$G$1</f>
-        <v>8.6402770684159815</v>
+        <f t="shared" si="8"/>
+        <v>5.7601847122773204</v>
       </c>
       <c r="T34" s="4">
-        <f>P34*$G$1/O34</f>
-        <v>2.4135919833986592</v>
+        <f t="shared" si="9"/>
+        <v>1.6090613222657728</v>
       </c>
       <c r="U34" s="4">
-        <f>S34*T34</f>
-        <v>20.854103466672083</v>
+        <f t="shared" si="10"/>
+        <v>9.2684904296320347</v>
       </c>
       <c r="V34" s="5">
-        <f>U34*$N$1</f>
-        <v>104.27051733336042</v>
+        <f t="shared" si="11"/>
+        <v>46.342452148160177</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4">
-        <f>w*N34*10^-6*$G$1</f>
-        <v>261.9202130186834</v>
+        <f t="shared" si="12"/>
+        <v>174.61347534578894</v>
       </c>
       <c r="Y34" s="4">
-        <f>X34*$G$1</f>
-        <v>1964.4015976401256</v>
+        <f t="shared" si="13"/>
+        <v>873.06737672894474</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
@@ -12527,61 +12583,61 @@
         <v>81.862202555812303</v>
       </c>
       <c r="H35" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D35*(10^-9)</f>
-        <v>9977.6862158878994</v>
+        <f t="shared" si="0"/>
+        <v>1970.9009809161278</v>
       </c>
       <c r="I35" s="1">
-        <f>2*PI()*150000*Ist*Ist*E35*(10^-9)</f>
-        <v>9235.7598037689568</v>
+        <f t="shared" si="1"/>
+        <v>1824.3476155592996</v>
       </c>
       <c r="J35" s="2">
-        <f>F35*SQRT(H35*I35)</f>
-        <v>965.29480110454415</v>
+        <f t="shared" si="2"/>
+        <v>190.67551626756421</v>
       </c>
       <c r="K35">
-        <f>2*PI()*150000*G35*Ipt*(10^-9)</f>
-        <v>3.9119638799595724</v>
+        <f t="shared" si="3"/>
+        <v>1.7386506133153654</v>
       </c>
       <c r="N35">
-        <f>D35*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.061300700622802</v>
       </c>
       <c r="O35">
-        <f>E35*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8117195140355005</v>
       </c>
       <c r="P35">
-        <f>G35*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2279330383371847</v>
       </c>
       <c r="Q35">
-        <f>P35/SQRT(N35*O35)</f>
+        <f t="shared" si="7"/>
         <v>0.1033127419814822</v>
       </c>
       <c r="S35" s="4">
-        <f>w*P35*10^-6*$G$1</f>
-        <v>8.679747177765659</v>
+        <f t="shared" si="8"/>
+        <v>5.7864981185104387</v>
       </c>
       <c r="T35" s="4">
-        <f>P35*$G$1/O35</f>
-        <v>2.4161005954445769</v>
+        <f t="shared" si="9"/>
+        <v>1.6107337302963844</v>
       </c>
       <c r="U35" s="4">
-        <f>S35*T35</f>
-        <v>20.971142324507994</v>
+        <f t="shared" si="10"/>
+        <v>9.320507699781329</v>
       </c>
       <c r="V35" s="5">
-        <f>U35*$N$1</f>
-        <v>104.85571162253997</v>
+        <f t="shared" si="11"/>
+        <v>46.602538498906647</v>
       </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4">
-        <f>w*N35*10^-6*$G$1</f>
-        <v>261.97089753050739</v>
+        <f t="shared" si="12"/>
+        <v>174.64726502033827</v>
       </c>
       <c r="Y35" s="4">
-        <f>X35*$G$1</f>
-        <v>1964.7817314788053</v>
+        <f t="shared" si="13"/>
+        <v>873.23632510169136</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
@@ -12609,61 +12665,61 @@
         <v>81.446194710907406</v>
       </c>
       <c r="H36" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D36*(10^-9)</f>
-        <v>9977.3529055807012</v>
+        <f t="shared" si="0"/>
+        <v>1970.8351418431009</v>
       </c>
       <c r="I36" s="1">
-        <f>2*PI()*150000*Ist*Ist*E36*(10^-9)</f>
-        <v>9198.485789444132</v>
+        <f t="shared" si="1"/>
+        <v>1816.9848472976055</v>
       </c>
       <c r="J36" s="2">
-        <f>F36*SQRT(H36*I36)</f>
-        <v>522.28632455117508</v>
+        <f t="shared" si="2"/>
+        <v>103.16766904714567</v>
       </c>
       <c r="K36">
-        <f>2*PI()*150000*G36*Ipt*(10^-9)</f>
-        <v>3.8920840378317205</v>
+        <f t="shared" si="3"/>
+        <v>1.729815127925209</v>
       </c>
       <c r="N36">
-        <f>D36*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>37.060062646703848</v>
       </c>
       <c r="O36">
-        <f>E36*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7963360381995006</v>
       </c>
       <c r="P36">
-        <f>G36*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2216929206636111</v>
       </c>
       <c r="Q36">
-        <f>P36/SQRT(N36*O36)</f>
+        <f t="shared" si="7"/>
         <v>0.10299749417540038</v>
       </c>
       <c r="S36" s="4">
-        <f>w*P36*10^-6*$G$1</f>
-        <v>8.6356383851237819</v>
+        <f t="shared" si="8"/>
+        <v>5.7570922567491873</v>
       </c>
       <c r="T36" s="4">
-        <f>P36*$G$1/O36</f>
-        <v>2.413563186393453</v>
+        <f t="shared" si="9"/>
+        <v>1.6090421242623019</v>
       </c>
       <c r="U36" s="4">
-        <f>S36*T36</f>
-        <v>20.842658897340968</v>
+        <f t="shared" si="10"/>
+        <v>9.2634039543737625</v>
       </c>
       <c r="V36" s="5">
-        <f>U36*$N$1</f>
-        <v>104.21329448670484</v>
+        <f t="shared" si="11"/>
+        <v>46.317019771868814</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4">
-        <f>w*N36*10^-6*$G$1</f>
-        <v>261.96214624304019</v>
+        <f t="shared" si="12"/>
+        <v>174.64143082869344</v>
       </c>
       <c r="Y36" s="4">
-        <f>X36*$G$1</f>
-        <v>1964.7160968228015</v>
+        <f t="shared" si="13"/>
+        <v>873.20715414346728</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -12691,61 +12747,61 @@
         <v>81.263609119509795</v>
       </c>
       <c r="H37" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D37*(10^-9)</f>
-        <v>9939.8623333416945</v>
+        <f t="shared" si="0"/>
+        <v>1963.4295967094699</v>
       </c>
       <c r="I37" s="1">
-        <f>2*PI()*150000*Ist*Ist*E37*(10^-9)</f>
-        <v>9185.7432053536722</v>
+        <f t="shared" si="1"/>
+        <v>1814.4677936501073</v>
       </c>
       <c r="J37" s="2">
-        <f>F37*SQRT(H37*I37)</f>
-        <v>869.3230563189345</v>
+        <f t="shared" si="2"/>
+        <v>171.71813458151786</v>
       </c>
       <c r="K37">
-        <f>2*PI()*150000*G37*Ipt*(10^-9)</f>
-        <v>3.8833587871513284</v>
+        <f t="shared" si="3"/>
+        <v>1.7259372387339236</v>
       </c>
       <c r="N37">
-        <f>D37*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.920806977491097</v>
       </c>
       <c r="O37">
-        <f>E37*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.79107700619035</v>
       </c>
       <c r="P37">
-        <f>G37*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2189541367926471</v>
       </c>
       <c r="Q37">
-        <f>P37/SQRT(N37*O37)</f>
+        <f t="shared" si="7"/>
         <v>0.10303160616198277</v>
       </c>
       <c r="S37" s="4">
-        <f>w*P37*10^-6*$G$1</f>
-        <v>8.6162790627240025</v>
+        <f t="shared" si="8"/>
+        <v>5.7441860418160022</v>
       </c>
       <c r="T37" s="4">
-        <f>P37*$G$1/O37</f>
-        <v>2.4114930957658909</v>
+        <f t="shared" si="9"/>
+        <v>1.6076620638439272</v>
       </c>
       <c r="U37" s="4">
-        <f>S37*T37</f>
-        <v>20.778097470951135</v>
+        <f t="shared" si="10"/>
+        <v>9.2347099870893938</v>
       </c>
       <c r="V37" s="5">
-        <f>U37*$N$1</f>
-        <v>103.89048735475568</v>
+        <f t="shared" si="11"/>
+        <v>46.173549935446971</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4">
-        <f>w*N37*10^-6*$G$1</f>
-        <v>260.97780592145881</v>
+        <f t="shared" si="12"/>
+        <v>173.98520394763921</v>
       </c>
       <c r="Y37" s="4">
-        <f>X37*$G$1</f>
-        <v>1957.3335444109412</v>
+        <f t="shared" si="13"/>
+        <v>869.92601973819603</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -12773,61 +12829,61 @@
         <v>81.501233515307604</v>
       </c>
       <c r="H38" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D38*(10^-9)</f>
-        <v>9915.0371333120129</v>
+        <f t="shared" si="0"/>
+        <v>1958.5258534937302</v>
       </c>
       <c r="I38" s="1">
-        <f>2*PI()*150000*Ist*Ist*E38*(10^-9)</f>
-        <v>9219.4650841643979</v>
+        <f t="shared" si="1"/>
+        <v>1821.1289055139539</v>
       </c>
       <c r="J38" s="2">
-        <f>F38*SQRT(H38*I38)</f>
-        <v>1067.8262820048046</v>
+        <f t="shared" si="2"/>
+        <v>210.92864829724525</v>
       </c>
       <c r="K38">
-        <f>2*PI()*150000*G38*Ipt*(10^-9)</f>
-        <v>3.8947141871324669</v>
+        <f t="shared" si="3"/>
+        <v>1.7309840831699852</v>
       </c>
       <c r="N38">
-        <f>D38*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.828595799133126</v>
       </c>
       <c r="O38">
-        <f>E38*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8049944689918753</v>
       </c>
       <c r="P38">
-        <f>G38*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.2225185027296142</v>
       </c>
       <c r="Q38">
-        <f>P38/SQRT(N38*O38)</f>
+        <f t="shared" si="7"/>
         <v>0.10327277472354718</v>
       </c>
       <c r="S38" s="4">
-        <f>w*P38*10^-6*$G$1</f>
-        <v>8.6414740808691342</v>
+        <f t="shared" si="8"/>
+        <v>5.7609827205794231</v>
       </c>
       <c r="T38" s="4">
-        <f>P38*$G$1/O38</f>
-        <v>2.4096983176171034</v>
+        <f t="shared" si="9"/>
+        <v>1.6064655450780692</v>
       </c>
       <c r="U38" s="4">
-        <f>S38*T38</f>
-        <v>20.823345554402156</v>
+        <f t="shared" si="10"/>
+        <v>9.2548202464009606</v>
       </c>
       <c r="V38" s="5">
-        <f>U38*$N$1</f>
-        <v>104.11672777201078</v>
+        <f t="shared" si="11"/>
+        <v>46.274101232004803</v>
       </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4">
-        <f>w*N38*10^-6*$G$1</f>
-        <v>260.32600351031516</v>
+        <f t="shared" si="12"/>
+        <v>173.55066900687677</v>
       </c>
       <c r="Y38" s="4">
-        <f>X38*$G$1</f>
-        <v>1952.4450263273636</v>
+        <f t="shared" si="13"/>
+        <v>867.75334503438387</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -12855,61 +12911,61 @@
         <v>72.083854113798097</v>
       </c>
       <c r="H39" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D39*(10^-9)</f>
-        <v>9913.4860964256113</v>
+        <f t="shared" si="0"/>
+        <v>1958.219475837157</v>
       </c>
       <c r="I39" s="1">
-        <f>2*PI()*150000*Ist*Ist*E39*(10^-9)</f>
-        <v>9239.420452137716</v>
+        <f t="shared" si="1"/>
+        <v>1825.0707065951033</v>
       </c>
       <c r="J39" s="2">
-        <f>F39*SQRT(H39*I39)</f>
-        <v>1012.4934234683911</v>
+        <f t="shared" si="2"/>
+        <v>199.99870093202779</v>
       </c>
       <c r="K39">
-        <f>2*PI()*150000*G39*Ipt*(10^-9)</f>
-        <v>3.4446841743501544</v>
+        <f t="shared" si="3"/>
+        <v>1.530970744155624</v>
       </c>
       <c r="N39">
-        <f>D39*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.822834599271665</v>
       </c>
       <c r="O39">
-        <f>E39*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8132303117519499</v>
       </c>
       <c r="P39">
-        <f>G39*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0812578117069713</v>
       </c>
       <c r="Q39">
-        <f>P39/SQRT(N39*O39)</f>
+        <f t="shared" si="7"/>
         <v>9.124816324674935E-2</v>
       </c>
       <c r="S39" s="4">
-        <f>w*P39*10^-6*$G$1</f>
-        <v>7.6429610952641927</v>
+        <f t="shared" si="8"/>
+        <v>5.0953073968427951</v>
       </c>
       <c r="T39" s="4">
-        <f>P39*$G$1/O39</f>
-        <v>2.1266571711679507</v>
+        <f t="shared" si="9"/>
+        <v>1.4177714474453005</v>
       </c>
       <c r="U39" s="4">
-        <f>S39*T39</f>
-        <v>16.25395802220125</v>
+        <f t="shared" si="10"/>
+        <v>7.2239813432005553</v>
       </c>
       <c r="V39" s="5">
-        <f>U39*$N$1</f>
-        <v>81.269790111006245</v>
+        <f t="shared" si="11"/>
+        <v>36.119906716002774</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4">
-        <f>w*N39*10^-6*$G$1</f>
-        <v>260.2852799882038</v>
+        <f t="shared" si="12"/>
+        <v>173.52351999213585</v>
       </c>
       <c r="Y39" s="4">
-        <f>X39*$G$1</f>
-        <v>1952.1395999115284</v>
+        <f t="shared" si="13"/>
+        <v>867.61759996067917</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -12937,61 +12993,61 @@
         <v>71.537674475284007</v>
       </c>
       <c r="H40" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D40*(10^-9)</f>
-        <v>9873.1930118444561</v>
+        <f t="shared" si="0"/>
+        <v>1950.2603480186574</v>
       </c>
       <c r="I40" s="1">
-        <f>2*PI()*150000*Ist*Ist*E40*(10^-9)</f>
-        <v>9160.6389995651516</v>
+        <f t="shared" si="1"/>
+        <v>1809.5089381857081</v>
       </c>
       <c r="J40" s="2">
-        <f>F40*SQRT(H40*I40)</f>
-        <v>607.23271750385322</v>
+        <f t="shared" si="2"/>
+        <v>119.94720345755123</v>
       </c>
       <c r="K40">
-        <f>2*PI()*150000*G40*Ipt*(10^-9)</f>
-        <v>3.418583789176914</v>
+        <f t="shared" si="3"/>
+        <v>1.5193705729675173</v>
       </c>
       <c r="N40">
-        <f>D40*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.673169226808859</v>
       </c>
       <c r="O40">
-        <f>E40*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7807161703607499</v>
       </c>
       <c r="P40">
-        <f>G40*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0730651171292602</v>
       </c>
       <c r="Q40">
-        <f>P40/SQRT(N40*O40)</f>
+        <f t="shared" si="7"/>
         <v>9.1130723567221628E-2</v>
       </c>
       <c r="S40" s="4">
-        <f>w*P40*10^-6*$G$1</f>
-        <v>7.5850503497926978</v>
+        <f t="shared" si="8"/>
+        <v>5.0567002331951318</v>
       </c>
       <c r="T40" s="4">
-        <f>P40*$G$1/O40</f>
-        <v>2.1286941457183031</v>
+        <f t="shared" si="9"/>
+        <v>1.4191294304788689</v>
       </c>
       <c r="U40" s="4">
-        <f>S40*T40</f>
-        <v>16.146252274582281</v>
+        <f t="shared" si="10"/>
+        <v>7.1761121220365709</v>
       </c>
       <c r="V40" s="5">
-        <f>U40*$N$1</f>
-        <v>80.731261372911405</v>
+        <f t="shared" si="11"/>
+        <v>35.880560610182854</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4">
-        <f>w*N40*10^-6*$G$1</f>
-        <v>259.22735781029547</v>
+        <f t="shared" si="12"/>
+        <v>172.818238540197</v>
       </c>
       <c r="Y40" s="4">
-        <f>X40*$G$1</f>
-        <v>1944.2051835772161</v>
+        <f t="shared" si="13"/>
+        <v>864.09119270098495</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
@@ -13019,61 +13075,61 @@
         <v>71.948313410054197</v>
       </c>
       <c r="H41" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D41*(10^-9)</f>
-        <v>9899.166769920952</v>
+        <f t="shared" si="0"/>
+        <v>1955.3909668979652</v>
       </c>
       <c r="I41" s="1">
-        <f>2*PI()*150000*Ist*Ist*E41*(10^-9)</f>
-        <v>9218.8042907652343</v>
+        <f t="shared" si="1"/>
+        <v>1820.9983784227618</v>
       </c>
       <c r="J41" s="2">
-        <f>F41*SQRT(H41*I41)</f>
-        <v>928.73582753519759</v>
+        <f t="shared" si="2"/>
+        <v>183.4539906242365</v>
       </c>
       <c r="K41">
-        <f>2*PI()*150000*G41*Ipt*(10^-9)</f>
-        <v>3.4382070662250834</v>
+        <f t="shared" si="3"/>
+        <v>1.5280920294333704</v>
       </c>
       <c r="N41">
-        <f>D41*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.769646630243876</v>
       </c>
       <c r="O41">
-        <f>E41*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8047217508671252</v>
       </c>
       <c r="P41">
-        <f>G41*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0792247011508129</v>
       </c>
       <c r="Q41">
-        <f>P41/SQRT(N41*O41)</f>
+        <f t="shared" si="7"/>
         <v>9.1244290425295388E-2</v>
       </c>
       <c r="S41" s="4">
-        <f>w*P41*10^-6*$G$1</f>
-        <v>7.6285898835930759</v>
+        <f t="shared" si="8"/>
+        <v>5.0857265890620509</v>
       </c>
       <c r="T41" s="4">
-        <f>P41*$G$1/O41</f>
-        <v>2.1274053107264335</v>
+        <f t="shared" si="9"/>
+        <v>1.4182702071509556</v>
       </c>
       <c r="U41" s="4">
-        <f>S41*T41</f>
-        <v>16.229102631709853</v>
+        <f t="shared" si="10"/>
+        <v>7.2129345029821579</v>
       </c>
       <c r="V41" s="5">
-        <f>U41*$N$1</f>
-        <v>81.145513158549264</v>
+        <f t="shared" si="11"/>
+        <v>36.064672514910789</v>
       </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4">
-        <f>w*N41*10^-6*$G$1</f>
-        <v>259.90931638950042</v>
+        <f t="shared" si="12"/>
+        <v>173.27287759300026</v>
       </c>
       <c r="Y41" s="4">
-        <f>X41*$G$1</f>
-        <v>1949.3198729212531</v>
+        <f t="shared" si="13"/>
+        <v>866.36438796500124</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -13101,61 +13157,61 @@
         <v>71.698868319815801</v>
       </c>
       <c r="H42" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D42*(10^-9)</f>
-        <v>9908.506137020142</v>
+        <f t="shared" si="0"/>
+        <v>1957.2357801521259</v>
       </c>
       <c r="I42" s="1">
-        <f>2*PI()*150000*Ist*Ist*E42*(10^-9)</f>
-        <v>9238.6256188740517</v>
+        <f t="shared" si="1"/>
+        <v>1824.9137024936388</v>
       </c>
       <c r="J42" s="2">
-        <f>F42*SQRT(H42*I42)</f>
-        <v>1056.9847957341135</v>
+        <f t="shared" si="2"/>
+        <v>208.78712014500994</v>
       </c>
       <c r="K42">
-        <f>2*PI()*150000*G42*Ipt*(10^-9)</f>
-        <v>3.4262867885807027</v>
+        <f t="shared" si="3"/>
+        <v>1.5227941282580899</v>
       </c>
       <c r="N42">
-        <f>D42*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.804336946708773</v>
       </c>
       <c r="O42">
-        <f>E42*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.8129022736125999</v>
       </c>
       <c r="P42">
-        <f>G42*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0754830247972371</v>
       </c>
       <c r="Q42">
-        <f>P42/SQRT(N42*O42)</f>
+        <f t="shared" si="7"/>
         <v>9.0787534835649164E-2</v>
       </c>
       <c r="S42" s="4">
-        <f>w*P42*10^-6*$G$1</f>
-        <v>7.6021415319679413</v>
+        <f t="shared" si="8"/>
+        <v>5.0680943546452939</v>
       </c>
       <c r="T42" s="4">
-        <f>P42*$G$1/O42</f>
-        <v>2.1154810973785834</v>
+        <f t="shared" si="9"/>
+        <v>1.4103207315857222</v>
       </c>
       <c r="U42" s="4">
-        <f>S42*T42</f>
-        <v>16.082186710474847</v>
+        <f t="shared" si="10"/>
+        <v>7.1476385379888194</v>
       </c>
       <c r="V42" s="5">
-        <f>U42*$N$1</f>
-        <v>80.410933552374232</v>
+        <f t="shared" si="11"/>
+        <v>35.7381926899441</v>
       </c>
       <c r="W42" s="4"/>
       <c r="X42" s="4">
-        <f>w*N42*10^-6*$G$1</f>
-        <v>260.15452778705321</v>
+        <f t="shared" si="12"/>
+        <v>173.43635185803549</v>
       </c>
       <c r="Y42" s="4">
-        <f>X42*$G$1</f>
-        <v>1951.1589584028991</v>
+        <f t="shared" si="13"/>
+        <v>867.18175929017752</v>
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
@@ -13183,61 +13239,61 @@
         <v>71.640620522803104</v>
       </c>
       <c r="H43" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D43*(10^-9)</f>
-        <v>9872.1782466412078</v>
+        <f t="shared" si="0"/>
+        <v>1950.0599005711019</v>
       </c>
       <c r="I43" s="1">
-        <f>2*PI()*150000*Ist*Ist*E43*(10^-9)</f>
-        <v>9201.9283291420215</v>
+        <f t="shared" si="1"/>
+        <v>1817.6648551391638</v>
       </c>
       <c r="J43" s="2">
-        <f>F43*SQRT(H43*I43)</f>
-        <v>823.06781037248265</v>
+        <f t="shared" si="2"/>
+        <v>162.58129587604589</v>
       </c>
       <c r="K43">
-        <f>2*PI()*150000*G43*Ipt*(10^-9)</f>
-        <v>3.4235032905695717</v>
+        <f t="shared" si="3"/>
+        <v>1.5215570180309206</v>
       </c>
       <c r="N43">
-        <f>D43*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.669399964324114</v>
       </c>
       <c r="O43">
-        <f>E43*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7977568195995248</v>
       </c>
       <c r="P43">
-        <f>G43*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0746093078420467</v>
       </c>
       <c r="Q43">
-        <f>P43/SQRT(N43*O43)</f>
+        <f t="shared" si="7"/>
         <v>9.1061567130414856E-2</v>
       </c>
       <c r="S43" s="4">
-        <f>w*P43*10^-6*$G$1</f>
-        <v>7.5959655907405192</v>
+        <f t="shared" si="8"/>
+        <v>5.0639770604936798</v>
       </c>
       <c r="T43" s="4">
-        <f>P43*$G$1/O43</f>
-        <v>2.1221921759764584</v>
+        <f t="shared" si="9"/>
+        <v>1.4147947839843056</v>
       </c>
       <c r="U43" s="4">
-        <f>S43*T43</f>
-        <v>16.120098745655927</v>
+        <f t="shared" si="10"/>
+        <v>7.1644883314026346</v>
       </c>
       <c r="V43" s="5">
-        <f>U43*$N$1</f>
-        <v>80.600493728279631</v>
+        <f t="shared" si="11"/>
+        <v>35.822441657013172</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4">
-        <f>w*N43*10^-6*$G$1</f>
-        <v>259.20071446379956</v>
+        <f t="shared" si="12"/>
+        <v>172.80047630919969</v>
       </c>
       <c r="Y43" s="4">
-        <f>X43*$G$1</f>
-        <v>1944.0053584784966</v>
+        <f t="shared" si="13"/>
+        <v>864.00238154599845</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -13265,61 +13321,61 @@
         <v>71.551237811054705</v>
       </c>
       <c r="H44" s="1">
-        <f>2*PI()*150000*Ipt*Ipt*D44*(10^-9)</f>
-        <v>9821.4990314302177</v>
+        <f t="shared" si="0"/>
+        <v>1940.0491913936223</v>
       </c>
       <c r="I44" s="1">
-        <f>2*PI()*150000*Ist*Ist*E44*(10^-9)</f>
-        <v>9181.2598746151052</v>
+        <f t="shared" si="1"/>
+        <v>1813.5821974548351</v>
       </c>
       <c r="J44" s="2">
-        <f>F44*SQRT(H44*I44)</f>
-        <v>1046.107018363741</v>
+        <f t="shared" si="2"/>
+        <v>206.63842338049196</v>
       </c>
       <c r="K44">
-        <f>2*PI()*150000*G44*Ipt*(10^-9)</f>
-        <v>3.4192319427565905</v>
+        <f t="shared" si="3"/>
+        <v>1.5196586412251512</v>
       </c>
       <c r="N44">
-        <f>D44*$D$1^2*10^-3</f>
+        <f t="shared" si="4"/>
         <v>36.481156157737445</v>
       </c>
       <c r="O44">
-        <f>E44*$D$2^2*10^-3</f>
+        <f t="shared" si="5"/>
         <v>3.7892266766422504</v>
       </c>
       <c r="P44">
-        <f>G44*$D$1*$D$2*10^-3</f>
+        <f t="shared" si="6"/>
         <v>1.0732685671658206</v>
       </c>
       <c r="Q44">
-        <f>P44/SQRT(N44*O44)</f>
+        <f t="shared" si="7"/>
         <v>9.1284874020947981E-2</v>
       </c>
       <c r="S44" s="4">
-        <f>w*P44*10^-6*$G$1</f>
-        <v>7.5864884533582178</v>
+        <f t="shared" si="8"/>
+        <v>5.0576589689054785</v>
       </c>
       <c r="T44" s="4">
-        <f>P44*$G$1/O44</f>
-        <v>2.1243158408450182</v>
+        <f t="shared" si="9"/>
+        <v>1.4162105605633453</v>
       </c>
       <c r="U44" s="4">
-        <f>S44*T44</f>
-        <v>16.116097597856683</v>
+        <f t="shared" si="10"/>
+        <v>7.1627100434918587</v>
       </c>
       <c r="V44" s="5">
-        <f>U44*$N$1</f>
-        <v>80.580487989283412</v>
+        <f t="shared" si="11"/>
+        <v>35.813550217459294</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4">
-        <f>w*N44*10^-6*$G$1</f>
-        <v>257.87009740412253</v>
+        <f t="shared" si="12"/>
+        <v>171.91339826941501</v>
       </c>
       <c r="Y44" s="4">
-        <f>X44*$G$1</f>
-        <v>1934.025730530919</v>
+        <f t="shared" si="13"/>
+        <v>859.56699134707503</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">

--- a/CoilDesign/AnalysisResults_Block/FerriteBlock.xlsx
+++ b/CoilDesign/AnalysisResults_Block/FerriteBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\CoilDesign\AnalysisResults_Block\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A17FB1-0F5C-4ED8-9CA1-4F9FDB572B8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3F5EC1-F433-44A1-AD0E-EA07A8D2EAC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9968,8 +9968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B8707C-0ADA-43C9-8138-8806A8046C6B}">
   <dimension ref="B1:AA290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10031,6 +10031,11 @@
       <c r="K2">
         <f>2*PI()*K1</f>
         <v>942477.79607693793</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">

--- a/CoilDesign/AnalysisResults_Block/FerriteBlock.xlsx
+++ b/CoilDesign/AnalysisResults_Block/FerriteBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\CoilDesign\AnalysisResults_Block\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3F5EC1-F433-44A1-AD0E-EA07A8D2EAC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B07409-325D-4601-B95D-32641FBE083A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ydisp" sheetId="6" r:id="rId1"/>
@@ -3793,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5C03A5-8D53-4612-89BE-2250A06B9300}">
   <dimension ref="B1:AA294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -9968,7 +9968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B8707C-0ADA-43C9-8138-8806A8046C6B}">
   <dimension ref="B1:AA290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
